--- a/PM.xlsx
+++ b/PM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590875C9-C65E-4B94-B5FA-C621EF183211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D4B2EB-2362-4C70-86D2-27A5EE9147A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{237199C3-ED65-4E36-BE9B-24893DBB0CE2}"/>
   </bookViews>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V107" authorId="0" shapeId="0" xr:uid="{13110409-64B3-42BF-8836-F6B38B57281D}">
+    <comment ref="V106" authorId="0" shapeId="0" xr:uid="{13110409-64B3-42BF-8836-F6B38B57281D}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q126" authorId="0" shapeId="0" xr:uid="{0C4B47A4-4CF9-483E-A432-77B5692BE9A4}">
+    <comment ref="Q125" authorId="0" shapeId="0" xr:uid="{0C4B47A4-4CF9-483E-A432-77B5692BE9A4}">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="264">
   <si>
     <t>Philipp Morris</t>
   </si>
@@ -274,9 +274,6 @@
     <t>Operating Margin</t>
   </si>
   <si>
-    <t>Net Margin</t>
-  </si>
-  <si>
     <t>Tax Margin</t>
   </si>
   <si>
@@ -892,12 +889,6 @@
     <t>numbers in mio USD</t>
   </si>
   <si>
-    <t>TAM excl. China and US</t>
-  </si>
-  <si>
-    <t>PMI Shimpment Volume (in billion)</t>
-  </si>
-  <si>
     <t>Heated Tobacco</t>
   </si>
   <si>
@@ -913,9 +904,6 @@
     <t>Other Oral Products</t>
   </si>
   <si>
-    <t>Total Oral Products</t>
-  </si>
-  <si>
     <t>Equity Investment Loss &amp; other</t>
   </si>
   <si>
@@ -935,6 +923,18 @@
   </si>
   <si>
     <t>Q425</t>
+  </si>
+  <si>
+    <t>Total Oral Products (in million cans)</t>
+  </si>
+  <si>
+    <t>PMI Shimpment Volume</t>
+  </si>
+  <si>
+    <t>Total (in billion units)</t>
+  </si>
+  <si>
+    <t>TM excl. China and US</t>
   </si>
 </sst>
 </file>
@@ -1401,6 +1401,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1413,12 +1416,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1780,13 +1784,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J3" t="s">
         <v>1</v>
@@ -1797,7 +1801,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
         <v>2</v>
@@ -1806,24 +1810,24 @@
         <v>1554.857221</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="D5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -1835,13 +1839,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="21">
         <v>0.63</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="12">
         <v>175</v>
@@ -1854,18 +1858,18 @@
         <v>4216</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="20">
         <v>0.36</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>84</v>
@@ -1879,15 +1883,15 @@
         <v>45695</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="15"/>
       <c r="J8" t="s">
@@ -1900,25 +1904,25 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="23">
         <v>0.01</v>
@@ -1929,32 +1933,32 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1967,13 +1971,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8C3366-37BF-42AE-A4D4-8E7E11818534}">
-  <dimension ref="A1:AQ213"/>
+  <dimension ref="A1:AQ212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,16 +2020,16 @@
         <v>15</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5" t="s">
@@ -2052,17 +2056,37 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+        <v>263</v>
+      </c>
+      <c r="C3" s="5">
+        <v>614.20000000000005</v>
+      </c>
+      <c r="D3" s="5">
+        <v>647.20000000000005</v>
+      </c>
+      <c r="E3" s="5">
+        <v>553.1</v>
+      </c>
+      <c r="F3" s="76">
+        <f>+U3-SUM(C3:E3)</f>
+        <v>765.40000000000009</v>
+      </c>
+      <c r="G3" s="3">
+        <v>618.79999999999995</v>
+      </c>
+      <c r="H3" s="3">
+        <v>657.2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>568.1</v>
+      </c>
+      <c r="J3" s="73">
+        <f>+V3-SUM(G3:I3)</f>
+        <v>773.90000000000009</v>
+      </c>
+      <c r="K3" s="3">
+        <v>615.20000000000005</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -2106,34 +2130,54 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="C4" s="84">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D4" s="84">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="E4" s="84">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F4" s="75">
+        <f>+U4</f>
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G4" s="75">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H4" s="75">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="I4" s="75">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="J4" s="75">
+        <f>+V4</f>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="K4" s="75">
+        <v>0.23</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="8">
+      <c r="P4" s="75">
         <f>26.7/100</f>
         <v>0.26700000000000002</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="75">
         <f>26.2/100</f>
         <v>0.26200000000000001</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="75">
         <f>27.7/100</f>
         <v>0.27699999999999997</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="75">
         <f>27.31/100</f>
         <v>0.27310000000000001</v>
       </c>
@@ -2149,38 +2193,58 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="C5" s="84">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D5" s="84">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E5" s="84">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F5" s="75">
+        <f>+U5</f>
+        <v>4.7E-2</v>
+      </c>
+      <c r="G5" s="75">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H5" s="75">
+        <v>51</v>
+      </c>
+      <c r="I5" s="75">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J5" s="75">
+        <f t="shared" ref="J5:J6" si="1">+V5</f>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="K5" s="75">
+        <v>5.7000000000000002E-2</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="8">
+      <c r="P5" s="75">
         <f>1.6/100</f>
         <v>1.6E-2</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="75">
         <f>2.2/100</f>
         <v>2.2000000000000002E-2</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="75">
         <f>3/100</f>
         <v>0.03</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="75">
         <f>3.5/100</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="75">
         <f>4.1/100</f>
         <v>4.0999999999999995E-2</v>
       </c>
@@ -2195,32 +2259,52 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="C6" s="84">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="D6" s="84">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E6" s="84">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="F6" s="75">
+        <f>+U6</f>
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="G6" s="75">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="H6" s="75">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="I6" s="75">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="J6" s="75">
+        <f t="shared" si="1"/>
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="K6" s="75">
+        <v>0.28599999999999998</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q6" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="R6" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="S6" s="76" t="s">
-        <v>258</v>
+      <c r="P6" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q6" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="R6" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="S6" s="85" t="s">
+        <v>254</v>
       </c>
       <c r="T6" s="75">
         <v>0.27700000000000002</v>
@@ -2257,7 +2341,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2266,7 +2350,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="73"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2297,17 +2381,37 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C9" s="3">
+        <v>143.708</v>
+      </c>
+      <c r="D9" s="3">
+        <v>157.01</v>
+      </c>
+      <c r="E9" s="3">
+        <v>161.137</v>
+      </c>
+      <c r="F9" s="3">
+        <f>+U9-SUM(C9:E9)</f>
+        <v>151.04500000000002</v>
+      </c>
+      <c r="G9" s="3">
+        <v>143.191</v>
+      </c>
+      <c r="H9" s="3">
+        <v>157.61799999999999</v>
+      </c>
+      <c r="I9" s="3">
+        <v>163.238</v>
+      </c>
+      <c r="J9" s="73">
+        <f>+V9-SUM(G9:I9)</f>
+        <v>152.78000000000003</v>
+      </c>
+      <c r="K9" s="3">
+        <v>144.75299999999999</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -2351,17 +2455,37 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+        <v>248</v>
+      </c>
+      <c r="C10" s="3">
+        <v>27.396000000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>31.423999999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>32.470999999999997</v>
+      </c>
+      <c r="F10" s="3">
+        <f>+U10-SUM(C10:E10)</f>
+        <v>34.009</v>
+      </c>
+      <c r="G10" s="3">
+        <v>33.134</v>
+      </c>
+      <c r="H10" s="3">
+        <v>35.543999999999997</v>
+      </c>
+      <c r="I10" s="3">
+        <v>35.347000000000001</v>
+      </c>
+      <c r="J10" s="73">
+        <f>+V10-SUM(G10:I10)</f>
+        <v>33.717999999999989</v>
+      </c>
+      <c r="K10" s="3">
+        <v>37.088999999999999</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -2405,31 +2529,67 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+        <v>262</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ref="C11:F11" si="2">C9+C10</f>
+        <v>171.10399999999998</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>188.434</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="2"/>
+        <v>193.608</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>185.05400000000003</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" ref="G11:N11" si="3">G9+G10</f>
+        <v>176.32499999999999</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="3"/>
+        <v>193.16199999999998</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="3"/>
+        <v>198.58500000000001</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="3"/>
+        <v>186.49800000000002</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" ref="K11" si="4">K9+K10</f>
+        <v>181.84199999999998</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3">
-        <f t="shared" ref="P11:R11" si="1">P9+P10</f>
+        <f t="shared" ref="P11:R11" si="5">P9+P10</f>
         <v>781.68700000000001</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>766.36099999999999</v>
       </c>
       <c r="R11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>704.62900000000002</v>
       </c>
       <c r="S11" s="3">
@@ -2437,7 +2597,7 @@
         <v>719.851</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" ref="T11" si="2">T9+T10</f>
+        <f t="shared" ref="T11" si="6">T9+T10</f>
         <v>731.1</v>
       </c>
       <c r="U11" s="3">
@@ -2466,32 +2626,46 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>249</v>
+      </c>
+      <c r="C12" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>114.6</v>
+      </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="3">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="H12" s="3">
+        <v>149.9</v>
+      </c>
+      <c r="I12" s="3">
+        <v>164.5</v>
+      </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <v>223.4</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q12" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="R12" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S12" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="T12" s="3">
         <v>4.2500000000000003E-2</v>
@@ -2520,32 +2694,46 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+        <v>250</v>
+      </c>
+      <c r="C13" s="3">
+        <v>55.6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>62.6</v>
+      </c>
+      <c r="E13" s="3">
+        <v>60.3</v>
+      </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="G13" s="3">
+        <v>61.4</v>
+      </c>
+      <c r="H13" s="3">
+        <v>58.8</v>
+      </c>
+      <c r="I13" s="3">
+        <v>61.3</v>
+      </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>60.2</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="R13" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S13" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="T13" s="3">
         <v>5.4800000000000001E-2</v>
@@ -2574,32 +2762,46 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>254</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+        <v>251</v>
+      </c>
+      <c r="C14" s="3">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D14" s="3">
+        <v>34.1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>33.200000000000003</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="G14" s="3">
+        <v>34.4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="I14" s="3">
+        <v>34.1</v>
+      </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3">
+        <v>33.6</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="R14" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S14" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="T14" s="3">
         <v>1.6E-2</v>
@@ -2628,32 +2830,46 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+        <v>252</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.9</v>
+      </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.7</v>
+      </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3">
+        <v>0.6</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q15" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="R15" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S15" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -2682,39 +2898,72 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>256</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+        <v>260</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" ref="C16:L16" si="7">+SUM(C12:C15)</f>
+        <v>173.40000000000003</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="7"/>
+        <v>197.39999999999998</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="7"/>
+        <v>208.99999999999997</v>
+      </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="G16" s="3">
+        <f t="shared" si="7"/>
+        <v>242.5</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="7"/>
+        <v>243.89999999999998</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="7"/>
+        <v>260.60000000000002</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="7"/>
+        <v>317.80000000000007</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" ref="M16:N16" si="8">M14+M15</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="O16" s="3"/>
       <c r="P16" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="R16" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S16" s="76" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" ref="T16:U16" si="3">+SUM(T12:T15)</f>
+        <f>+SUM(T12:T15)</f>
         <v>0.1133</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U16" si="9">+SUM(U12:U15)</f>
         <v>0.7994</v>
       </c>
       <c r="V16" s="3">
@@ -2779,15 +3028,35 @@
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
+      <c r="C18" s="73">
+        <v>5223</v>
+      </c>
+      <c r="D18" s="73">
+        <v>5790</v>
+      </c>
+      <c r="E18" s="73">
+        <v>5832</v>
+      </c>
+      <c r="F18" s="73">
+        <f>+U18-SUM(C18:E18)</f>
+        <v>5489</v>
+      </c>
+      <c r="G18" s="73">
+        <v>5407</v>
+      </c>
+      <c r="H18" s="73">
+        <v>5858</v>
+      </c>
+      <c r="I18" s="73">
+        <v>6134</v>
+      </c>
+      <c r="J18" s="73">
+        <f>+V18-SUM(G18:I18)</f>
+        <v>5819</v>
+      </c>
+      <c r="K18" s="73">
+        <v>5406</v>
+      </c>
       <c r="L18" s="73"/>
       <c r="M18" s="73"/>
       <c r="N18" s="73"/>
@@ -2827,15 +3096,35 @@
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
+      <c r="C19" s="73">
+        <v>2710</v>
+      </c>
+      <c r="D19" s="73">
+        <v>3101</v>
+      </c>
+      <c r="E19" s="73">
+        <v>3234</v>
+      </c>
+      <c r="F19" s="73">
+        <f>+U19-SUM(C19:E19)</f>
+        <v>3489</v>
+      </c>
+      <c r="G19" s="73">
+        <v>3386</v>
+      </c>
+      <c r="H19" s="73">
+        <v>3530</v>
+      </c>
+      <c r="I19" s="73">
+        <v>3701</v>
+      </c>
+      <c r="J19" s="73">
+        <f>+V19-SUM(G19:I19)</f>
+        <v>3710</v>
+      </c>
+      <c r="K19" s="73">
+        <v>3895</v>
+      </c>
       <c r="L19" s="73"/>
       <c r="M19" s="73"/>
       <c r="N19" s="73"/>
@@ -2873,17 +3162,37 @@
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
+        <v>63</v>
+      </c>
+      <c r="C20" s="73">
+        <v>86</v>
+      </c>
+      <c r="D20" s="73">
+        <v>76</v>
+      </c>
+      <c r="E20" s="73">
+        <v>75</v>
+      </c>
+      <c r="F20" s="73">
+        <f>+U20-SUM(C20:E20)</f>
+        <v>69</v>
+      </c>
+      <c r="G20" s="73">
+        <v>0</v>
+      </c>
+      <c r="H20" s="73">
+        <v>80</v>
+      </c>
+      <c r="I20" s="73">
+        <v>76</v>
+      </c>
+      <c r="J20" s="73">
+        <f>+V20-SUM(G20:I20)</f>
+        <v>177</v>
+      </c>
+      <c r="K20" s="73">
+        <v>0</v>
+      </c>
       <c r="L20" s="73"/>
       <c r="M20" s="73"/>
       <c r="N20" s="73"/>
@@ -2949,7 +3258,7 @@
         <v>9706</v>
       </c>
       <c r="K21" s="74">
-        <v>9031</v>
+        <v>9301</v>
       </c>
       <c r="L21" s="74"/>
       <c r="M21" s="74"/>
@@ -2968,7 +3277,7 @@
         <v>31405</v>
       </c>
       <c r="T21" s="74">
-        <f t="shared" ref="T21" si="4">SUM(T18:T20)</f>
+        <f t="shared" ref="T21" si="10">SUM(T18:T20)</f>
         <v>31762</v>
       </c>
       <c r="U21" s="74">
@@ -3027,7 +3336,7 @@
       <c r="I22" s="73">
         <v>3366</v>
       </c>
-      <c r="J22" s="81">
+      <c r="J22" s="73">
         <f>+V22-SUM(G22:I22)</f>
         <v>3423</v>
       </c>
@@ -3086,19 +3395,19 @@
         <v>20</v>
       </c>
       <c r="C23" s="73">
-        <f t="shared" ref="C23:F23" si="5">C21-C22</f>
+        <f t="shared" ref="C23:F23" si="11">C21-C22</f>
         <v>4981</v>
       </c>
       <c r="D23" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5739</v>
       </c>
       <c r="E23" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5976</v>
       </c>
       <c r="F23" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5585</v>
       </c>
       <c r="G23" s="73">
@@ -3106,51 +3415,51 @@
         <v>5598</v>
       </c>
       <c r="H23" s="73">
-        <f t="shared" ref="H23:K23" si="6">H21-H22</f>
+        <f t="shared" ref="H23:K23" si="12">H21-H22</f>
         <v>6123</v>
       </c>
       <c r="I23" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6545</v>
       </c>
       <c r="J23" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6283</v>
       </c>
       <c r="K23" s="73">
-        <f t="shared" si="6"/>
-        <v>5991</v>
+        <f t="shared" si="12"/>
+        <v>6261</v>
       </c>
       <c r="L23" s="73"/>
       <c r="M23" s="73"/>
       <c r="N23" s="73"/>
       <c r="O23" s="73"/>
       <c r="P23" s="73">
-        <f t="shared" ref="P23" si="7">P21-P22</f>
+        <f t="shared" ref="P23" si="13">P21-P22</f>
         <v>18867</v>
       </c>
       <c r="Q23" s="73">
-        <f t="shared" ref="Q23" si="8">Q21-Q22</f>
+        <f t="shared" ref="Q23" si="14">Q21-Q22</f>
         <v>19292</v>
       </c>
       <c r="R23" s="73">
-        <f t="shared" ref="R23" si="9">R21-R22</f>
+        <f t="shared" ref="R23" si="15">R21-R22</f>
         <v>19125</v>
       </c>
       <c r="S23" s="73">
-        <f t="shared" ref="S23" si="10">S21-S22</f>
+        <f t="shared" ref="S23" si="16">S21-S22</f>
         <v>21375</v>
       </c>
       <c r="T23" s="73">
-        <f t="shared" ref="T23" si="11">T21-T22</f>
+        <f t="shared" ref="T23" si="17">T21-T22</f>
         <v>20360</v>
       </c>
       <c r="U23" s="73">
-        <f t="shared" ref="U23:V23" si="12">U21-U22</f>
+        <f t="shared" ref="U23:V23" si="18">U21-U22</f>
         <v>22281</v>
       </c>
       <c r="V23" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>24549</v>
       </c>
       <c r="W23" s="73"/>
@@ -3201,7 +3510,7 @@
       <c r="I24" s="73">
         <v>2891</v>
       </c>
-      <c r="J24" s="81">
+      <c r="J24" s="73">
         <f>+V24-SUM(G24:I24)</f>
         <v>3024</v>
       </c>
@@ -3283,7 +3592,7 @@
       <c r="I25" s="73">
         <v>0</v>
       </c>
-      <c r="J25" s="81">
+      <c r="J25" s="73">
         <f>+V25-SUM(G25:I25)</f>
         <v>0</v>
       </c>
@@ -3346,67 +3655,67 @@
         <v>2731</v>
       </c>
       <c r="D26" s="73">
-        <f t="shared" ref="D26:K26" si="13">D23-D24+D25</f>
+        <f t="shared" ref="D26:K26" si="19">D23-D24+D25</f>
         <v>2566</v>
       </c>
       <c r="E26" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3370</v>
       </c>
       <c r="F26" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2889</v>
       </c>
       <c r="G26" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3045</v>
       </c>
       <c r="H26" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3444</v>
       </c>
       <c r="I26" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3654</v>
       </c>
       <c r="J26" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3259</v>
       </c>
       <c r="K26" s="73">
-        <f t="shared" si="13"/>
-        <v>3274</v>
+        <f t="shared" si="19"/>
+        <v>3544</v>
       </c>
       <c r="L26" s="73"/>
       <c r="M26" s="73"/>
       <c r="N26" s="73"/>
       <c r="O26" s="73"/>
       <c r="P26" s="73">
-        <f t="shared" ref="P26" si="14">P23-P24+P25</f>
+        <f t="shared" ref="P26" si="20">P23-P24+P25</f>
         <v>11377</v>
       </c>
       <c r="Q26" s="73">
-        <f t="shared" ref="Q26" si="15">Q23-Q24+Q25</f>
+        <f t="shared" ref="Q26" si="21">Q23-Q24+Q25</f>
         <v>10531</v>
       </c>
       <c r="R26" s="73">
-        <f t="shared" ref="R26" si="16">R23-R24+R25</f>
+        <f t="shared" ref="R26" si="22">R23-R24+R25</f>
         <v>11668</v>
       </c>
       <c r="S26" s="73">
-        <f t="shared" ref="S26" si="17">S23-S24+S25</f>
+        <f t="shared" ref="S26" si="23">S23-S24+S25</f>
         <v>12975</v>
       </c>
       <c r="T26" s="73">
-        <f t="shared" ref="T26" si="18">T23-T24+T25</f>
+        <f t="shared" ref="T26" si="24">T23-T24+T25</f>
         <v>12246</v>
       </c>
       <c r="U26" s="73">
-        <f t="shared" ref="U26:V26" si="19">U23-U24+U25</f>
+        <f t="shared" ref="U26:V26" si="25">U23-U24+U25</f>
         <v>11556</v>
       </c>
       <c r="V26" s="73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>13402</v>
       </c>
       <c r="W26" s="73"/>
@@ -3457,11 +3766,13 @@
       <c r="I27" s="73">
         <v>189</v>
       </c>
-      <c r="J27" s="81">
+      <c r="J27" s="73">
         <f>+V27-SUM(G27:I27)</f>
         <v>326</v>
       </c>
-      <c r="K27" s="73"/>
+      <c r="K27" s="73">
+        <v>241</v>
+      </c>
       <c r="L27" s="73"/>
       <c r="M27" s="73"/>
       <c r="N27" s="73"/>
@@ -3535,11 +3846,13 @@
       <c r="I28" s="73">
         <v>15</v>
       </c>
-      <c r="J28" s="81">
+      <c r="J28" s="73">
         <f>+V28-SUM(G28:I28)</f>
         <v>16</v>
       </c>
-      <c r="K28" s="73"/>
+      <c r="K28" s="73">
+        <v>12</v>
+      </c>
       <c r="L28" s="73"/>
       <c r="M28" s="73"/>
       <c r="N28" s="73"/>
@@ -3592,19 +3905,19 @@
         <v>25</v>
       </c>
       <c r="C29" s="73">
-        <f t="shared" ref="C29:F29" si="20">C26-C27-C28</f>
+        <f t="shared" ref="C29:F29" si="26">C26-C27-C28</f>
         <v>2479</v>
       </c>
       <c r="D29" s="73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2263</v>
       </c>
       <c r="E29" s="73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3101</v>
       </c>
       <c r="F29" s="73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2607</v>
       </c>
       <c r="G29" s="73">
@@ -3612,48 +3925,51 @@
         <v>2731</v>
       </c>
       <c r="H29" s="73">
-        <f t="shared" ref="H29:J29" si="21">H26-H27-H28</f>
+        <f t="shared" ref="H29:K29" si="27">H26-H27-H28</f>
         <v>3101</v>
       </c>
       <c r="I29" s="73">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>3450</v>
       </c>
       <c r="J29" s="73">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>2917</v>
       </c>
-      <c r="K29" s="73"/>
+      <c r="K29" s="73">
+        <f t="shared" si="27"/>
+        <v>3291</v>
+      </c>
       <c r="L29" s="73"/>
       <c r="M29" s="73"/>
       <c r="N29" s="73"/>
       <c r="O29" s="73"/>
       <c r="P29" s="73">
-        <f t="shared" ref="P29" si="22">P26-P27-P28</f>
+        <f t="shared" ref="P29" si="28">P26-P27-P28</f>
         <v>10671</v>
       </c>
       <c r="Q29" s="73">
-        <f t="shared" ref="Q29" si="23">Q26-Q27-Q28</f>
+        <f t="shared" ref="Q29" si="29">Q26-Q27-Q28</f>
         <v>9872</v>
       </c>
       <c r="R29" s="73">
-        <f t="shared" ref="R29" si="24">R26-R27-R28</f>
+        <f t="shared" ref="R29" si="30">R26-R27-R28</f>
         <v>10953</v>
       </c>
       <c r="S29" s="73">
-        <f t="shared" ref="S29" si="25">S26-S27-S28</f>
+        <f t="shared" ref="S29" si="31">S26-S27-S28</f>
         <v>12232</v>
       </c>
       <c r="T29" s="73">
-        <f t="shared" ref="T29" si="26">T26-T27-T28</f>
+        <f t="shared" ref="T29" si="32">T26-T27-T28</f>
         <v>11634</v>
       </c>
       <c r="U29" s="73">
-        <f t="shared" ref="U29:V29" si="27">U26-U27-U28</f>
+        <f t="shared" ref="U29:V29" si="33">U26-U27-U28</f>
         <v>10450</v>
       </c>
       <c r="V29" s="73">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>12199</v>
       </c>
       <c r="W29" s="73"/>
@@ -3704,11 +4020,13 @@
       <c r="I30" s="73">
         <v>735</v>
       </c>
-      <c r="J30" s="81">
+      <c r="J30" s="73">
         <f>+V30-SUM(G30:I30)</f>
         <v>872</v>
       </c>
-      <c r="K30" s="73"/>
+      <c r="K30" s="73">
+        <v>659</v>
+      </c>
       <c r="L30" s="73"/>
       <c r="M30" s="73"/>
       <c r="N30" s="73"/>
@@ -3758,7 +4076,7 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C31" s="73">
         <v>-51</v>
@@ -3782,11 +4100,13 @@
       <c r="I31" s="73">
         <v>-500</v>
       </c>
-      <c r="J31" s="81">
+      <c r="J31" s="73">
         <f>+V31-SUM(G31:I31)</f>
         <v>2531</v>
       </c>
-      <c r="K31" s="73"/>
+      <c r="K31" s="73">
+        <v>-205</v>
+      </c>
       <c r="L31" s="73"/>
       <c r="M31" s="73"/>
       <c r="N31" s="73"/>
@@ -3840,19 +4160,19 @@
         <v>17</v>
       </c>
       <c r="C32" s="73">
-        <f t="shared" ref="C32:F32" si="28">C29-C30-C31</f>
+        <f t="shared" ref="C32:F32" si="34">C29-C30-C31</f>
         <v>2102</v>
       </c>
       <c r="D32" s="73">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1682</v>
       </c>
       <c r="E32" s="73">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>2171</v>
       </c>
       <c r="F32" s="73">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>2313</v>
       </c>
       <c r="G32" s="73">
@@ -3860,44 +4180,47 @@
         <v>2246</v>
       </c>
       <c r="H32" s="73">
-        <f t="shared" ref="H32:J32" si="29">H29-H30-H31</f>
+        <f t="shared" ref="H32:K32" si="35">H29-H30-H31</f>
         <v>2528</v>
       </c>
       <c r="I32" s="73">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>3215</v>
       </c>
       <c r="J32" s="73">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-486</v>
       </c>
-      <c r="K32" s="73"/>
+      <c r="K32" s="73">
+        <f t="shared" si="35"/>
+        <v>2837</v>
+      </c>
       <c r="L32" s="73"/>
       <c r="M32" s="73"/>
       <c r="N32" s="73"/>
       <c r="O32" s="73"/>
       <c r="P32" s="73">
-        <f t="shared" ref="P32" si="30">P29-P30-P31</f>
+        <f t="shared" ref="P32" si="36">P29-P30-P31</f>
         <v>8286</v>
       </c>
       <c r="Q32" s="73">
-        <f t="shared" ref="Q32" si="31">Q29-Q30-Q31</f>
+        <f t="shared" ref="Q32" si="37">Q29-Q30-Q31</f>
         <v>7728</v>
       </c>
       <c r="R32" s="73">
-        <f t="shared" ref="R32" si="32">R29-R30-R31</f>
+        <f t="shared" ref="R32" si="38">R29-R30-R31</f>
         <v>8592</v>
       </c>
       <c r="S32" s="73">
-        <f t="shared" ref="S32" si="33">S29-S30-S31</f>
+        <f t="shared" ref="S32" si="39">S29-S30-S31</f>
         <v>9710</v>
       </c>
       <c r="T32" s="73">
-        <f t="shared" ref="T32" si="34">T29-T30-T31</f>
+        <f t="shared" ref="T32" si="40">T29-T30-T31</f>
         <v>9527</v>
       </c>
       <c r="U32" s="73">
-        <f t="shared" ref="U32" si="35">U29-U30-U31</f>
+        <f t="shared" ref="U32" si="41">U29-U30-U31</f>
         <v>8268</v>
       </c>
       <c r="V32" s="73">
@@ -3952,11 +4275,13 @@
       <c r="I33" s="73">
         <v>133</v>
       </c>
-      <c r="J33" s="81">
+      <c r="J33" s="73">
         <f>+V33-SUM(G33:I33)</f>
         <v>93</v>
       </c>
-      <c r="K33" s="73"/>
+      <c r="K33" s="73">
+        <v>147</v>
+      </c>
       <c r="L33" s="73"/>
       <c r="M33" s="73"/>
       <c r="N33" s="73"/>
@@ -4004,96 +4329,99 @@
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
     </row>
-    <row r="34" spans="1:43" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="84" t="s">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="81">
-        <f t="shared" ref="C34:F34" si="36">C32-C33</f>
+      <c r="C34" s="73">
+        <f t="shared" ref="C34:F34" si="42">C32-C33</f>
         <v>1995</v>
       </c>
-      <c r="D34" s="81">
-        <f t="shared" si="36"/>
+      <c r="D34" s="73">
+        <f t="shared" si="42"/>
         <v>1538</v>
       </c>
-      <c r="E34" s="81">
-        <f t="shared" si="36"/>
+      <c r="E34" s="73">
+        <f t="shared" si="42"/>
         <v>2054</v>
       </c>
-      <c r="F34" s="81">
-        <f t="shared" si="36"/>
+      <c r="F34" s="73">
+        <f t="shared" si="42"/>
         <v>2226</v>
       </c>
-      <c r="G34" s="81">
+      <c r="G34" s="73">
         <f>G32-G33</f>
         <v>2148</v>
       </c>
-      <c r="H34" s="81">
-        <f t="shared" ref="H34:J34" si="37">H32-H33</f>
+      <c r="H34" s="73">
+        <f t="shared" ref="H34:K34" si="43">H32-H33</f>
         <v>2406</v>
       </c>
-      <c r="I34" s="81">
-        <f t="shared" si="37"/>
+      <c r="I34" s="73">
+        <f t="shared" si="43"/>
         <v>3082</v>
       </c>
-      <c r="J34" s="81">
-        <f t="shared" si="37"/>
+      <c r="J34" s="73">
+        <f t="shared" si="43"/>
         <v>-579</v>
       </c>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81">
-        <f t="shared" ref="P34" si="38">P32-P33</f>
+      <c r="K34" s="73">
+        <f t="shared" si="43"/>
+        <v>2690</v>
+      </c>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73">
+        <f t="shared" ref="P34" si="44">P32-P33</f>
         <v>7911</v>
       </c>
-      <c r="Q34" s="81">
-        <f t="shared" ref="Q34" si="39">Q32-Q33</f>
+      <c r="Q34" s="73">
+        <f t="shared" ref="Q34" si="45">Q32-Q33</f>
         <v>7185</v>
       </c>
-      <c r="R34" s="81">
-        <f t="shared" ref="R34" si="40">R32-R33</f>
+      <c r="R34" s="73">
+        <f t="shared" ref="R34" si="46">R32-R33</f>
         <v>8056</v>
       </c>
-      <c r="S34" s="81">
-        <f t="shared" ref="S34" si="41">S32-S33</f>
+      <c r="S34" s="73">
+        <f t="shared" ref="S34" si="47">S32-S33</f>
         <v>9109</v>
       </c>
-      <c r="T34" s="81">
-        <f t="shared" ref="T34" si="42">T32-T33</f>
+      <c r="T34" s="73">
+        <f t="shared" ref="T34" si="48">T32-T33</f>
         <v>9048</v>
       </c>
-      <c r="U34" s="81">
-        <f t="shared" ref="U34:V34" si="43">U32-U33</f>
+      <c r="U34" s="73">
+        <f t="shared" ref="U34:V34" si="49">U32-U33</f>
         <v>7813</v>
       </c>
-      <c r="V34" s="81">
-        <f t="shared" si="43"/>
+      <c r="V34" s="73">
+        <f t="shared" si="49"/>
         <v>7057</v>
       </c>
-      <c r="W34" s="81"/>
-      <c r="X34" s="81"/>
-      <c r="Y34" s="81"/>
-      <c r="Z34" s="81"/>
-      <c r="AA34" s="81"/>
-      <c r="AB34" s="81"/>
-      <c r="AC34" s="81"/>
-      <c r="AD34" s="81"/>
-      <c r="AE34" s="85"/>
-      <c r="AF34" s="85"/>
-      <c r="AG34" s="85"/>
-      <c r="AH34" s="85"/>
-      <c r="AI34" s="85"/>
-      <c r="AJ34" s="85"/>
-      <c r="AK34" s="85"/>
-      <c r="AL34" s="85"/>
-      <c r="AM34" s="85"/>
-      <c r="AN34" s="85"/>
-      <c r="AO34" s="85"/>
-      <c r="AP34" s="85"/>
-      <c r="AQ34" s="85"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
@@ -4142,59 +4470,62 @@
       <c r="B36" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="82">
+      <c r="C36" s="77">
         <v>1.28</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="77">
         <v>1.01</v>
       </c>
-      <c r="E36" s="82">
+      <c r="E36" s="77">
         <v>1.32</v>
       </c>
-      <c r="F36" s="82">
+      <c r="F36" s="77">
         <f>+U36-SUM(C36:E36)</f>
         <v>1.4241494845360823</v>
       </c>
-      <c r="G36" s="82">
+      <c r="G36" s="77">
         <v>1.38</v>
       </c>
-      <c r="H36" s="82">
+      <c r="H36" s="77">
         <v>1.54</v>
       </c>
-      <c r="I36" s="82">
+      <c r="I36" s="77">
         <v>1.98</v>
       </c>
-      <c r="J36" s="82">
+      <c r="J36" s="77">
         <f>+J34/J37</f>
         <v>-0.37258687258687256</v>
       </c>
-      <c r="K36" s="3"/>
+      <c r="K36" s="77">
+        <f>+K34/K37</f>
+        <v>1.7287917737789202</v>
+      </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3">
-        <f t="shared" ref="P36:U36" si="44">+P34/P37</f>
+        <f t="shared" ref="P36:U36" si="50">+P34/P37</f>
         <v>5.0874598070739552</v>
       </c>
       <c r="Q36" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>4.6176092544987144</v>
       </c>
       <c r="R36" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>5.1707317073170733</v>
       </c>
       <c r="S36" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>5.8428479794740218</v>
       </c>
       <c r="T36" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>5.8374193548387101</v>
       </c>
       <c r="U36" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>5.0341494845360826</v>
       </c>
       <c r="V36" s="3">
@@ -4228,37 +4559,39 @@
         <v>2</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ref="C37:I37" si="45">C34/C36</f>
+        <f t="shared" ref="C37:I37" si="51">C34/C36</f>
         <v>1558.59375</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1522.7722772277227</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1556.060606060606</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1563.0381671100497</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1556.521739130435</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1562.3376623376623</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1556.5656565656566</v>
       </c>
       <c r="J37" s="73">
         <v>1554</v>
       </c>
-      <c r="K37" s="3"/>
+      <c r="K37" s="3">
+        <v>1556</v>
+      </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -4357,38 +4690,53 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="G39" s="86">
+        <f t="shared" ref="G39:G41" si="52">G18/C18-1</f>
+        <v>3.5228795711277128E-2</v>
+      </c>
+      <c r="H39" s="86">
+        <f t="shared" ref="H39:H41" si="53">H18/D18-1</f>
+        <v>1.1744386873920654E-2</v>
+      </c>
+      <c r="I39" s="86">
+        <f t="shared" ref="I39:I41" si="54">I18/E18-1</f>
+        <v>5.1783264746227742E-2</v>
+      </c>
+      <c r="J39" s="86">
+        <f t="shared" ref="J39:J41" si="55">J18/F18-1</f>
+        <v>6.0120240480961984E-2</v>
+      </c>
+      <c r="K39" s="86">
+        <f t="shared" ref="K39:K41" si="56">K18/G18-1</f>
+        <v>-1.8494544109493027E-4</v>
+      </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8">
-        <f>Q18/P18-1</f>
+        <f t="shared" ref="Q39:V40" si="57">Q18/P18-1</f>
         <v>-5.1353362842257777E-2</v>
       </c>
       <c r="R39" s="8">
-        <f>R18/Q18-1</f>
+        <f t="shared" si="57"/>
         <v>-9.7076554628788503E-2</v>
       </c>
       <c r="S39" s="8">
-        <f>S18/R18-1</f>
+        <f t="shared" si="57"/>
         <v>9.1462020396031463E-3</v>
       </c>
       <c r="T39" s="8">
-        <f>T18/S18-1</f>
+        <f t="shared" si="57"/>
         <v>-2.2431685321974038E-2</v>
       </c>
       <c r="U39" s="8">
-        <f>U18/T18-1</f>
+        <f t="shared" si="57"/>
         <v>3.5323567587613569E-2</v>
       </c>
       <c r="V39" s="8">
-        <f>V18/U18-1</f>
+        <f t="shared" si="57"/>
         <v>3.9580908032595952E-2</v>
       </c>
       <c r="W39" s="3"/>
@@ -4421,38 +4769,53 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+      <c r="G40" s="86">
+        <f t="shared" si="52"/>
+        <v>0.2494464944649446</v>
+      </c>
+      <c r="H40" s="86">
+        <f t="shared" si="53"/>
+        <v>0.13834247017091261</v>
+      </c>
+      <c r="I40" s="86">
+        <f t="shared" si="54"/>
+        <v>0.14440321583178717</v>
+      </c>
+      <c r="J40" s="86">
+        <f t="shared" si="55"/>
+        <v>6.3341931785611871E-2</v>
+      </c>
+      <c r="K40" s="86">
+        <f t="shared" si="56"/>
+        <v>0.15032486709982273</v>
+      </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8">
-        <f>Q19/P19-1</f>
+        <f t="shared" si="57"/>
         <v>0.364013671875</v>
       </c>
       <c r="R40" s="8">
-        <f>R19/Q19-1</f>
+        <f t="shared" si="57"/>
         <v>0.22194379810273857</v>
       </c>
       <c r="S40" s="8">
-        <f>S19/R19-1</f>
+        <f t="shared" si="57"/>
         <v>0.35301010692837265</v>
       </c>
       <c r="T40" s="8">
-        <f>T19/S19-1</f>
+        <f t="shared" si="57"/>
         <v>7.3833495723719889E-2</v>
       </c>
       <c r="U40" s="8">
-        <f>U19/T19-1</f>
+        <f t="shared" si="57"/>
         <v>0.26363544712168574</v>
       </c>
       <c r="V40" s="8">
-        <f>V19/U19-1</f>
+        <f t="shared" si="57"/>
         <v>0.1430509015477901</v>
       </c>
       <c r="W40" s="3"/>
@@ -4479,17 +4842,32 @@
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="G41" s="86">
+        <f t="shared" si="52"/>
+        <v>-1</v>
+      </c>
+      <c r="H41" s="86">
+        <f t="shared" si="53"/>
+        <v>5.2631578947368363E-2</v>
+      </c>
+      <c r="I41" s="86">
+        <f t="shared" si="54"/>
+        <v>1.3333333333333419E-2</v>
+      </c>
+      <c r="J41" s="86">
+        <f t="shared" si="55"/>
+        <v>1.5652173913043477</v>
+      </c>
+      <c r="K41" s="86" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -4505,15 +4883,15 @@
         <v>0</v>
       </c>
       <c r="T41" s="8">
-        <f>T20/S20-1</f>
+        <f t="shared" ref="T41:V42" si="58">T20/S20-1</f>
         <v>1.6831683168316833</v>
       </c>
       <c r="U41" s="8">
-        <f>U20/T20-1</f>
+        <f t="shared" si="58"/>
         <v>0.12915129151291516</v>
       </c>
       <c r="V41" s="8">
-        <f>V20/U20-1</f>
+        <f t="shared" si="58"/>
         <v>8.8235294117646967E-2</v>
       </c>
       <c r="W41" s="3"/>
@@ -4543,145 +4921,151 @@
       <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="86">
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="79">
         <f>G21/C21-1</f>
         <v>9.6520763187429859E-2</v>
       </c>
-      <c r="H42" s="86">
+      <c r="H42" s="79">
         <f>H21/D21-1</f>
         <v>5.5871528939444692E-2</v>
       </c>
-      <c r="I42" s="86">
+      <c r="I42" s="79">
         <f>I21/E21-1</f>
         <v>8.4235860409145547E-2</v>
       </c>
-      <c r="J42" s="86">
+      <c r="J42" s="79">
         <f>J21/F21-1</f>
         <v>7.2841826019675038E-2</v>
       </c>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="86"/>
-      <c r="O42" s="86"/>
-      <c r="P42" s="86"/>
-      <c r="Q42" s="86">
+      <c r="K42" s="79">
+        <f>K21/G21-1</f>
+        <v>5.7773228704651514E-2</v>
+      </c>
+      <c r="L42" s="79"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="79"/>
+      <c r="O42" s="79"/>
+      <c r="P42" s="79"/>
+      <c r="Q42" s="79">
         <f>Q21/P21-1</f>
         <v>6.0759493670885512E-3</v>
       </c>
-      <c r="R42" s="86">
+      <c r="R42" s="79">
         <f>R21/Q21-1</f>
         <v>-3.7275624895151793E-2</v>
       </c>
-      <c r="S42" s="86">
+      <c r="S42" s="79">
         <f>S21/R21-1</f>
         <v>9.4479682163518541E-2</v>
       </c>
-      <c r="T42" s="86">
-        <f>T21/S21-1</f>
+      <c r="T42" s="79">
+        <f t="shared" si="58"/>
         <v>1.1367616621557053E-2</v>
       </c>
-      <c r="U42" s="86">
-        <f>U21/T21-1</f>
+      <c r="U42" s="79">
+        <f t="shared" si="58"/>
         <v>0.10742396574523005</v>
       </c>
-      <c r="V42" s="86">
-        <f>V21/U21-1</f>
+      <c r="V42" s="79">
+        <f t="shared" si="58"/>
         <v>7.6874964462386952E-2</v>
       </c>
-      <c r="W42" s="83"/>
-      <c r="X42" s="83"/>
-      <c r="Y42" s="83"/>
-      <c r="Z42" s="83"/>
-      <c r="AA42" s="83"/>
-      <c r="AB42" s="83"/>
-      <c r="AC42" s="83"/>
-      <c r="AD42" s="83"/>
-      <c r="AE42" s="83"/>
-      <c r="AF42" s="83"/>
-      <c r="AG42" s="83"/>
-      <c r="AH42" s="83"/>
-      <c r="AI42" s="83"/>
-      <c r="AJ42" s="83"/>
-      <c r="AK42" s="83"/>
-      <c r="AL42" s="83"/>
-      <c r="AM42" s="83"/>
-      <c r="AN42" s="83"/>
-      <c r="AO42" s="83"/>
-      <c r="AP42" s="83"/>
-      <c r="AQ42" s="83"/>
+      <c r="W42" s="78"/>
+      <c r="X42" s="78"/>
+      <c r="Y42" s="78"/>
+      <c r="Z42" s="78"/>
+      <c r="AA42" s="78"/>
+      <c r="AB42" s="78"/>
+      <c r="AC42" s="78"/>
+      <c r="AD42" s="78"/>
+      <c r="AE42" s="78"/>
+      <c r="AF42" s="78"/>
+      <c r="AG42" s="78"/>
+      <c r="AH42" s="78"/>
+      <c r="AI42" s="78"/>
+      <c r="AJ42" s="78"/>
+      <c r="AK42" s="78"/>
+      <c r="AL42" s="78"/>
+      <c r="AM42" s="78"/>
+      <c r="AN42" s="78"/>
+      <c r="AO42" s="78"/>
+      <c r="AP42" s="78"/>
+      <c r="AQ42" s="78"/>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="8">
-        <f>C23/C21</f>
+        <f t="shared" ref="C43:J43" si="59">C23/C21</f>
         <v>0.62114976929791743</v>
       </c>
       <c r="D43" s="8">
-        <f>D23/D21</f>
+        <f t="shared" si="59"/>
         <v>0.64001338240214123</v>
       </c>
       <c r="E43" s="8">
-        <f>E23/E21</f>
+        <f t="shared" si="59"/>
         <v>0.65375779455201843</v>
       </c>
       <c r="F43" s="8">
-        <f>F23/F21</f>
+        <f t="shared" si="59"/>
         <v>0.61733171216978</v>
       </c>
       <c r="G43" s="8">
-        <f>G23/G21</f>
+        <f t="shared" si="59"/>
         <v>0.63664278403275332</v>
       </c>
       <c r="H43" s="8">
-        <f>H23/H21</f>
+        <f t="shared" si="59"/>
         <v>0.64670468948035487</v>
       </c>
       <c r="I43" s="8">
-        <f>I23/I21</f>
+        <f t="shared" si="59"/>
         <v>0.660377358490566</v>
       </c>
       <c r="J43" s="8">
-        <f>J23/J21</f>
+        <f t="shared" si="59"/>
         <v>0.64733154749639399</v>
       </c>
-      <c r="K43" s="8"/>
+      <c r="K43" s="8">
+        <f t="shared" ref="K43" si="60">K23/K21</f>
+        <v>0.67315342436297176</v>
+      </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
       <c r="P43" s="8">
-        <f>P23/P21</f>
+        <f t="shared" ref="P43:V43" si="61">P23/P21</f>
         <v>0.63686075949367094</v>
       </c>
       <c r="Q43" s="8">
-        <f>Q23/Q21</f>
+        <f t="shared" si="61"/>
         <v>0.64727394732427446</v>
       </c>
       <c r="R43" s="8">
-        <f>R23/R21</f>
+        <f t="shared" si="61"/>
         <v>0.666515647870635</v>
       </c>
       <c r="S43" s="8">
-        <f>S23/S21</f>
+        <f t="shared" si="61"/>
         <v>0.68062410444196786</v>
       </c>
       <c r="T43" s="8">
-        <f>T23/T21</f>
+        <f t="shared" si="61"/>
         <v>0.64101756816321387</v>
       </c>
       <c r="U43" s="8">
-        <f>U23/U21</f>
+        <f t="shared" si="61"/>
         <v>0.63345084437368515</v>
       </c>
       <c r="V43" s="8">
-        <f>V23/V21</f>
+        <f t="shared" si="61"/>
         <v>0.64810708062727707</v>
       </c>
       <c r="W43" s="3"/>
@@ -4711,68 +5095,71 @@
         <v>42</v>
       </c>
       <c r="C44" s="8">
-        <f>C26/C21</f>
+        <f t="shared" ref="C44:J44" si="62">C26/C21</f>
         <v>0.34056615538097018</v>
       </c>
       <c r="D44" s="8">
-        <f>D26/D21</f>
+        <f t="shared" si="62"/>
         <v>0.28616036578565851</v>
       </c>
       <c r="E44" s="8">
-        <f>E26/E21</f>
+        <f t="shared" si="62"/>
         <v>0.36866863581665027</v>
       </c>
       <c r="F44" s="8">
-        <f>F26/F21</f>
+        <f t="shared" si="62"/>
         <v>0.31933237537305181</v>
       </c>
       <c r="G44" s="8">
-        <f>G26/G21</f>
+        <f t="shared" si="62"/>
         <v>0.34629819174343229</v>
       </c>
       <c r="H44" s="8">
-        <f>H26/H21</f>
+        <f t="shared" si="62"/>
         <v>0.3637515842839037</v>
       </c>
       <c r="I44" s="8">
-        <f>I26/I21</f>
+        <f t="shared" si="62"/>
         <v>0.36868126324286149</v>
       </c>
       <c r="J44" s="8">
-        <f>J26/J21</f>
+        <f t="shared" si="62"/>
         <v>0.3357716876159077</v>
       </c>
-      <c r="K44" s="8"/>
+      <c r="K44" s="8">
+        <f t="shared" ref="K44" si="63">K26/K21</f>
+        <v>0.38103429738737771</v>
+      </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="8">
-        <f>P26/P21</f>
+        <f t="shared" ref="P44:V44" si="64">P26/P21</f>
         <v>0.38403375527426159</v>
       </c>
       <c r="Q44" s="8">
-        <f>Q26/Q21</f>
+        <f t="shared" si="64"/>
         <v>0.35332997819157858</v>
       </c>
       <c r="R44" s="8">
-        <f>R26/R21</f>
+        <f t="shared" si="64"/>
         <v>0.40663553356102322</v>
       </c>
       <c r="S44" s="8">
-        <f>S26/S21</f>
+        <f t="shared" si="64"/>
         <v>0.4131507721700366</v>
       </c>
       <c r="T44" s="8">
-        <f>T26/T21</f>
+        <f t="shared" si="64"/>
         <v>0.38555506580190163</v>
       </c>
       <c r="U44" s="8">
-        <f>U26/U21</f>
+        <f t="shared" si="64"/>
         <v>0.32853812475123673</v>
       </c>
       <c r="V44" s="8">
-        <f>V26/V21</f>
+        <f t="shared" si="64"/>
         <v>0.35382015945931677</v>
       </c>
       <c r="W44" s="3"/>
@@ -4802,69 +5189,72 @@
         <v>43</v>
       </c>
       <c r="C45" s="8">
-        <f>C34/C21</f>
-        <v>0.24878413767302657</v>
+        <f t="shared" ref="C45:J45" si="65">C30/C29</f>
+        <v>0.17265026220250101</v>
       </c>
       <c r="D45" s="8">
-        <f>D34/D21</f>
-        <v>0.17151778744284599</v>
+        <f t="shared" si="65"/>
+        <v>0.2474591250552364</v>
       </c>
       <c r="E45" s="8">
-        <f>E34/E21</f>
-        <v>0.22470189257192869</v>
+        <f t="shared" si="65"/>
+        <v>0.33247339567881329</v>
       </c>
       <c r="F45" s="8">
-        <f>F34/F21</f>
-        <v>0.2460484138388416</v>
+        <f t="shared" si="65"/>
+        <v>0.12274645186037592</v>
       </c>
       <c r="G45" s="8">
-        <f>G34/G21</f>
-        <v>0.24428522688502219</v>
+        <f t="shared" si="65"/>
+        <v>0.24752837788355914</v>
       </c>
       <c r="H45" s="8">
-        <f>H34/H21</f>
-        <v>0.25411913814955639</v>
+        <f t="shared" si="65"/>
+        <v>0.23669783940664302</v>
       </c>
       <c r="I45" s="8">
-        <f>I34/I21</f>
-        <v>0.31096761174452631</v>
+        <f t="shared" si="65"/>
+        <v>0.21304347826086956</v>
       </c>
       <c r="J45" s="8">
-        <f>J34/J21</f>
-        <v>-5.9653822377910573E-2</v>
-      </c>
-      <c r="K45" s="8"/>
+        <f t="shared" si="65"/>
+        <v>0.29893726431265</v>
+      </c>
+      <c r="K45" s="8">
+        <f t="shared" ref="K45" si="66">K30/K29</f>
+        <v>0.2002430872075357</v>
+      </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
       <c r="P45" s="8">
-        <f>P34/P21</f>
-        <v>0.26703797468354429</v>
+        <f t="shared" ref="P45:V45" si="67">P30/P29</f>
+        <v>0.2291256676974979</v>
       </c>
       <c r="Q45" s="8">
-        <f>Q34/Q21</f>
-        <v>0.24106693507800706</v>
+        <f t="shared" si="67"/>
+        <v>0.23227309562398704</v>
       </c>
       <c r="R45" s="8">
-        <f>R34/R21</f>
-        <v>0.28075555865337704</v>
+        <f t="shared" si="67"/>
+        <v>0.2170181685383</v>
       </c>
       <c r="S45" s="8">
-        <f>S34/S21</f>
-        <v>0.29004935519821684</v>
+        <f t="shared" si="67"/>
+        <v>0.2183616742969261</v>
       </c>
       <c r="T45" s="8">
-        <f>T34/T21</f>
-        <v>0.28486871103834771</v>
+        <f t="shared" si="67"/>
+        <v>0.19288292934502321</v>
       </c>
       <c r="U45" s="8">
-        <f>U34/U21</f>
-        <v>0.2221242963552624</v>
+        <f t="shared" si="67"/>
+        <v>0.22382775119617224</v>
       </c>
       <c r="V45" s="8">
-        <f>V34/V21</f>
-        <v>0.18630867522044459</v>
+        <f t="shared" si="67"/>
+        <v>0.24731535371751784</v>
       </c>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
@@ -4889,74 +5279,26 @@
       <c r="AQ45" s="3"/>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="8">
-        <f>C30/C29</f>
-        <v>0.17265026220250101</v>
-      </c>
-      <c r="D46" s="8">
-        <f>D30/D29</f>
-        <v>0.2474591250552364</v>
-      </c>
-      <c r="E46" s="8">
-        <f>E30/E29</f>
-        <v>0.33247339567881329</v>
-      </c>
-      <c r="F46" s="8">
-        <f>F30/F29</f>
-        <v>0.12274645186037592</v>
-      </c>
-      <c r="G46" s="8">
-        <f>G30/G29</f>
-        <v>0.24752837788355914</v>
-      </c>
-      <c r="H46" s="8">
-        <f>H30/H29</f>
-        <v>0.23669783940664302</v>
-      </c>
-      <c r="I46" s="8">
-        <f>I30/I29</f>
-        <v>0.21304347826086956</v>
-      </c>
-      <c r="J46" s="8">
-        <f>J30/J29</f>
-        <v>0.29893726431265</v>
-      </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8">
-        <f>P30/P29</f>
-        <v>0.2291256676974979</v>
-      </c>
-      <c r="Q46" s="8">
-        <f>Q30/Q29</f>
-        <v>0.23227309562398704</v>
-      </c>
-      <c r="R46" s="8">
-        <f>R30/R29</f>
-        <v>0.2170181685383</v>
-      </c>
-      <c r="S46" s="8">
-        <f>S30/S29</f>
-        <v>0.2183616742969261</v>
-      </c>
-      <c r="T46" s="8">
-        <f>T30/T29</f>
-        <v>0.19288292934502321</v>
-      </c>
-      <c r="U46" s="8">
-        <f>U30/U29</f>
-        <v>0.22382775119617224</v>
-      </c>
-      <c r="V46" s="8">
-        <f>V30/V29</f>
-        <v>0.24731535371751784</v>
-      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
@@ -5023,6 +5365,12 @@
       <c r="AQ47" s="3"/>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -5065,40 +5413,51 @@
       <c r="AP48" s="3"/>
       <c r="AQ48" s="3"/>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="6" t="s">
+    <row r="49" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73">
+        <v>6593</v>
+      </c>
+      <c r="Q49" s="73">
+        <v>6861</v>
+      </c>
+      <c r="R49" s="73">
+        <v>7280</v>
+      </c>
+      <c r="S49" s="73">
+        <v>4496</v>
+      </c>
+      <c r="T49" s="73">
+        <v>3207</v>
+      </c>
+      <c r="U49" s="73">
+        <v>3060</v>
+      </c>
+      <c r="V49" s="73">
+        <v>4216</v>
+      </c>
+      <c r="W49" s="73"/>
+      <c r="X49" s="73"/>
+      <c r="Y49" s="73"/>
+      <c r="Z49" s="73"/>
+      <c r="AA49" s="73"/>
+      <c r="AB49" s="73"/>
+      <c r="AC49" s="73"/>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
@@ -5114,9 +5473,9 @@
       <c r="AP49" s="3"/>
       <c r="AQ49" s="3"/>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C50" s="73"/>
       <c r="D50" s="73"/>
@@ -5132,25 +5491,25 @@
       <c r="N50" s="73"/>
       <c r="O50" s="73"/>
       <c r="P50" s="73">
-        <v>6593</v>
+        <v>2950</v>
       </c>
       <c r="Q50" s="73">
-        <v>6861</v>
+        <v>3080</v>
       </c>
       <c r="R50" s="73">
-        <v>7280</v>
+        <v>2905</v>
       </c>
       <c r="S50" s="73">
-        <v>4496</v>
+        <v>3123</v>
       </c>
       <c r="T50" s="73">
-        <v>3207</v>
+        <v>3850</v>
       </c>
       <c r="U50" s="73">
-        <v>3060</v>
+        <v>3461</v>
       </c>
       <c r="V50" s="73">
-        <v>4216</v>
+        <v>3789</v>
       </c>
       <c r="W50" s="73"/>
       <c r="X50" s="73"/>
@@ -5174,9 +5533,9 @@
       <c r="AP50" s="3"/>
       <c r="AQ50" s="3"/>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C51" s="73"/>
       <c r="D51" s="73"/>
@@ -5192,25 +5551,25 @@
       <c r="N51" s="73"/>
       <c r="O51" s="73"/>
       <c r="P51" s="73">
-        <v>2950</v>
+        <v>614</v>
       </c>
       <c r="Q51" s="73">
-        <v>3080</v>
+        <v>637</v>
       </c>
       <c r="R51" s="73">
-        <v>2905</v>
+        <v>856</v>
       </c>
       <c r="S51" s="73">
-        <v>3123</v>
+        <v>817</v>
       </c>
       <c r="T51" s="73">
-        <v>3850</v>
+        <v>906</v>
       </c>
       <c r="U51" s="73">
-        <v>3461</v>
+        <v>930</v>
       </c>
       <c r="V51" s="73">
-        <v>3789</v>
+        <v>886</v>
       </c>
       <c r="W51" s="73"/>
       <c r="X51" s="73"/>
@@ -5234,9 +5593,9 @@
       <c r="AP51" s="3"/>
       <c r="AQ51" s="3"/>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C52" s="73"/>
       <c r="D52" s="73"/>
@@ -5252,25 +5611,32 @@
       <c r="N52" s="73"/>
       <c r="O52" s="73"/>
       <c r="P52" s="73">
-        <v>614</v>
+        <f t="shared" ref="P52:T52" si="68">SUM(P53:P55)</f>
+        <v>8804</v>
       </c>
       <c r="Q52" s="73">
-        <v>637</v>
+        <f t="shared" si="68"/>
+        <v>9235</v>
       </c>
       <c r="R52" s="73">
-        <v>856</v>
+        <f t="shared" si="68"/>
+        <v>9591</v>
       </c>
       <c r="S52" s="73">
-        <v>817</v>
+        <f t="shared" si="68"/>
+        <v>8720</v>
       </c>
       <c r="T52" s="73">
-        <v>906</v>
+        <f t="shared" si="68"/>
+        <v>9886</v>
       </c>
       <c r="U52" s="73">
-        <v>930</v>
+        <f>SUM(U53:U55)</f>
+        <v>10774</v>
       </c>
       <c r="V52" s="73">
-        <v>886</v>
+        <f>SUM(V53:V55)</f>
+        <v>9453</v>
       </c>
       <c r="W52" s="73"/>
       <c r="X52" s="73"/>
@@ -5294,9 +5660,9 @@
       <c r="AP52" s="3"/>
       <c r="AQ52" s="3"/>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>68</v>
+    <row r="53" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B53" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="C53" s="73"/>
       <c r="D53" s="73"/>
@@ -5312,32 +5678,25 @@
       <c r="N53" s="73"/>
       <c r="O53" s="73"/>
       <c r="P53" s="73">
-        <f t="shared" ref="P53:T53" si="46">SUM(P54:P56)</f>
-        <v>8804</v>
+        <v>2318</v>
       </c>
       <c r="Q53" s="73">
-        <f t="shared" si="46"/>
-        <v>9235</v>
+        <v>2052</v>
       </c>
       <c r="R53" s="73">
-        <f t="shared" si="46"/>
-        <v>9591</v>
+        <v>2063</v>
       </c>
       <c r="S53" s="73">
-        <f t="shared" si="46"/>
-        <v>8720</v>
+        <v>1642</v>
       </c>
       <c r="T53" s="73">
-        <f t="shared" si="46"/>
-        <v>9886</v>
+        <v>1674</v>
       </c>
       <c r="U53" s="73">
-        <f>SUM(U54:U56)</f>
-        <v>10774</v>
+        <v>1942</v>
       </c>
       <c r="V53" s="73">
-        <f>SUM(V54:V56)</f>
-        <v>9453</v>
+        <v>2080</v>
       </c>
       <c r="W53" s="73"/>
       <c r="X53" s="73"/>
@@ -5361,9 +5720,9 @@
       <c r="AP53" s="3"/>
       <c r="AQ53" s="3"/>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B54" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C54" s="73"/>
       <c r="D54" s="73"/>
@@ -5379,25 +5738,25 @@
       <c r="N54" s="73"/>
       <c r="O54" s="73"/>
       <c r="P54" s="73">
-        <v>2318</v>
+        <v>1405</v>
       </c>
       <c r="Q54" s="73">
-        <v>2052</v>
+        <v>1596</v>
       </c>
       <c r="R54" s="73">
-        <v>2063</v>
+        <v>1712</v>
       </c>
       <c r="S54" s="73">
-        <v>1642</v>
+        <v>1652</v>
       </c>
       <c r="T54" s="73">
-        <v>1674</v>
+        <v>2028</v>
       </c>
       <c r="U54" s="73">
-        <v>1942</v>
+        <v>2293</v>
       </c>
       <c r="V54" s="73">
-        <v>2080</v>
+        <v>2261</v>
       </c>
       <c r="W54" s="73"/>
       <c r="X54" s="73"/>
@@ -5421,9 +5780,9 @@
       <c r="AP54" s="3"/>
       <c r="AQ54" s="3"/>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B55" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" s="73"/>
       <c r="D55" s="73"/>
@@ -5439,25 +5798,25 @@
       <c r="N55" s="73"/>
       <c r="O55" s="73"/>
       <c r="P55" s="73">
-        <v>1405</v>
+        <v>5081</v>
       </c>
       <c r="Q55" s="73">
-        <v>1596</v>
+        <v>5587</v>
       </c>
       <c r="R55" s="73">
-        <v>1712</v>
+        <v>5816</v>
       </c>
       <c r="S55" s="73">
-        <v>1652</v>
+        <v>5426</v>
       </c>
       <c r="T55" s="73">
-        <v>2028</v>
+        <v>6184</v>
       </c>
       <c r="U55" s="73">
-        <v>2293</v>
+        <v>6539</v>
       </c>
       <c r="V55" s="73">
-        <v>2261</v>
+        <v>5112</v>
       </c>
       <c r="W55" s="73"/>
       <c r="X55" s="73"/>
@@ -5481,8 +5840,8 @@
       <c r="AP55" s="3"/>
       <c r="AQ55" s="3"/>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B56" s="24" t="s">
+    <row r="56" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B56" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C56" s="73"/>
@@ -5499,25 +5858,25 @@
       <c r="N56" s="73"/>
       <c r="O56" s="73"/>
       <c r="P56" s="73">
-        <v>5081</v>
+        <v>481</v>
       </c>
       <c r="Q56" s="73">
-        <v>5587</v>
+        <v>701</v>
       </c>
       <c r="R56" s="73">
-        <v>5816</v>
+        <v>860</v>
       </c>
       <c r="S56" s="73">
-        <v>5426</v>
+        <v>561</v>
       </c>
       <c r="T56" s="73">
-        <v>6184</v>
+        <v>1770</v>
       </c>
       <c r="U56" s="73">
-        <v>6539</v>
+        <v>1530</v>
       </c>
       <c r="V56" s="73">
-        <v>5112</v>
+        <v>1826</v>
       </c>
       <c r="W56" s="73"/>
       <c r="X56" s="73"/>
@@ -5541,8 +5900,8 @@
       <c r="AP56" s="3"/>
       <c r="AQ56" s="3"/>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B57" s="25" t="s">
+    <row r="57" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B57" s="26" t="s">
         <v>72</v>
       </c>
       <c r="C57" s="73"/>
@@ -5558,26 +5917,33 @@
       <c r="M57" s="73"/>
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
-      <c r="P57" s="73">
-        <v>481</v>
-      </c>
-      <c r="Q57" s="73">
-        <v>701</v>
-      </c>
-      <c r="R57" s="73">
-        <v>860</v>
-      </c>
-      <c r="S57" s="73">
-        <v>561</v>
-      </c>
-      <c r="T57" s="73">
-        <v>1770</v>
-      </c>
-      <c r="U57" s="73">
-        <v>1530</v>
-      </c>
-      <c r="V57" s="73">
-        <v>1826</v>
+      <c r="P57" s="74">
+        <f t="shared" ref="P57:T57" si="69">SUM(P49:P52,P56)</f>
+        <v>19442</v>
+      </c>
+      <c r="Q57" s="74">
+        <f t="shared" si="69"/>
+        <v>20514</v>
+      </c>
+      <c r="R57" s="74">
+        <f t="shared" si="69"/>
+        <v>21492</v>
+      </c>
+      <c r="S57" s="74">
+        <f t="shared" si="69"/>
+        <v>17717</v>
+      </c>
+      <c r="T57" s="74">
+        <f t="shared" si="69"/>
+        <v>19619</v>
+      </c>
+      <c r="U57" s="74">
+        <f>SUM(U49:U52,U56)</f>
+        <v>19755</v>
+      </c>
+      <c r="V57" s="74">
+        <f>SUM(V49:V52,V56)</f>
+        <v>20170</v>
       </c>
       <c r="W57" s="73"/>
       <c r="X57" s="73"/>
@@ -5601,9 +5967,9 @@
       <c r="AP57" s="3"/>
       <c r="AQ57" s="3"/>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B58" s="26" t="s">
-        <v>73</v>
+    <row r="58" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B58" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="C58" s="73"/>
       <c r="D58" s="73"/>
@@ -5618,33 +5984,33 @@
       <c r="M58" s="73"/>
       <c r="N58" s="73"/>
       <c r="O58" s="73"/>
-      <c r="P58" s="74">
-        <f t="shared" ref="P58:T58" si="47">SUM(P50:P53,P57)</f>
-        <v>19442</v>
-      </c>
-      <c r="Q58" s="74">
-        <f t="shared" si="47"/>
-        <v>20514</v>
-      </c>
-      <c r="R58" s="74">
-        <f t="shared" si="47"/>
-        <v>21492</v>
-      </c>
-      <c r="S58" s="74">
-        <f t="shared" si="47"/>
-        <v>17717</v>
-      </c>
-      <c r="T58" s="74">
-        <f t="shared" si="47"/>
-        <v>19619</v>
-      </c>
-      <c r="U58" s="74">
-        <f>SUM(U50:U53,U57)</f>
-        <v>19755</v>
-      </c>
-      <c r="V58" s="74">
-        <f>SUM(V50:V53,V57)</f>
-        <v>20170</v>
+      <c r="P58" s="73">
+        <f t="shared" ref="P58:T58" si="70">SUM(P59:P63)</f>
+        <v>7201</v>
+      </c>
+      <c r="Q58" s="73">
+        <f t="shared" si="70"/>
+        <v>6631</v>
+      </c>
+      <c r="R58" s="73">
+        <f t="shared" si="70"/>
+        <v>6365</v>
+      </c>
+      <c r="S58" s="73">
+        <f t="shared" si="70"/>
+        <v>6168</v>
+      </c>
+      <c r="T58" s="73">
+        <f t="shared" si="70"/>
+        <v>6710</v>
+      </c>
+      <c r="U58" s="73">
+        <f>SUM(U59:U63)</f>
+        <v>7516</v>
+      </c>
+      <c r="V58" s="73">
+        <f>SUM(V59:V63)</f>
+        <v>7310</v>
       </c>
       <c r="W58" s="73"/>
       <c r="X58" s="73"/>
@@ -5668,8 +6034,8 @@
       <c r="AP58" s="3"/>
       <c r="AQ58" s="3"/>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B59" s="25" t="s">
+    <row r="59" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B59" s="24" t="s">
         <v>76</v>
       </c>
       <c r="C59" s="73"/>
@@ -5686,32 +6052,25 @@
       <c r="N59" s="73"/>
       <c r="O59" s="73"/>
       <c r="P59" s="73">
-        <f t="shared" ref="P59:T59" si="48">SUM(P60:P64)</f>
-        <v>7201</v>
+        <v>600</v>
       </c>
       <c r="Q59" s="73">
-        <f t="shared" si="48"/>
-        <v>6631</v>
+        <v>566</v>
       </c>
       <c r="R59" s="73">
-        <f t="shared" si="48"/>
-        <v>6365</v>
+        <v>590</v>
       </c>
       <c r="S59" s="73">
-        <f t="shared" si="48"/>
-        <v>6168</v>
+        <v>565</v>
       </c>
       <c r="T59" s="73">
-        <f t="shared" si="48"/>
-        <v>6710</v>
+        <v>545</v>
       </c>
       <c r="U59" s="73">
-        <f>SUM(U60:U64)</f>
-        <v>7516</v>
+        <v>550</v>
       </c>
       <c r="V59" s="73">
-        <f>SUM(V60:V64)</f>
-        <v>7310</v>
+        <v>581</v>
       </c>
       <c r="W59" s="73"/>
       <c r="X59" s="73"/>
@@ -5735,7 +6094,7 @@
       <c r="AP59" s="3"/>
       <c r="AQ59" s="3"/>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B60" s="24" t="s">
         <v>77</v>
       </c>
@@ -5753,25 +6112,25 @@
       <c r="N60" s="73"/>
       <c r="O60" s="73"/>
       <c r="P60" s="73">
-        <v>600</v>
+        <v>3975</v>
       </c>
       <c r="Q60" s="73">
-        <v>566</v>
+        <v>4132</v>
       </c>
       <c r="R60" s="73">
-        <v>590</v>
+        <v>4410</v>
       </c>
       <c r="S60" s="73">
-        <v>565</v>
+        <v>4293</v>
       </c>
       <c r="T60" s="73">
-        <v>545</v>
+        <v>4291</v>
       </c>
       <c r="U60" s="73">
-        <v>550</v>
+        <v>4617</v>
       </c>
       <c r="V60" s="73">
-        <v>581</v>
+        <v>4391</v>
       </c>
       <c r="W60" s="73"/>
       <c r="X60" s="73"/>
@@ -5795,7 +6154,7 @@
       <c r="AP60" s="3"/>
       <c r="AQ60" s="3"/>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B61" s="24" t="s">
         <v>78</v>
       </c>
@@ -5813,25 +6172,25 @@
       <c r="N61" s="73"/>
       <c r="O61" s="73"/>
       <c r="P61" s="73">
-        <v>3975</v>
+        <v>9096</v>
       </c>
       <c r="Q61" s="73">
-        <v>4132</v>
+        <v>9354</v>
       </c>
       <c r="R61" s="73">
-        <v>4410</v>
+        <v>9460</v>
       </c>
       <c r="S61" s="73">
-        <v>4293</v>
+        <v>9275</v>
       </c>
       <c r="T61" s="73">
-        <v>4291</v>
+        <v>9549</v>
       </c>
       <c r="U61" s="73">
-        <v>4617</v>
+        <v>10713</v>
       </c>
       <c r="V61" s="73">
-        <v>4391</v>
+        <v>10632</v>
       </c>
       <c r="W61" s="73"/>
       <c r="X61" s="73"/>
@@ -5855,7 +6214,7 @@
       <c r="AP61" s="3"/>
       <c r="AQ61" s="3"/>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B62" s="24" t="s">
         <v>79</v>
       </c>
@@ -5873,25 +6232,25 @@
       <c r="N62" s="73"/>
       <c r="O62" s="73"/>
       <c r="P62" s="73">
-        <v>9096</v>
+        <v>886</v>
       </c>
       <c r="Q62" s="73">
-        <v>9354</v>
+        <v>394</v>
       </c>
       <c r="R62" s="73">
-        <v>9460</v>
+        <v>449</v>
       </c>
       <c r="S62" s="73">
-        <v>9275</v>
+        <v>599</v>
       </c>
       <c r="T62" s="73">
-        <v>9549</v>
+        <v>1058</v>
       </c>
       <c r="U62" s="73">
-        <v>10713</v>
+        <v>1200</v>
       </c>
       <c r="V62" s="73">
-        <v>10632</v>
+        <v>1081</v>
       </c>
       <c r="W62" s="73"/>
       <c r="X62" s="73"/>
@@ -5915,7 +6274,7 @@
       <c r="AP62" s="3"/>
       <c r="AQ62" s="3"/>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B63" s="24" t="s">
         <v>80</v>
       </c>
@@ -5933,25 +6292,25 @@
       <c r="N63" s="73"/>
       <c r="O63" s="73"/>
       <c r="P63" s="73">
-        <v>886</v>
+        <v>-7356</v>
       </c>
       <c r="Q63" s="73">
-        <v>394</v>
+        <v>-7815</v>
       </c>
       <c r="R63" s="73">
-        <v>449</v>
+        <v>-8544</v>
       </c>
       <c r="S63" s="73">
-        <v>599</v>
+        <v>-8564</v>
       </c>
       <c r="T63" s="73">
-        <v>1058</v>
+        <v>-8733</v>
       </c>
       <c r="U63" s="73">
-        <v>1200</v>
+        <v>-9564</v>
       </c>
       <c r="V63" s="73">
-        <v>1081</v>
+        <v>-9375</v>
       </c>
       <c r="W63" s="73"/>
       <c r="X63" s="73"/>
@@ -5975,8 +6334,8 @@
       <c r="AP63" s="3"/>
       <c r="AQ63" s="3"/>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B64" s="24" t="s">
+    <row r="64" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>81</v>
       </c>
       <c r="C64" s="73"/>
@@ -5993,25 +6352,25 @@
       <c r="N64" s="73"/>
       <c r="O64" s="73"/>
       <c r="P64" s="73">
-        <v>-7356</v>
+        <v>7189</v>
       </c>
       <c r="Q64" s="73">
-        <v>-7815</v>
+        <v>5858</v>
       </c>
       <c r="R64" s="73">
-        <v>-8544</v>
+        <v>5964</v>
       </c>
       <c r="S64" s="73">
-        <v>-8564</v>
+        <v>6680</v>
       </c>
       <c r="T64" s="73">
-        <v>-8733</v>
+        <v>19655</v>
       </c>
       <c r="U64" s="73">
-        <v>-9564</v>
+        <v>16779</v>
       </c>
       <c r="V64" s="73">
-        <v>-9375</v>
+        <v>16600</v>
       </c>
       <c r="W64" s="73"/>
       <c r="X64" s="73"/>
@@ -6053,25 +6412,25 @@
       <c r="N65" s="73"/>
       <c r="O65" s="73"/>
       <c r="P65" s="73">
-        <v>7189</v>
+        <v>2278</v>
       </c>
       <c r="Q65" s="73">
-        <v>5858</v>
+        <v>2113</v>
       </c>
       <c r="R65" s="73">
-        <v>5964</v>
+        <v>2019</v>
       </c>
       <c r="S65" s="73">
-        <v>6680</v>
+        <v>2818</v>
       </c>
       <c r="T65" s="73">
-        <v>19655</v>
+        <v>6732</v>
       </c>
       <c r="U65" s="73">
-        <v>16779</v>
+        <v>9864</v>
       </c>
       <c r="V65" s="73">
-        <v>16600</v>
+        <v>11327</v>
       </c>
       <c r="W65" s="73"/>
       <c r="X65" s="73"/>
@@ -6113,25 +6472,25 @@
       <c r="N66" s="73"/>
       <c r="O66" s="73"/>
       <c r="P66" s="73">
-        <v>2278</v>
+        <v>1269</v>
       </c>
       <c r="Q66" s="73">
-        <v>2113</v>
+        <v>4635</v>
       </c>
       <c r="R66" s="73">
-        <v>2019</v>
+        <v>4798</v>
       </c>
       <c r="S66" s="73">
-        <v>2818</v>
+        <v>4463</v>
       </c>
       <c r="T66" s="73">
-        <v>6732</v>
+        <v>4431</v>
       </c>
       <c r="U66" s="73">
-        <v>9864</v>
+        <v>4929</v>
       </c>
       <c r="V66" s="73">
-        <v>11327</v>
+        <v>2654</v>
       </c>
       <c r="W66" s="73"/>
       <c r="X66" s="73"/>
@@ -6173,25 +6532,25 @@
       <c r="N67" s="73"/>
       <c r="O67" s="73"/>
       <c r="P67" s="73">
-        <v>1269</v>
+        <v>977</v>
       </c>
       <c r="Q67" s="73">
-        <v>4635</v>
+        <v>1153</v>
       </c>
       <c r="R67" s="73">
-        <v>4798</v>
+        <v>1410</v>
       </c>
       <c r="S67" s="73">
-        <v>4463</v>
+        <v>895</v>
       </c>
       <c r="T67" s="73">
-        <v>4431</v>
+        <v>603</v>
       </c>
       <c r="U67" s="73">
-        <v>4929</v>
+        <v>814</v>
       </c>
       <c r="V67" s="73">
-        <v>2654</v>
+        <v>940</v>
       </c>
       <c r="W67" s="73"/>
       <c r="X67" s="73"/>
@@ -6233,25 +6592,25 @@
       <c r="N68" s="73"/>
       <c r="O68" s="73"/>
       <c r="P68" s="73">
-        <v>977</v>
+        <v>1445</v>
       </c>
       <c r="Q68" s="73">
-        <v>1153</v>
+        <v>1971</v>
       </c>
       <c r="R68" s="73">
-        <v>1410</v>
+        <v>2767</v>
       </c>
       <c r="S68" s="73">
-        <v>895</v>
+        <v>2549</v>
       </c>
       <c r="T68" s="73">
-        <v>603</v>
+        <v>3931</v>
       </c>
       <c r="U68" s="73">
-        <v>814</v>
+        <v>5647</v>
       </c>
       <c r="V68" s="73">
-        <v>940</v>
+        <v>2783</v>
       </c>
       <c r="W68" s="73"/>
       <c r="X68" s="73"/>
@@ -6276,7 +6635,7 @@
       <c r="AQ68" s="3"/>
     </row>
     <row r="69" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C69" s="73"/>
@@ -6292,26 +6651,33 @@
       <c r="M69" s="73"/>
       <c r="N69" s="73"/>
       <c r="O69" s="73"/>
-      <c r="P69" s="73">
-        <v>1445</v>
-      </c>
-      <c r="Q69" s="73">
-        <v>1971</v>
-      </c>
-      <c r="R69" s="73">
-        <v>2767</v>
-      </c>
-      <c r="S69" s="73">
-        <v>2549</v>
-      </c>
-      <c r="T69" s="73">
-        <v>3931</v>
-      </c>
-      <c r="U69" s="73">
-        <v>5647</v>
-      </c>
-      <c r="V69" s="73">
-        <v>2783</v>
+      <c r="P69" s="74">
+        <f t="shared" ref="P69:T69" si="71">SUM(P58,P64:P68)</f>
+        <v>20359</v>
+      </c>
+      <c r="Q69" s="74">
+        <f t="shared" si="71"/>
+        <v>22361</v>
+      </c>
+      <c r="R69" s="74">
+        <f t="shared" si="71"/>
+        <v>23323</v>
+      </c>
+      <c r="S69" s="74">
+        <f t="shared" si="71"/>
+        <v>23573</v>
+      </c>
+      <c r="T69" s="74">
+        <f t="shared" si="71"/>
+        <v>42062</v>
+      </c>
+      <c r="U69" s="74">
+        <f>SUM(U58,U64:U68)</f>
+        <v>45549</v>
+      </c>
+      <c r="V69" s="74">
+        <f>SUM(V58,V64:V68)</f>
+        <v>41614</v>
       </c>
       <c r="W69" s="73"/>
       <c r="X69" s="73"/>
@@ -6336,9 +6702,6 @@
       <c r="AQ69" s="3"/>
     </row>
     <row r="70" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C70" s="73"/>
       <c r="D70" s="73"/>
       <c r="E70" s="73"/>
@@ -6352,34 +6715,13 @@
       <c r="M70" s="73"/>
       <c r="N70" s="73"/>
       <c r="O70" s="73"/>
-      <c r="P70" s="74">
-        <f t="shared" ref="P70:T70" si="49">SUM(P59,P65:P69)</f>
-        <v>20359</v>
-      </c>
-      <c r="Q70" s="74">
-        <f t="shared" si="49"/>
-        <v>22361</v>
-      </c>
-      <c r="R70" s="74">
-        <f t="shared" si="49"/>
-        <v>23323</v>
-      </c>
-      <c r="S70" s="74">
-        <f t="shared" si="49"/>
-        <v>23573</v>
-      </c>
-      <c r="T70" s="74">
-        <f t="shared" si="49"/>
-        <v>42062</v>
-      </c>
-      <c r="U70" s="74">
-        <f>SUM(U59,U65:U69)</f>
-        <v>45549</v>
-      </c>
-      <c r="V70" s="74">
-        <f>SUM(V59,V65:V69)</f>
-        <v>41614</v>
-      </c>
+      <c r="P70" s="73"/>
+      <c r="Q70" s="73"/>
+      <c r="R70" s="73"/>
+      <c r="S70" s="73"/>
+      <c r="T70" s="73"/>
+      <c r="U70" s="73"/>
+      <c r="V70" s="73"/>
       <c r="W70" s="73"/>
       <c r="X70" s="73"/>
       <c r="Y70" s="73"/>
@@ -6403,6 +6745,9 @@
       <c r="AQ70" s="3"/>
     </row>
     <row r="71" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C71" s="73"/>
       <c r="D71" s="73"/>
       <c r="E71" s="73"/>
@@ -6416,13 +6761,34 @@
       <c r="M71" s="73"/>
       <c r="N71" s="73"/>
       <c r="O71" s="73"/>
-      <c r="P71" s="73"/>
-      <c r="Q71" s="73"/>
-      <c r="R71" s="73"/>
-      <c r="S71" s="73"/>
-      <c r="T71" s="73"/>
-      <c r="U71" s="73"/>
-      <c r="V71" s="73"/>
+      <c r="P71" s="74">
+        <f t="shared" ref="P71:V71" si="72">P69+P57</f>
+        <v>39801</v>
+      </c>
+      <c r="Q71" s="74">
+        <f t="shared" si="72"/>
+        <v>42875</v>
+      </c>
+      <c r="R71" s="74">
+        <f t="shared" si="72"/>
+        <v>44815</v>
+      </c>
+      <c r="S71" s="74">
+        <f t="shared" si="72"/>
+        <v>41290</v>
+      </c>
+      <c r="T71" s="74">
+        <f t="shared" si="72"/>
+        <v>61681</v>
+      </c>
+      <c r="U71" s="74">
+        <f t="shared" si="72"/>
+        <v>65304</v>
+      </c>
+      <c r="V71" s="74">
+        <f t="shared" si="72"/>
+        <v>61784</v>
+      </c>
       <c r="W71" s="73"/>
       <c r="X71" s="73"/>
       <c r="Y71" s="73"/>
@@ -6446,9 +6812,6 @@
       <c r="AQ71" s="3"/>
     </row>
     <row r="72" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C72" s="73"/>
       <c r="D72" s="73"/>
       <c r="E72" s="73"/>
@@ -6462,34 +6825,13 @@
       <c r="M72" s="73"/>
       <c r="N72" s="73"/>
       <c r="O72" s="73"/>
-      <c r="P72" s="74">
-        <f t="shared" ref="P72:V72" si="50">P70+P58</f>
-        <v>39801</v>
-      </c>
-      <c r="Q72" s="74">
-        <f t="shared" si="50"/>
-        <v>42875</v>
-      </c>
-      <c r="R72" s="74">
-        <f t="shared" si="50"/>
-        <v>44815</v>
-      </c>
-      <c r="S72" s="74">
-        <f t="shared" si="50"/>
-        <v>41290</v>
-      </c>
-      <c r="T72" s="74">
-        <f t="shared" si="50"/>
-        <v>61681</v>
-      </c>
-      <c r="U72" s="74">
-        <f t="shared" si="50"/>
-        <v>65304</v>
-      </c>
-      <c r="V72" s="74">
-        <f t="shared" si="50"/>
-        <v>61784</v>
-      </c>
+      <c r="P72" s="73"/>
+      <c r="Q72" s="73"/>
+      <c r="R72" s="73"/>
+      <c r="S72" s="73"/>
+      <c r="T72" s="73"/>
+      <c r="U72" s="73"/>
+      <c r="V72" s="73"/>
       <c r="W72" s="73"/>
       <c r="X72" s="73"/>
       <c r="Y72" s="73"/>
@@ -6513,6 +6855,9 @@
       <c r="AQ72" s="3"/>
     </row>
     <row r="73" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>88</v>
+      </c>
       <c r="C73" s="73"/>
       <c r="D73" s="73"/>
       <c r="E73" s="73"/>
@@ -6526,13 +6871,27 @@
       <c r="M73" s="73"/>
       <c r="N73" s="73"/>
       <c r="O73" s="73"/>
-      <c r="P73" s="73"/>
-      <c r="Q73" s="73"/>
-      <c r="R73" s="73"/>
-      <c r="S73" s="73"/>
-      <c r="T73" s="73"/>
-      <c r="U73" s="73"/>
-      <c r="V73" s="73"/>
+      <c r="P73" s="73">
+        <v>730</v>
+      </c>
+      <c r="Q73" s="73">
+        <v>338</v>
+      </c>
+      <c r="R73" s="73">
+        <v>244</v>
+      </c>
+      <c r="S73" s="73">
+        <v>225</v>
+      </c>
+      <c r="T73" s="73">
+        <v>5637</v>
+      </c>
+      <c r="U73" s="73">
+        <v>1968</v>
+      </c>
+      <c r="V73" s="73">
+        <v>137</v>
+      </c>
       <c r="W73" s="73"/>
       <c r="X73" s="73"/>
       <c r="Y73" s="73"/>
@@ -6573,25 +6932,25 @@
       <c r="N74" s="73"/>
       <c r="O74" s="73"/>
       <c r="P74" s="73">
-        <v>730</v>
+        <v>4054</v>
       </c>
       <c r="Q74" s="73">
-        <v>338</v>
+        <v>4051</v>
       </c>
       <c r="R74" s="73">
-        <v>244</v>
+        <v>3124</v>
       </c>
       <c r="S74" s="73">
-        <v>225</v>
+        <v>2798</v>
       </c>
       <c r="T74" s="73">
-        <v>5637</v>
+        <v>2611</v>
       </c>
       <c r="U74" s="73">
-        <v>1968</v>
+        <v>4698</v>
       </c>
       <c r="V74" s="73">
-        <v>137</v>
+        <v>3392</v>
       </c>
       <c r="W74" s="73"/>
       <c r="X74" s="73"/>
@@ -6633,25 +6992,25 @@
       <c r="N75" s="73"/>
       <c r="O75" s="73"/>
       <c r="P75" s="73">
-        <v>4054</v>
+        <v>2068</v>
       </c>
       <c r="Q75" s="73">
-        <v>4051</v>
+        <v>2299</v>
       </c>
       <c r="R75" s="73">
-        <v>3124</v>
+        <v>2780</v>
       </c>
       <c r="S75" s="73">
-        <v>2798</v>
+        <v>3331</v>
       </c>
       <c r="T75" s="73">
-        <v>2611</v>
+        <v>4076</v>
       </c>
       <c r="U75" s="73">
-        <v>4698</v>
+        <v>4143</v>
       </c>
       <c r="V75" s="73">
-        <v>3392</v>
+        <v>3952</v>
       </c>
       <c r="W75" s="73"/>
       <c r="X75" s="73"/>
@@ -6693,25 +7052,32 @@
       <c r="N76" s="73"/>
       <c r="O76" s="73"/>
       <c r="P76" s="73">
-        <v>2068</v>
+        <f t="shared" ref="P76:T76" si="73">SUM(P77:P81)</f>
+        <v>9763</v>
       </c>
       <c r="Q76" s="73">
-        <v>2299</v>
+        <f t="shared" si="73"/>
+        <v>11349</v>
       </c>
       <c r="R76" s="73">
-        <v>2780</v>
+        <f t="shared" si="73"/>
+        <v>12376</v>
       </c>
       <c r="S76" s="73">
-        <v>3331</v>
+        <f t="shared" si="73"/>
+        <v>11876</v>
       </c>
       <c r="T76" s="73">
-        <v>4076</v>
+        <f t="shared" si="73"/>
+        <v>13972</v>
       </c>
       <c r="U76" s="73">
-        <v>4143</v>
+        <f>SUM(U77:U81)</f>
+        <v>14416</v>
       </c>
       <c r="V76" s="73">
-        <v>3952</v>
+        <f>SUM(V77:V81)</f>
+        <v>14176</v>
       </c>
       <c r="W76" s="73"/>
       <c r="X76" s="73"/>
@@ -6736,7 +7102,7 @@
       <c r="AQ76" s="3"/>
     </row>
     <row r="77" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+      <c r="B77" s="24" t="s">
         <v>92</v>
       </c>
       <c r="C77" s="73"/>
@@ -6753,32 +7119,25 @@
       <c r="N77" s="73"/>
       <c r="O77" s="73"/>
       <c r="P77" s="73">
-        <f t="shared" ref="P77:T77" si="51">SUM(P78:P82)</f>
-        <v>9763</v>
+        <v>732</v>
       </c>
       <c r="Q77" s="73">
-        <f t="shared" si="51"/>
-        <v>11349</v>
+        <v>666</v>
       </c>
       <c r="R77" s="73">
-        <f t="shared" si="51"/>
-        <v>12376</v>
+        <v>782</v>
       </c>
       <c r="S77" s="73">
-        <f t="shared" si="51"/>
-        <v>11876</v>
+        <v>811</v>
       </c>
       <c r="T77" s="73">
-        <f t="shared" si="51"/>
-        <v>13972</v>
+        <v>695</v>
       </c>
       <c r="U77" s="73">
-        <f>SUM(U78:U82)</f>
-        <v>14416</v>
+        <v>862</v>
       </c>
       <c r="V77" s="73">
-        <f>SUM(V78:V82)</f>
-        <v>14176</v>
+        <v>1015</v>
       </c>
       <c r="W77" s="73"/>
       <c r="X77" s="73"/>
@@ -6820,25 +7179,25 @@
       <c r="N78" s="73"/>
       <c r="O78" s="73"/>
       <c r="P78" s="73">
-        <v>732</v>
+        <v>5088</v>
       </c>
       <c r="Q78" s="73">
-        <v>666</v>
+        <v>5837</v>
       </c>
       <c r="R78" s="73">
-        <v>782</v>
+        <v>6403</v>
       </c>
       <c r="S78" s="73">
-        <v>811</v>
+        <v>6324</v>
       </c>
       <c r="T78" s="73">
-        <v>695</v>
+        <v>7440</v>
       </c>
       <c r="U78" s="73">
-        <v>862</v>
+        <v>7514</v>
       </c>
       <c r="V78" s="73">
-        <v>1015</v>
+        <v>6904</v>
       </c>
       <c r="W78" s="73"/>
       <c r="X78" s="73"/>
@@ -6880,25 +7239,25 @@
       <c r="N79" s="73"/>
       <c r="O79" s="73"/>
       <c r="P79" s="73">
-        <v>5088</v>
+        <v>794</v>
       </c>
       <c r="Q79" s="73">
-        <v>5837</v>
+        <v>1042</v>
       </c>
       <c r="R79" s="73">
-        <v>6403</v>
+        <v>1189</v>
       </c>
       <c r="S79" s="73">
-        <v>6324</v>
+        <v>1146</v>
       </c>
       <c r="T79" s="73">
-        <v>7440</v>
+        <v>1168</v>
       </c>
       <c r="U79" s="73">
-        <v>7514</v>
+        <v>1262</v>
       </c>
       <c r="V79" s="73">
-        <v>6904</v>
+        <v>1305</v>
       </c>
       <c r="W79" s="73"/>
       <c r="X79" s="73"/>
@@ -6940,25 +7299,25 @@
       <c r="N80" s="73"/>
       <c r="O80" s="73"/>
       <c r="P80" s="73">
-        <v>794</v>
+        <v>1783</v>
       </c>
       <c r="Q80" s="73">
-        <v>1042</v>
+        <v>1831</v>
       </c>
       <c r="R80" s="73">
-        <v>1189</v>
+        <v>1880</v>
       </c>
       <c r="S80" s="73">
-        <v>1146</v>
+        <v>1958</v>
       </c>
       <c r="T80" s="73">
-        <v>1168</v>
+        <v>1990</v>
       </c>
       <c r="U80" s="73">
-        <v>1262</v>
+        <v>2041</v>
       </c>
       <c r="V80" s="73">
-        <v>1305</v>
+        <v>2120</v>
       </c>
       <c r="W80" s="73"/>
       <c r="X80" s="73"/>
@@ -7000,25 +7359,25 @@
       <c r="N81" s="73"/>
       <c r="O81" s="73"/>
       <c r="P81" s="73">
-        <v>1783</v>
+        <v>1366</v>
       </c>
       <c r="Q81" s="73">
-        <v>1831</v>
+        <v>1973</v>
       </c>
       <c r="R81" s="73">
-        <v>1880</v>
+        <v>2122</v>
       </c>
       <c r="S81" s="73">
-        <v>1958</v>
+        <v>1637</v>
       </c>
       <c r="T81" s="73">
-        <v>1990</v>
+        <v>2679</v>
       </c>
       <c r="U81" s="73">
-        <v>2041</v>
+        <v>2737</v>
       </c>
       <c r="V81" s="73">
-        <v>2120</v>
+        <v>2832</v>
       </c>
       <c r="W81" s="73"/>
       <c r="X81" s="73"/>
@@ -7043,8 +7402,8 @@
       <c r="AQ81" s="3"/>
     </row>
     <row r="82" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B82" s="24" t="s">
-        <v>97</v>
+      <c r="B82" t="s">
+        <v>98</v>
       </c>
       <c r="C82" s="73"/>
       <c r="D82" s="73"/>
@@ -7060,25 +7419,25 @@
       <c r="N82" s="73"/>
       <c r="O82" s="73"/>
       <c r="P82" s="73">
-        <v>1366</v>
+        <v>576</v>
       </c>
       <c r="Q82" s="73">
-        <v>1973</v>
+        <v>796</v>
       </c>
       <c r="R82" s="73">
-        <v>2122</v>
+        <v>1091</v>
       </c>
       <c r="S82" s="73">
-        <v>1637</v>
+        <v>1025</v>
       </c>
       <c r="T82" s="73">
-        <v>2679</v>
+        <v>1040</v>
       </c>
       <c r="U82" s="73">
-        <v>2737</v>
+        <v>1158</v>
       </c>
       <c r="V82" s="73">
-        <v>2832</v>
+        <v>1258</v>
       </c>
       <c r="W82" s="73"/>
       <c r="X82" s="73"/>
@@ -7103,8 +7462,8 @@
       <c r="AQ82" s="3"/>
     </row>
     <row r="83" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>99</v>
+      <c r="B83" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="C83" s="73"/>
       <c r="D83" s="73"/>
@@ -7119,26 +7478,33 @@
       <c r="M83" s="73"/>
       <c r="N83" s="73"/>
       <c r="O83" s="73"/>
-      <c r="P83" s="73">
-        <v>576</v>
-      </c>
-      <c r="Q83" s="73">
-        <v>796</v>
-      </c>
-      <c r="R83" s="73">
-        <v>1091</v>
-      </c>
-      <c r="S83" s="73">
-        <v>1025</v>
-      </c>
-      <c r="T83" s="73">
-        <v>1040</v>
-      </c>
-      <c r="U83" s="73">
-        <v>1158</v>
-      </c>
-      <c r="V83" s="73">
-        <v>1258</v>
+      <c r="P83" s="74">
+        <f t="shared" ref="P83:T83" si="74">SUM(P73:P76,P82)</f>
+        <v>17191</v>
+      </c>
+      <c r="Q83" s="74">
+        <f>SUM(Q73:Q76,Q82)</f>
+        <v>18833</v>
+      </c>
+      <c r="R83" s="74">
+        <f t="shared" si="74"/>
+        <v>19615</v>
+      </c>
+      <c r="S83" s="74">
+        <f t="shared" si="74"/>
+        <v>19255</v>
+      </c>
+      <c r="T83" s="74">
+        <f t="shared" si="74"/>
+        <v>27336</v>
+      </c>
+      <c r="U83" s="74">
+        <f>SUM(U73:U76,U82)</f>
+        <v>26383</v>
+      </c>
+      <c r="V83" s="74">
+        <f>SUM(V73:V76,V82)</f>
+        <v>22915</v>
       </c>
       <c r="W83" s="73"/>
       <c r="X83" s="73"/>
@@ -7163,7 +7529,7 @@
       <c r="AQ83" s="3"/>
     </row>
     <row r="84" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="25" t="s">
         <v>101</v>
       </c>
       <c r="C84" s="73"/>
@@ -7179,33 +7545,26 @@
       <c r="M84" s="73"/>
       <c r="N84" s="73"/>
       <c r="O84" s="73"/>
-      <c r="P84" s="74">
-        <f t="shared" ref="P84:T84" si="52">SUM(P74:P77,P83)</f>
-        <v>17191</v>
-      </c>
-      <c r="Q84" s="74">
-        <f>SUM(Q74:Q77,Q83)</f>
-        <v>18833</v>
-      </c>
-      <c r="R84" s="74">
-        <f t="shared" si="52"/>
-        <v>19615</v>
-      </c>
-      <c r="S84" s="74">
-        <f t="shared" si="52"/>
-        <v>19255</v>
-      </c>
-      <c r="T84" s="74">
-        <f t="shared" si="52"/>
-        <v>27336</v>
-      </c>
-      <c r="U84" s="74">
-        <f>SUM(U74:U77,U83)</f>
-        <v>26383</v>
-      </c>
-      <c r="V84" s="74">
-        <f>SUM(V74:V77,V83)</f>
-        <v>22915</v>
+      <c r="P84" s="73">
+        <v>26975</v>
+      </c>
+      <c r="Q84" s="73">
+        <v>26656</v>
+      </c>
+      <c r="R84" s="73">
+        <v>28168</v>
+      </c>
+      <c r="S84" s="73">
+        <v>24783</v>
+      </c>
+      <c r="T84" s="73">
+        <v>34875</v>
+      </c>
+      <c r="U84" s="73">
+        <v>41243</v>
+      </c>
+      <c r="V84" s="73">
+        <v>42166</v>
       </c>
       <c r="W84" s="73"/>
       <c r="X84" s="73"/>
@@ -7247,25 +7606,25 @@
       <c r="N85" s="73"/>
       <c r="O85" s="73"/>
       <c r="P85" s="73">
-        <v>26975</v>
+        <v>898</v>
       </c>
       <c r="Q85" s="73">
-        <v>26656</v>
+        <v>908</v>
       </c>
       <c r="R85" s="73">
-        <v>28168</v>
+        <v>684</v>
       </c>
       <c r="S85" s="73">
-        <v>24783</v>
+        <v>726</v>
       </c>
       <c r="T85" s="73">
-        <v>34875</v>
+        <v>1956</v>
       </c>
       <c r="U85" s="73">
-        <v>41243</v>
+        <v>2335</v>
       </c>
       <c r="V85" s="73">
-        <v>42166</v>
+        <v>2517</v>
       </c>
       <c r="W85" s="73"/>
       <c r="X85" s="73"/>
@@ -7291,7 +7650,7 @@
     </row>
     <row r="86" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B86" s="25" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C86" s="73"/>
       <c r="D86" s="73"/>
@@ -7307,25 +7666,25 @@
       <c r="N86" s="73"/>
       <c r="O86" s="73"/>
       <c r="P86" s="73">
-        <v>898</v>
+        <v>3083</v>
       </c>
       <c r="Q86" s="73">
-        <v>908</v>
+        <v>3634</v>
       </c>
       <c r="R86" s="73">
-        <v>684</v>
+        <v>4470</v>
       </c>
       <c r="S86" s="73">
-        <v>726</v>
+        <v>2968</v>
       </c>
       <c r="T86" s="73">
-        <v>1956</v>
+        <v>1984</v>
       </c>
       <c r="U86" s="73">
-        <v>2335</v>
+        <v>3046</v>
       </c>
       <c r="V86" s="73">
-        <v>2517</v>
+        <v>2940</v>
       </c>
       <c r="W86" s="73"/>
       <c r="X86" s="73"/>
@@ -7351,7 +7710,7 @@
     </row>
     <row r="87" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B87" s="25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C87" s="73"/>
       <c r="D87" s="73"/>
@@ -7367,25 +7726,25 @@
       <c r="N87" s="73"/>
       <c r="O87" s="73"/>
       <c r="P87" s="73">
-        <v>3083</v>
+        <v>2393</v>
       </c>
       <c r="Q87" s="73">
-        <v>3634</v>
+        <v>2443</v>
       </c>
       <c r="R87" s="73">
-        <v>4470</v>
+        <v>2509</v>
       </c>
       <c r="S87" s="73">
-        <v>2968</v>
+        <v>1766</v>
       </c>
       <c r="T87" s="73">
-        <v>1984</v>
+        <v>1841</v>
       </c>
       <c r="U87" s="73">
-        <v>3046</v>
+        <v>1743</v>
       </c>
       <c r="V87" s="73">
-        <v>2940</v>
+        <v>1116</v>
       </c>
       <c r="W87" s="73"/>
       <c r="X87" s="73"/>
@@ -7410,8 +7769,8 @@
       <c r="AQ87" s="3"/>
     </row>
     <row r="88" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B88" s="25" t="s">
-        <v>99</v>
+      <c r="B88" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
@@ -7426,26 +7785,33 @@
       <c r="M88" s="73"/>
       <c r="N88" s="73"/>
       <c r="O88" s="73"/>
-      <c r="P88" s="73">
-        <v>2393</v>
-      </c>
-      <c r="Q88" s="73">
-        <v>2443</v>
-      </c>
-      <c r="R88" s="73">
-        <v>2509</v>
-      </c>
-      <c r="S88" s="73">
-        <v>1766</v>
-      </c>
-      <c r="T88" s="73">
-        <v>1841</v>
-      </c>
-      <c r="U88" s="73">
-        <v>1743</v>
-      </c>
-      <c r="V88" s="73">
-        <v>1116</v>
+      <c r="P88" s="74">
+        <f t="shared" ref="P88:T88" si="75">SUM(P84:P87)</f>
+        <v>33349</v>
+      </c>
+      <c r="Q88" s="74">
+        <f t="shared" si="75"/>
+        <v>33641</v>
+      </c>
+      <c r="R88" s="74">
+        <f t="shared" si="75"/>
+        <v>35831</v>
+      </c>
+      <c r="S88" s="74">
+        <f t="shared" si="75"/>
+        <v>30243</v>
+      </c>
+      <c r="T88" s="74">
+        <f t="shared" si="75"/>
+        <v>40656</v>
+      </c>
+      <c r="U88" s="74">
+        <f>SUM(U84:U87)</f>
+        <v>48367</v>
+      </c>
+      <c r="V88" s="74">
+        <f>SUM(V84:V87)</f>
+        <v>48739</v>
       </c>
       <c r="W88" s="73"/>
       <c r="X88" s="73"/>
@@ -7470,9 +7836,7 @@
       <c r="AQ88" s="3"/>
     </row>
     <row r="89" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B89" s="26" t="s">
-        <v>104</v>
-      </c>
+      <c r="B89" s="25"/>
       <c r="C89" s="73"/>
       <c r="D89" s="73"/>
       <c r="E89" s="73"/>
@@ -7486,34 +7850,13 @@
       <c r="M89" s="73"/>
       <c r="N89" s="73"/>
       <c r="O89" s="73"/>
-      <c r="P89" s="74">
-        <f t="shared" ref="P89:T89" si="53">SUM(P85:P88)</f>
-        <v>33349</v>
-      </c>
-      <c r="Q89" s="74">
-        <f t="shared" si="53"/>
-        <v>33641</v>
-      </c>
-      <c r="R89" s="74">
-        <f t="shared" si="53"/>
-        <v>35831</v>
-      </c>
-      <c r="S89" s="74">
-        <f t="shared" si="53"/>
-        <v>30243</v>
-      </c>
-      <c r="T89" s="74">
-        <f t="shared" si="53"/>
-        <v>40656</v>
-      </c>
-      <c r="U89" s="74">
-        <f>SUM(U85:U88)</f>
-        <v>48367</v>
-      </c>
-      <c r="V89" s="74">
-        <f>SUM(V85:V88)</f>
-        <v>48739</v>
-      </c>
+      <c r="P89" s="73"/>
+      <c r="Q89" s="73"/>
+      <c r="R89" s="73"/>
+      <c r="S89" s="73"/>
+      <c r="T89" s="73"/>
+      <c r="U89" s="73"/>
+      <c r="V89" s="73"/>
       <c r="W89" s="73"/>
       <c r="X89" s="73"/>
       <c r="Y89" s="73"/>
@@ -7537,7 +7880,9 @@
       <c r="AQ89" s="3"/>
     </row>
     <row r="90" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B90" s="25"/>
+      <c r="B90" s="26" t="s">
+        <v>104</v>
+      </c>
       <c r="C90" s="73"/>
       <c r="D90" s="73"/>
       <c r="E90" s="73"/>
@@ -7551,13 +7896,34 @@
       <c r="M90" s="73"/>
       <c r="N90" s="73"/>
       <c r="O90" s="73"/>
-      <c r="P90" s="73"/>
-      <c r="Q90" s="73"/>
-      <c r="R90" s="73"/>
-      <c r="S90" s="73"/>
-      <c r="T90" s="73"/>
-      <c r="U90" s="73"/>
-      <c r="V90" s="73"/>
+      <c r="P90" s="74">
+        <f t="shared" ref="P90:T90" si="76">P83+P88</f>
+        <v>50540</v>
+      </c>
+      <c r="Q90" s="74">
+        <f t="shared" si="76"/>
+        <v>52474</v>
+      </c>
+      <c r="R90" s="74">
+        <f t="shared" si="76"/>
+        <v>55446</v>
+      </c>
+      <c r="S90" s="74">
+        <f t="shared" si="76"/>
+        <v>49498</v>
+      </c>
+      <c r="T90" s="74">
+        <f t="shared" si="76"/>
+        <v>67992</v>
+      </c>
+      <c r="U90" s="74">
+        <f>U83+U88</f>
+        <v>74750</v>
+      </c>
+      <c r="V90" s="74">
+        <f>V83+V88</f>
+        <v>71654</v>
+      </c>
       <c r="W90" s="73"/>
       <c r="X90" s="73"/>
       <c r="Y90" s="73"/>
@@ -7581,9 +7947,7 @@
       <c r="AQ90" s="3"/>
     </row>
     <row r="91" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B91" s="26" t="s">
-        <v>105</v>
-      </c>
+      <c r="B91" s="25"/>
       <c r="C91" s="73"/>
       <c r="D91" s="73"/>
       <c r="E91" s="73"/>
@@ -7597,34 +7961,13 @@
       <c r="M91" s="73"/>
       <c r="N91" s="73"/>
       <c r="O91" s="73"/>
-      <c r="P91" s="74">
-        <f t="shared" ref="P91:T91" si="54">P84+P89</f>
-        <v>50540</v>
-      </c>
-      <c r="Q91" s="74">
-        <f t="shared" si="54"/>
-        <v>52474</v>
-      </c>
-      <c r="R91" s="74">
-        <f t="shared" si="54"/>
-        <v>55446</v>
-      </c>
-      <c r="S91" s="74">
-        <f t="shared" si="54"/>
-        <v>49498</v>
-      </c>
-      <c r="T91" s="74">
-        <f t="shared" si="54"/>
-        <v>67992</v>
-      </c>
-      <c r="U91" s="74">
-        <f>U84+U89</f>
-        <v>74750</v>
-      </c>
-      <c r="V91" s="74">
-        <f>V84+V89</f>
-        <v>71654</v>
-      </c>
+      <c r="P91" s="73"/>
+      <c r="Q91" s="73"/>
+      <c r="R91" s="73"/>
+      <c r="S91" s="73"/>
+      <c r="T91" s="73"/>
+      <c r="U91" s="73"/>
+      <c r="V91" s="73"/>
       <c r="W91" s="73"/>
       <c r="X91" s="73"/>
       <c r="Y91" s="73"/>
@@ -7648,7 +7991,9 @@
       <c r="AQ91" s="3"/>
     </row>
     <row r="92" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B92" s="25"/>
+      <c r="B92" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="C92" s="73"/>
       <c r="D92" s="73"/>
       <c r="E92" s="73"/>
@@ -7662,13 +8007,27 @@
       <c r="M92" s="73"/>
       <c r="N92" s="73"/>
       <c r="O92" s="73"/>
-      <c r="P92" s="73"/>
-      <c r="Q92" s="73"/>
-      <c r="R92" s="73"/>
-      <c r="S92" s="73"/>
-      <c r="T92" s="73"/>
-      <c r="U92" s="73"/>
-      <c r="V92" s="73"/>
+      <c r="P92" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="73">
+        <v>0</v>
+      </c>
+      <c r="R92" s="73">
+        <v>0</v>
+      </c>
+      <c r="S92" s="73">
+        <v>0</v>
+      </c>
+      <c r="T92" s="73">
+        <v>0</v>
+      </c>
+      <c r="U92" s="73">
+        <v>0</v>
+      </c>
+      <c r="V92" s="73">
+        <v>0</v>
+      </c>
       <c r="W92" s="73"/>
       <c r="X92" s="73"/>
       <c r="Y92" s="73"/>
@@ -7709,25 +8068,25 @@
       <c r="N93" s="73"/>
       <c r="O93" s="73"/>
       <c r="P93" s="73">
-        <v>0</v>
+        <v>1939</v>
       </c>
       <c r="Q93" s="73">
-        <v>0</v>
+        <v>2019</v>
       </c>
       <c r="R93" s="73">
-        <v>0</v>
+        <v>2105</v>
       </c>
       <c r="S93" s="73">
-        <v>0</v>
+        <v>2225</v>
       </c>
       <c r="T93" s="73">
-        <v>0</v>
+        <v>2230</v>
       </c>
       <c r="U93" s="73">
-        <v>0</v>
+        <v>2285</v>
       </c>
       <c r="V93" s="73">
-        <v>0</v>
+        <v>2335</v>
       </c>
       <c r="W93" s="73"/>
       <c r="X93" s="73"/>
@@ -7769,25 +8128,25 @@
       <c r="N94" s="73"/>
       <c r="O94" s="73"/>
       <c r="P94" s="73">
-        <v>1939</v>
+        <v>31014</v>
       </c>
       <c r="Q94" s="73">
-        <v>2019</v>
+        <v>30987</v>
       </c>
       <c r="R94" s="73">
-        <v>2105</v>
+        <v>31638</v>
       </c>
       <c r="S94" s="73">
-        <v>2225</v>
+        <v>33082</v>
       </c>
       <c r="T94" s="73">
-        <v>2230</v>
+        <v>34289</v>
       </c>
       <c r="U94" s="73">
-        <v>2285</v>
+        <v>34090</v>
       </c>
       <c r="V94" s="73">
-        <v>2335</v>
+        <v>32869</v>
       </c>
       <c r="W94" s="73"/>
       <c r="X94" s="73"/>
@@ -7829,25 +8188,25 @@
       <c r="N95" s="73"/>
       <c r="O95" s="73"/>
       <c r="P95" s="73">
-        <v>31014</v>
+        <v>-10111</v>
       </c>
       <c r="Q95" s="73">
-        <v>30987</v>
+        <v>-9363</v>
       </c>
       <c r="R95" s="73">
-        <v>31638</v>
+        <v>-11181</v>
       </c>
       <c r="S95" s="73">
-        <v>33082</v>
+        <v>-9577</v>
       </c>
       <c r="T95" s="73">
-        <v>34289</v>
+        <v>-9559</v>
       </c>
       <c r="U95" s="73">
-        <v>34090</v>
+        <v>-11815</v>
       </c>
       <c r="V95" s="73">
-        <v>32869</v>
+        <v>-11314</v>
       </c>
       <c r="W95" s="73"/>
       <c r="X95" s="73"/>
@@ -7889,25 +8248,25 @@
       <c r="N96" s="73"/>
       <c r="O96" s="73"/>
       <c r="P96" s="73">
-        <v>-10111</v>
+        <v>-35301</v>
       </c>
       <c r="Q96" s="73">
-        <v>-9363</v>
+        <v>-35220</v>
       </c>
       <c r="R96" s="73">
-        <v>-11181</v>
+        <v>-35129</v>
       </c>
       <c r="S96" s="73">
-        <v>-9577</v>
+        <v>-35836</v>
       </c>
       <c r="T96" s="73">
-        <v>-9559</v>
+        <v>-35917</v>
       </c>
       <c r="U96" s="73">
-        <v>-11815</v>
+        <v>-35785</v>
       </c>
       <c r="V96" s="73">
-        <v>-11314</v>
+        <v>-35640</v>
       </c>
       <c r="W96" s="73"/>
       <c r="X96" s="73"/>
@@ -7949,25 +8308,25 @@
       <c r="N97" s="73"/>
       <c r="O97" s="73"/>
       <c r="P97" s="73">
-        <v>-35301</v>
+        <v>1720</v>
       </c>
       <c r="Q97" s="73">
-        <v>-35220</v>
+        <v>1978</v>
       </c>
       <c r="R97" s="73">
-        <v>-35129</v>
+        <v>1936</v>
       </c>
       <c r="S97" s="73">
-        <v>-35836</v>
+        <v>1898</v>
       </c>
       <c r="T97" s="73">
-        <v>-35917</v>
+        <v>2646</v>
       </c>
       <c r="U97" s="73">
-        <v>-35785</v>
+        <v>1779</v>
       </c>
       <c r="V97" s="73">
-        <v>-35640</v>
+        <v>1880</v>
       </c>
       <c r="W97" s="73"/>
       <c r="X97" s="73"/>
@@ -7992,7 +8351,7 @@
       <c r="AQ97" s="3"/>
     </row>
     <row r="98" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B98" s="25" t="s">
+      <c r="B98" s="26" t="s">
         <v>111</v>
       </c>
       <c r="C98" s="73"/>
@@ -8008,26 +8367,33 @@
       <c r="M98" s="73"/>
       <c r="N98" s="73"/>
       <c r="O98" s="73"/>
-      <c r="P98" s="73">
-        <v>1720</v>
-      </c>
-      <c r="Q98" s="73">
-        <v>1978</v>
-      </c>
-      <c r="R98" s="73">
-        <v>1936</v>
-      </c>
-      <c r="S98" s="73">
-        <v>1898</v>
-      </c>
-      <c r="T98" s="73">
-        <v>2646</v>
-      </c>
-      <c r="U98" s="73">
-        <v>1779</v>
-      </c>
-      <c r="V98" s="73">
-        <v>1880</v>
+      <c r="P98" s="74">
+        <f t="shared" ref="P98:T98" si="77">SUM(P92:P97)</f>
+        <v>-10739</v>
+      </c>
+      <c r="Q98" s="74">
+        <f t="shared" si="77"/>
+        <v>-9599</v>
+      </c>
+      <c r="R98" s="74">
+        <f t="shared" si="77"/>
+        <v>-10631</v>
+      </c>
+      <c r="S98" s="74">
+        <f t="shared" si="77"/>
+        <v>-8208</v>
+      </c>
+      <c r="T98" s="74">
+        <f t="shared" si="77"/>
+        <v>-6311</v>
+      </c>
+      <c r="U98" s="74">
+        <f>SUM(U92:U97)</f>
+        <v>-9446</v>
+      </c>
+      <c r="V98" s="74">
+        <f>SUM(V92:V97)</f>
+        <v>-9870</v>
       </c>
       <c r="W98" s="73"/>
       <c r="X98" s="73"/>
@@ -8052,9 +8418,7 @@
       <c r="AQ98" s="3"/>
     </row>
     <row r="99" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B99" s="26" t="s">
-        <v>112</v>
-      </c>
+      <c r="B99" s="25"/>
       <c r="C99" s="73"/>
       <c r="D99" s="73"/>
       <c r="E99" s="73"/>
@@ -8068,34 +8432,13 @@
       <c r="M99" s="73"/>
       <c r="N99" s="73"/>
       <c r="O99" s="73"/>
-      <c r="P99" s="74">
-        <f t="shared" ref="P99:T99" si="55">SUM(P93:P98)</f>
-        <v>-10739</v>
-      </c>
-      <c r="Q99" s="74">
-        <f t="shared" si="55"/>
-        <v>-9599</v>
-      </c>
-      <c r="R99" s="74">
-        <f t="shared" si="55"/>
-        <v>-10631</v>
-      </c>
-      <c r="S99" s="74">
-        <f t="shared" si="55"/>
-        <v>-8208</v>
-      </c>
-      <c r="T99" s="74">
-        <f t="shared" si="55"/>
-        <v>-6311</v>
-      </c>
-      <c r="U99" s="74">
-        <f>SUM(U93:U98)</f>
-        <v>-9446</v>
-      </c>
-      <c r="V99" s="74">
-        <f>SUM(V93:V98)</f>
-        <v>-9870</v>
-      </c>
+      <c r="P99" s="73"/>
+      <c r="Q99" s="73"/>
+      <c r="R99" s="73"/>
+      <c r="S99" s="73"/>
+      <c r="T99" s="73"/>
+      <c r="U99" s="73"/>
+      <c r="V99" s="73"/>
       <c r="W99" s="73"/>
       <c r="X99" s="73"/>
       <c r="Y99" s="73"/>
@@ -8119,7 +8462,9 @@
       <c r="AQ99" s="3"/>
     </row>
     <row r="100" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B100" s="25"/>
+      <c r="B100" s="26" t="s">
+        <v>112</v>
+      </c>
       <c r="C100" s="73"/>
       <c r="D100" s="73"/>
       <c r="E100" s="73"/>
@@ -8133,13 +8478,34 @@
       <c r="M100" s="73"/>
       <c r="N100" s="73"/>
       <c r="O100" s="73"/>
-      <c r="P100" s="73"/>
-      <c r="Q100" s="73"/>
-      <c r="R100" s="73"/>
-      <c r="S100" s="73"/>
-      <c r="T100" s="73"/>
-      <c r="U100" s="73"/>
-      <c r="V100" s="73"/>
+      <c r="P100" s="74">
+        <f t="shared" ref="P100:T100" si="78">P90+P98</f>
+        <v>39801</v>
+      </c>
+      <c r="Q100" s="74">
+        <f t="shared" si="78"/>
+        <v>42875</v>
+      </c>
+      <c r="R100" s="74">
+        <f t="shared" si="78"/>
+        <v>44815</v>
+      </c>
+      <c r="S100" s="74">
+        <f t="shared" si="78"/>
+        <v>41290</v>
+      </c>
+      <c r="T100" s="74">
+        <f t="shared" si="78"/>
+        <v>61681</v>
+      </c>
+      <c r="U100" s="74">
+        <f>U90+U98</f>
+        <v>65304</v>
+      </c>
+      <c r="V100" s="74">
+        <f>V90+V98</f>
+        <v>61784</v>
+      </c>
       <c r="W100" s="73"/>
       <c r="X100" s="73"/>
       <c r="Y100" s="73"/>
@@ -8163,9 +8529,7 @@
       <c r="AQ100" s="3"/>
     </row>
     <row r="101" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B101" s="26" t="s">
-        <v>113</v>
-      </c>
+      <c r="B101" s="25"/>
       <c r="C101" s="73"/>
       <c r="D101" s="73"/>
       <c r="E101" s="73"/>
@@ -8179,34 +8543,13 @@
       <c r="M101" s="73"/>
       <c r="N101" s="73"/>
       <c r="O101" s="73"/>
-      <c r="P101" s="74">
-        <f t="shared" ref="P101:T101" si="56">P91+P99</f>
-        <v>39801</v>
-      </c>
-      <c r="Q101" s="74">
-        <f t="shared" si="56"/>
-        <v>42875</v>
-      </c>
-      <c r="R101" s="74">
-        <f t="shared" si="56"/>
-        <v>44815</v>
-      </c>
-      <c r="S101" s="74">
-        <f t="shared" si="56"/>
-        <v>41290</v>
-      </c>
-      <c r="T101" s="74">
-        <f t="shared" si="56"/>
-        <v>61681</v>
-      </c>
-      <c r="U101" s="74">
-        <f>U91+U99</f>
-        <v>65304</v>
-      </c>
-      <c r="V101" s="74">
-        <f>V91+V99</f>
-        <v>61784</v>
-      </c>
+      <c r="P101" s="73"/>
+      <c r="Q101" s="73"/>
+      <c r="R101" s="73"/>
+      <c r="S101" s="73"/>
+      <c r="T101" s="73"/>
+      <c r="U101" s="73"/>
+      <c r="V101" s="73"/>
       <c r="W101" s="73"/>
       <c r="X101" s="73"/>
       <c r="Y101" s="73"/>
@@ -8274,7 +8617,12 @@
       <c r="AQ102" s="3"/>
     </row>
     <row r="103" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B103" s="25"/>
+      <c r="A103" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="C103" s="73"/>
       <c r="D103" s="73"/>
       <c r="E103" s="73"/>
@@ -8318,11 +8666,8 @@
       <c r="AQ103" s="3"/>
     </row>
     <row r="104" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>115</v>
+      <c r="B104" s="25" t="s">
+        <v>113</v>
       </c>
       <c r="C104" s="73"/>
       <c r="D104" s="73"/>
@@ -8337,13 +8682,34 @@
       <c r="M104" s="73"/>
       <c r="N104" s="73"/>
       <c r="O104" s="73"/>
-      <c r="P104" s="73"/>
-      <c r="Q104" s="73"/>
-      <c r="R104" s="73"/>
-      <c r="S104" s="73"/>
-      <c r="T104" s="73"/>
-      <c r="U104" s="73"/>
-      <c r="V104" s="73"/>
+      <c r="P104" s="73">
+        <f t="shared" ref="P104:V104" si="79">P32</f>
+        <v>8286</v>
+      </c>
+      <c r="Q104" s="73">
+        <f t="shared" si="79"/>
+        <v>7728</v>
+      </c>
+      <c r="R104" s="73">
+        <f t="shared" si="79"/>
+        <v>8592</v>
+      </c>
+      <c r="S104" s="73">
+        <f t="shared" si="79"/>
+        <v>9710</v>
+      </c>
+      <c r="T104" s="73">
+        <f t="shared" si="79"/>
+        <v>9527</v>
+      </c>
+      <c r="U104" s="73">
+        <f t="shared" si="79"/>
+        <v>8268</v>
+      </c>
+      <c r="V104" s="73">
+        <f t="shared" si="79"/>
+        <v>7503</v>
+      </c>
       <c r="W104" s="73"/>
       <c r="X104" s="73"/>
       <c r="Y104" s="73"/>
@@ -8368,7 +8734,7 @@
     </row>
     <row r="105" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B105" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C105" s="73"/>
       <c r="D105" s="73"/>
@@ -8384,32 +8750,25 @@
       <c r="N105" s="73"/>
       <c r="O105" s="73"/>
       <c r="P105" s="73">
-        <f>P32</f>
-        <v>8286</v>
+        <v>989</v>
       </c>
       <c r="Q105" s="73">
-        <f>Q32</f>
-        <v>7728</v>
+        <v>964</v>
       </c>
       <c r="R105" s="73">
-        <f>R32</f>
-        <v>8592</v>
+        <v>981</v>
       </c>
       <c r="S105" s="73">
-        <f>S32</f>
-        <v>9710</v>
+        <v>998</v>
       </c>
       <c r="T105" s="73">
-        <f>T32</f>
-        <v>9527</v>
+        <v>1077</v>
       </c>
       <c r="U105" s="73">
-        <f>U32</f>
-        <v>8268</v>
+        <v>1398</v>
       </c>
       <c r="V105" s="73">
-        <f>V32</f>
-        <v>7503</v>
+        <v>1787</v>
       </c>
       <c r="W105" s="73"/>
       <c r="X105" s="73"/>
@@ -8451,25 +8810,26 @@
       <c r="N106" s="73"/>
       <c r="O106" s="73"/>
       <c r="P106" s="73">
-        <v>989</v>
+        <v>0</v>
       </c>
       <c r="Q106" s="73">
-        <v>964</v>
+        <v>0</v>
       </c>
       <c r="R106" s="73">
-        <v>981</v>
+        <v>0</v>
       </c>
       <c r="S106" s="73">
-        <v>998</v>
+        <v>0</v>
       </c>
       <c r="T106" s="73">
-        <v>1077</v>
+        <v>112</v>
       </c>
       <c r="U106" s="73">
-        <v>1398</v>
+        <v>680</v>
       </c>
       <c r="V106" s="73">
-        <v>1787</v>
+        <f>27+206+2316</f>
+        <v>2549</v>
       </c>
       <c r="W106" s="73"/>
       <c r="X106" s="73"/>
@@ -8495,7 +8855,7 @@
     </row>
     <row r="107" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B107" s="25" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C107" s="73"/>
       <c r="D107" s="73"/>
@@ -8511,26 +8871,25 @@
       <c r="N107" s="73"/>
       <c r="O107" s="73"/>
       <c r="P107" s="73">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q107" s="73">
-        <v>0</v>
+        <v>-141</v>
       </c>
       <c r="R107" s="73">
-        <v>0</v>
+        <v>-143</v>
       </c>
       <c r="S107" s="73">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="T107" s="73">
-        <v>112</v>
+        <v>-234</v>
       </c>
       <c r="U107" s="73">
-        <v>680</v>
+        <v>-330</v>
       </c>
       <c r="V107" s="73">
-        <f>27+206+2316</f>
-        <v>2549</v>
+        <v>-123</v>
       </c>
       <c r="W107" s="73"/>
       <c r="X107" s="73"/>
@@ -8556,7 +8915,7 @@
     </row>
     <row r="108" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B108" s="25" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C108" s="73"/>
       <c r="D108" s="73"/>
@@ -8572,25 +8931,25 @@
       <c r="N108" s="73"/>
       <c r="O108" s="73"/>
       <c r="P108" s="73">
-        <v>-100</v>
+        <v>-3</v>
       </c>
       <c r="Q108" s="73">
-        <v>-141</v>
+        <v>371</v>
       </c>
       <c r="R108" s="73">
-        <v>-143</v>
+        <v>-14</v>
       </c>
       <c r="S108" s="73">
-        <v>-17</v>
+        <v>-22</v>
       </c>
       <c r="T108" s="73">
-        <v>-234</v>
+        <v>-93</v>
       </c>
       <c r="U108" s="73">
-        <v>-330</v>
+        <v>30</v>
       </c>
       <c r="V108" s="73">
-        <v>-123</v>
+        <v>122</v>
       </c>
       <c r="W108" s="73"/>
       <c r="X108" s="73"/>
@@ -8615,8 +8974,8 @@
       <c r="AQ108" s="3"/>
     </row>
     <row r="109" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B109" s="25" t="s">
-        <v>118</v>
+      <c r="B109" s="27" t="s">
+        <v>119</v>
       </c>
       <c r="C109" s="73"/>
       <c r="D109" s="73"/>
@@ -8631,27 +8990,13 @@
       <c r="M109" s="73"/>
       <c r="N109" s="73"/>
       <c r="O109" s="73"/>
-      <c r="P109" s="73">
-        <v>-3</v>
-      </c>
-      <c r="Q109" s="73">
-        <v>371</v>
-      </c>
-      <c r="R109" s="73">
-        <v>-14</v>
-      </c>
-      <c r="S109" s="73">
-        <v>-22</v>
-      </c>
-      <c r="T109" s="73">
-        <v>-93</v>
-      </c>
-      <c r="U109" s="73">
-        <v>30</v>
-      </c>
-      <c r="V109" s="73">
-        <v>122</v>
-      </c>
+      <c r="P109" s="73"/>
+      <c r="Q109" s="73"/>
+      <c r="R109" s="73"/>
+      <c r="S109" s="73"/>
+      <c r="T109" s="73"/>
+      <c r="U109" s="73"/>
+      <c r="V109" s="73"/>
       <c r="W109" s="73"/>
       <c r="X109" s="73"/>
       <c r="Y109" s="73"/>
@@ -8675,8 +9020,8 @@
       <c r="AQ109" s="3"/>
     </row>
     <row r="110" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B110" s="27" t="s">
-        <v>120</v>
+      <c r="B110" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="C110" s="73"/>
       <c r="D110" s="73"/>
@@ -8691,13 +9036,27 @@
       <c r="M110" s="73"/>
       <c r="N110" s="73"/>
       <c r="O110" s="73"/>
-      <c r="P110" s="73"/>
-      <c r="Q110" s="73"/>
-      <c r="R110" s="73"/>
-      <c r="S110" s="73"/>
-      <c r="T110" s="73"/>
-      <c r="U110" s="73"/>
-      <c r="V110" s="73"/>
+      <c r="P110" s="73">
+        <v>53</v>
+      </c>
+      <c r="Q110" s="73">
+        <v>-331</v>
+      </c>
+      <c r="R110" s="73">
+        <v>26</v>
+      </c>
+      <c r="S110" s="73">
+        <v>-198</v>
+      </c>
+      <c r="T110" s="73">
+        <v>-871</v>
+      </c>
+      <c r="U110" s="73">
+        <v>314</v>
+      </c>
+      <c r="V110" s="73">
+        <v>-738</v>
+      </c>
       <c r="W110" s="73"/>
       <c r="X110" s="73"/>
       <c r="Y110" s="73"/>
@@ -8722,7 +9081,7 @@
     </row>
     <row r="111" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B111" s="25" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="C111" s="73"/>
       <c r="D111" s="73"/>
@@ -8738,25 +9097,25 @@
       <c r="N111" s="73"/>
       <c r="O111" s="73"/>
       <c r="P111" s="73">
-        <v>53</v>
+        <v>-613</v>
       </c>
       <c r="Q111" s="73">
-        <v>-331</v>
+        <v>-548</v>
       </c>
       <c r="R111" s="73">
-        <v>26</v>
+        <v>-165</v>
       </c>
       <c r="S111" s="73">
-        <v>-198</v>
+        <v>549</v>
       </c>
       <c r="T111" s="73">
-        <v>-871</v>
+        <v>-1287</v>
       </c>
       <c r="U111" s="73">
-        <v>314</v>
+        <v>-862</v>
       </c>
       <c r="V111" s="73">
-        <v>-738</v>
+        <v>552</v>
       </c>
       <c r="W111" s="73"/>
       <c r="X111" s="73"/>
@@ -8782,7 +9141,7 @@
     </row>
     <row r="112" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B112" s="25" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C112" s="73"/>
       <c r="D112" s="73"/>
@@ -8798,25 +9157,25 @@
       <c r="N112" s="73"/>
       <c r="O112" s="73"/>
       <c r="P112" s="73">
-        <v>-613</v>
+        <v>-51</v>
       </c>
       <c r="Q112" s="73">
-        <v>-548</v>
+        <v>451</v>
       </c>
       <c r="R112" s="73">
-        <v>-165</v>
+        <v>406</v>
       </c>
       <c r="S112" s="73">
-        <v>549</v>
+        <v>653</v>
       </c>
       <c r="T112" s="73">
-        <v>-1287</v>
+        <v>719</v>
       </c>
       <c r="U112" s="73">
-        <v>-862</v>
+        <v>-288</v>
       </c>
       <c r="V112" s="73">
-        <v>552</v>
+        <v>297</v>
       </c>
       <c r="W112" s="73"/>
       <c r="X112" s="73"/>
@@ -8858,25 +9217,25 @@
       <c r="N113" s="73"/>
       <c r="O113" s="73"/>
       <c r="P113" s="73">
-        <v>-51</v>
+        <v>910</v>
       </c>
       <c r="Q113" s="73">
-        <v>451</v>
+        <v>1108</v>
       </c>
       <c r="R113" s="73">
-        <v>406</v>
+        <v>121</v>
       </c>
       <c r="S113" s="73">
-        <v>653</v>
+        <v>623</v>
       </c>
       <c r="T113" s="73">
-        <v>719</v>
+        <v>1862</v>
       </c>
       <c r="U113" s="73">
-        <v>-288</v>
+        <v>-232</v>
       </c>
       <c r="V113" s="73">
-        <v>297</v>
+        <v>628</v>
       </c>
       <c r="W113" s="73"/>
       <c r="X113" s="73"/>
@@ -8902,7 +9261,7 @@
     </row>
     <row r="114" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B114" s="25" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C114" s="73"/>
       <c r="D114" s="73"/>
@@ -8918,25 +9277,25 @@
       <c r="N114" s="73"/>
       <c r="O114" s="73"/>
       <c r="P114" s="73">
-        <v>910</v>
+        <v>-135</v>
       </c>
       <c r="Q114" s="73">
-        <v>1108</v>
+        <v>75</v>
       </c>
       <c r="R114" s="73">
-        <v>121</v>
+        <v>-260</v>
       </c>
       <c r="S114" s="73">
-        <v>623</v>
+        <v>-260</v>
       </c>
       <c r="T114" s="73">
-        <v>1862</v>
+        <v>-261</v>
       </c>
       <c r="U114" s="73">
         <v>-232</v>
       </c>
       <c r="V114" s="73">
-        <v>628</v>
+        <v>-62</v>
       </c>
       <c r="W114" s="73"/>
       <c r="X114" s="73"/>
@@ -8962,7 +9321,7 @@
     </row>
     <row r="115" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B115" s="25" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C115" s="73"/>
       <c r="D115" s="73"/>
@@ -8978,25 +9337,25 @@
       <c r="N115" s="73"/>
       <c r="O115" s="73"/>
       <c r="P115" s="73">
-        <v>-135</v>
+        <v>-110</v>
       </c>
       <c r="Q115" s="73">
-        <v>75</v>
+        <v>-200</v>
       </c>
       <c r="R115" s="73">
-        <v>-260</v>
+        <v>-102</v>
       </c>
       <c r="S115" s="73">
-        <v>-260</v>
+        <v>-269</v>
       </c>
       <c r="T115" s="73">
-        <v>-261</v>
+        <v>3</v>
       </c>
       <c r="U115" s="73">
-        <v>-232</v>
+        <v>-21</v>
       </c>
       <c r="V115" s="73">
-        <v>-62</v>
+        <v>-110</v>
       </c>
       <c r="W115" s="73"/>
       <c r="X115" s="73"/>
@@ -9022,7 +9381,7 @@
     </row>
     <row r="116" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B116" s="25" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C116" s="73"/>
       <c r="D116" s="73"/>
@@ -9038,25 +9397,25 @@
       <c r="N116" s="73"/>
       <c r="O116" s="73"/>
       <c r="P116" s="73">
-        <v>-110</v>
+        <v>252</v>
       </c>
       <c r="Q116" s="73">
-        <v>-200</v>
+        <v>613</v>
       </c>
       <c r="R116" s="73">
-        <v>-102</v>
+        <v>370</v>
       </c>
       <c r="S116" s="73">
-        <v>-269</v>
+        <v>200</v>
       </c>
       <c r="T116" s="73">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="U116" s="73">
-        <v>-21</v>
+        <v>479</v>
       </c>
       <c r="V116" s="73">
-        <v>-110</v>
+        <v>-188</v>
       </c>
       <c r="W116" s="73"/>
       <c r="X116" s="73"/>
@@ -9082,7 +9441,7 @@
     </row>
     <row r="117" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B117" s="25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C117" s="73"/>
       <c r="D117" s="73"/>
@@ -9098,25 +9457,32 @@
       <c r="N117" s="73"/>
       <c r="O117" s="73"/>
       <c r="P117" s="73">
-        <v>252</v>
+        <f t="shared" ref="P117:T117" si="80">SUM(P110:P116)</f>
+        <v>306</v>
       </c>
       <c r="Q117" s="73">
-        <v>613</v>
+        <f t="shared" si="80"/>
+        <v>1168</v>
       </c>
       <c r="R117" s="73">
-        <v>370</v>
+        <f t="shared" si="80"/>
+        <v>396</v>
       </c>
       <c r="S117" s="73">
-        <v>200</v>
+        <f t="shared" si="80"/>
+        <v>1298</v>
       </c>
       <c r="T117" s="73">
-        <v>249</v>
+        <f t="shared" si="80"/>
+        <v>414</v>
       </c>
       <c r="U117" s="73">
-        <v>479</v>
+        <f>SUM(U110:U116)</f>
+        <v>-842</v>
       </c>
       <c r="V117" s="73">
-        <v>-188</v>
+        <f>SUM(V110:V116)</f>
+        <v>379</v>
       </c>
       <c r="W117" s="73"/>
       <c r="X117" s="73"/>
@@ -9141,8 +9507,8 @@
       <c r="AQ117" s="3"/>
     </row>
     <row r="118" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B118" s="25" t="s">
-        <v>100</v>
+      <c r="B118" s="26" t="s">
+        <v>120</v>
       </c>
       <c r="C118" s="73"/>
       <c r="D118" s="73"/>
@@ -9157,33 +9523,33 @@
       <c r="M118" s="73"/>
       <c r="N118" s="73"/>
       <c r="O118" s="73"/>
-      <c r="P118" s="73">
-        <f t="shared" ref="P118:T118" si="57">SUM(P111:P117)</f>
-        <v>306</v>
-      </c>
-      <c r="Q118" s="73">
-        <f t="shared" si="57"/>
-        <v>1168</v>
-      </c>
-      <c r="R118" s="73">
-        <f t="shared" si="57"/>
-        <v>396</v>
-      </c>
-      <c r="S118" s="73">
-        <f t="shared" si="57"/>
-        <v>1298</v>
-      </c>
-      <c r="T118" s="73">
-        <f t="shared" si="57"/>
-        <v>414</v>
-      </c>
-      <c r="U118" s="73">
-        <f>SUM(U111:U117)</f>
-        <v>-842</v>
-      </c>
-      <c r="V118" s="73">
-        <f>SUM(V111:V117)</f>
-        <v>379</v>
+      <c r="P118" s="74">
+        <f t="shared" ref="P118:T118" si="81">SUM(P104:P108,P117)</f>
+        <v>9478</v>
+      </c>
+      <c r="Q118" s="74">
+        <f t="shared" si="81"/>
+        <v>10090</v>
+      </c>
+      <c r="R118" s="74">
+        <f t="shared" si="81"/>
+        <v>9812</v>
+      </c>
+      <c r="S118" s="74">
+        <f t="shared" si="81"/>
+        <v>11967</v>
+      </c>
+      <c r="T118" s="74">
+        <f t="shared" si="81"/>
+        <v>10803</v>
+      </c>
+      <c r="U118" s="74">
+        <f>SUM(U104:U108,U117)</f>
+        <v>9204</v>
+      </c>
+      <c r="V118" s="74">
+        <f>SUM(V104:V108,V117)</f>
+        <v>12217</v>
       </c>
       <c r="W118" s="73"/>
       <c r="X118" s="73"/>
@@ -9208,8 +9574,8 @@
       <c r="AQ118" s="3"/>
     </row>
     <row r="119" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B119" s="26" t="s">
-        <v>121</v>
+      <c r="B119" s="25" t="s">
+        <v>122</v>
       </c>
       <c r="C119" s="73"/>
       <c r="D119" s="73"/>
@@ -9224,33 +9590,26 @@
       <c r="M119" s="73"/>
       <c r="N119" s="73"/>
       <c r="O119" s="73"/>
-      <c r="P119" s="74">
-        <f t="shared" ref="P119:T119" si="58">SUM(P105:P109,P118)</f>
-        <v>9478</v>
-      </c>
-      <c r="Q119" s="74">
-        <f t="shared" si="58"/>
-        <v>10090</v>
-      </c>
-      <c r="R119" s="74">
-        <f t="shared" si="58"/>
-        <v>9812</v>
-      </c>
-      <c r="S119" s="74">
-        <f t="shared" si="58"/>
-        <v>11967</v>
-      </c>
-      <c r="T119" s="74">
-        <f t="shared" si="58"/>
-        <v>10803</v>
-      </c>
-      <c r="U119" s="74">
-        <f>SUM(U105:U109,U118)</f>
-        <v>9204</v>
-      </c>
-      <c r="V119" s="74">
-        <f>SUM(V105:V109,V118)</f>
-        <v>12217</v>
+      <c r="P119" s="73">
+        <v>-1436</v>
+      </c>
+      <c r="Q119" s="73">
+        <v>-852</v>
+      </c>
+      <c r="R119" s="73">
+        <v>-602</v>
+      </c>
+      <c r="S119" s="73">
+        <v>-748</v>
+      </c>
+      <c r="T119" s="73">
+        <v>-1077</v>
+      </c>
+      <c r="U119" s="73">
+        <v>-1321</v>
+      </c>
+      <c r="V119" s="73">
+        <v>-1444</v>
       </c>
       <c r="W119" s="73"/>
       <c r="X119" s="73"/>
@@ -9276,7 +9635,7 @@
     </row>
     <row r="120" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B120" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C120" s="73"/>
       <c r="D120" s="73"/>
@@ -9292,25 +9651,25 @@
       <c r="N120" s="73"/>
       <c r="O120" s="73"/>
       <c r="P120" s="73">
-        <v>-1436</v>
+        <v>0</v>
       </c>
       <c r="Q120" s="73">
-        <v>-852</v>
+        <v>0</v>
       </c>
       <c r="R120" s="73">
-        <v>-602</v>
+        <v>0</v>
       </c>
       <c r="S120" s="73">
-        <v>-748</v>
+        <v>0</v>
       </c>
       <c r="T120" s="73">
-        <v>-1077</v>
+        <v>-13976</v>
       </c>
       <c r="U120" s="73">
-        <v>-1321</v>
+        <v>0</v>
       </c>
       <c r="V120" s="73">
-        <v>-1444</v>
+        <v>0</v>
       </c>
       <c r="W120" s="73"/>
       <c r="X120" s="73"/>
@@ -9336,7 +9695,7 @@
     </row>
     <row r="121" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B121" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C121" s="73"/>
       <c r="D121" s="73"/>
@@ -9361,16 +9720,16 @@
         <v>0</v>
       </c>
       <c r="S121" s="73">
+        <v>-2111</v>
+      </c>
+      <c r="T121" s="73">
         <v>0</v>
-      </c>
-      <c r="T121" s="73">
-        <v>-13976</v>
       </c>
       <c r="U121" s="73">
         <v>0</v>
       </c>
       <c r="V121" s="73">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="W121" s="73"/>
       <c r="X121" s="73"/>
@@ -9396,7 +9755,7 @@
     </row>
     <row r="122" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B122" s="25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C122" s="73"/>
       <c r="D122" s="73"/>
@@ -9421,16 +9780,16 @@
         <v>0</v>
       </c>
       <c r="S122" s="73">
-        <v>-2111</v>
+        <v>0</v>
       </c>
       <c r="T122" s="73">
+        <v>-1002</v>
+      </c>
+      <c r="U122" s="73">
+        <v>-1775</v>
+      </c>
+      <c r="V122" s="73">
         <v>0</v>
-      </c>
-      <c r="U122" s="73">
-        <v>0</v>
-      </c>
-      <c r="V122" s="73">
-        <v>43</v>
       </c>
       <c r="W122" s="73"/>
       <c r="X122" s="73"/>
@@ -9456,7 +9815,7 @@
     </row>
     <row r="123" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B123" s="25" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C123" s="73"/>
       <c r="D123" s="73"/>
@@ -9472,25 +9831,25 @@
       <c r="N123" s="73"/>
       <c r="O123" s="73"/>
       <c r="P123" s="73">
-        <v>0</v>
+        <v>-63</v>
       </c>
       <c r="Q123" s="73">
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="R123" s="73">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="S123" s="73">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="T123" s="73">
-        <v>-1002</v>
+        <v>-20</v>
       </c>
       <c r="U123" s="73">
-        <v>-1775</v>
+        <v>-111</v>
       </c>
       <c r="V123" s="73">
-        <v>0</v>
+        <v>-124</v>
       </c>
       <c r="W123" s="73"/>
       <c r="X123" s="73"/>
@@ -9516,7 +9875,7 @@
     </row>
     <row r="124" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B124" s="25" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C124" s="73"/>
       <c r="D124" s="73"/>
@@ -9532,25 +9891,25 @@
       <c r="N124" s="73"/>
       <c r="O124" s="73"/>
       <c r="P124" s="73">
-        <v>-63</v>
+        <v>416</v>
       </c>
       <c r="Q124" s="73">
-        <v>-31</v>
+        <v>386</v>
       </c>
       <c r="R124" s="73">
-        <v>-47</v>
+        <v>-551</v>
       </c>
       <c r="S124" s="73">
-        <v>-34</v>
+        <v>466</v>
       </c>
       <c r="T124" s="73">
-        <v>-20</v>
+        <v>284</v>
       </c>
       <c r="U124" s="73">
-        <v>-111</v>
+        <v>-660</v>
       </c>
       <c r="V124" s="73">
-        <v>-124</v>
+        <v>351</v>
       </c>
       <c r="W124" s="73"/>
       <c r="X124" s="73"/>
@@ -9576,7 +9935,7 @@
     </row>
     <row r="125" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B125" s="25" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="C125" s="73"/>
       <c r="D125" s="73"/>
@@ -9592,25 +9951,27 @@
       <c r="N125" s="73"/>
       <c r="O125" s="73"/>
       <c r="P125" s="73">
-        <v>416</v>
+        <v>85</v>
       </c>
       <c r="Q125" s="73">
-        <v>386</v>
+        <f>32-1346</f>
+        <v>-1314</v>
       </c>
       <c r="R125" s="73">
-        <v>-551</v>
+        <v>46</v>
       </c>
       <c r="S125" s="73">
-        <v>466</v>
+        <v>69</v>
       </c>
       <c r="T125" s="73">
-        <v>284</v>
+        <v>112</v>
       </c>
       <c r="U125" s="73">
-        <v>-660</v>
+        <v>269</v>
       </c>
       <c r="V125" s="73">
-        <v>351</v>
+        <f>-54+136</f>
+        <v>82</v>
       </c>
       <c r="W125" s="73"/>
       <c r="X125" s="73"/>
@@ -9635,8 +9996,8 @@
       <c r="AQ125" s="3"/>
     </row>
     <row r="126" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B126" s="25" t="s">
-        <v>97</v>
+      <c r="B126" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="C126" s="73"/>
       <c r="D126" s="73"/>
@@ -9651,28 +10012,33 @@
       <c r="M126" s="73"/>
       <c r="N126" s="73"/>
       <c r="O126" s="73"/>
-      <c r="P126" s="73">
-        <v>85</v>
-      </c>
-      <c r="Q126" s="73">
-        <f>32-1346</f>
-        <v>-1314</v>
-      </c>
-      <c r="R126" s="73">
-        <v>46</v>
-      </c>
-      <c r="S126" s="73">
-        <v>69</v>
-      </c>
-      <c r="T126" s="73">
-        <v>112</v>
-      </c>
-      <c r="U126" s="73">
-        <v>269</v>
-      </c>
-      <c r="V126" s="73">
-        <f>-54+136</f>
-        <v>82</v>
+      <c r="P126" s="74">
+        <f t="shared" ref="P126:T126" si="82">SUM(P119:P125)</f>
+        <v>-998</v>
+      </c>
+      <c r="Q126" s="74">
+        <f t="shared" si="82"/>
+        <v>-1811</v>
+      </c>
+      <c r="R126" s="74">
+        <f t="shared" si="82"/>
+        <v>-1154</v>
+      </c>
+      <c r="S126" s="74">
+        <f t="shared" si="82"/>
+        <v>-2358</v>
+      </c>
+      <c r="T126" s="74">
+        <f t="shared" si="82"/>
+        <v>-15679</v>
+      </c>
+      <c r="U126" s="74">
+        <f>SUM(U119:U125)</f>
+        <v>-3598</v>
+      </c>
+      <c r="V126" s="74">
+        <f>SUM(V119:V125)</f>
+        <v>-1092</v>
       </c>
       <c r="W126" s="73"/>
       <c r="X126" s="73"/>
@@ -9697,8 +10063,8 @@
       <c r="AQ126" s="3"/>
     </row>
     <row r="127" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B127" s="26" t="s">
-        <v>128</v>
+      <c r="B127" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="C127" s="73"/>
       <c r="D127" s="73"/>
@@ -9713,33 +10079,26 @@
       <c r="M127" s="73"/>
       <c r="N127" s="73"/>
       <c r="O127" s="73"/>
-      <c r="P127" s="74">
-        <f t="shared" ref="P127:T127" si="59">SUM(P120:P126)</f>
-        <v>-998</v>
-      </c>
-      <c r="Q127" s="74">
-        <f t="shared" si="59"/>
-        <v>-1811</v>
-      </c>
-      <c r="R127" s="74">
-        <f t="shared" si="59"/>
-        <v>-1154</v>
-      </c>
-      <c r="S127" s="74">
-        <f t="shared" si="59"/>
-        <v>-2358</v>
-      </c>
-      <c r="T127" s="74">
-        <f t="shared" si="59"/>
-        <v>-15679</v>
-      </c>
-      <c r="U127" s="74">
-        <f>SUM(U120:U126)</f>
-        <v>-3598</v>
-      </c>
-      <c r="V127" s="74">
-        <f>SUM(V120:V126)</f>
-        <v>-1092</v>
+      <c r="P127" s="73">
+        <v>255</v>
+      </c>
+      <c r="Q127" s="73">
+        <v>-364</v>
+      </c>
+      <c r="R127" s="73">
+        <v>-70</v>
+      </c>
+      <c r="S127" s="73">
+        <v>0</v>
+      </c>
+      <c r="T127" s="73">
+        <v>876</v>
+      </c>
+      <c r="U127" s="73">
+        <v>530</v>
+      </c>
+      <c r="V127" s="73">
+        <v>-1461</v>
       </c>
       <c r="W127" s="73"/>
       <c r="X127" s="73"/>
@@ -9765,7 +10124,7 @@
     </row>
     <row r="128" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B128" s="25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C128" s="73"/>
       <c r="D128" s="73"/>
@@ -9781,25 +10140,25 @@
       <c r="N128" s="73"/>
       <c r="O128" s="73"/>
       <c r="P128" s="73">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="Q128" s="73">
-        <v>-364</v>
+        <v>989</v>
       </c>
       <c r="R128" s="73">
-        <v>-70</v>
+        <v>45</v>
       </c>
       <c r="S128" s="73">
         <v>0</v>
       </c>
       <c r="T128" s="73">
-        <v>876</v>
+        <v>934</v>
       </c>
       <c r="U128" s="73">
-        <v>530</v>
+        <v>1366</v>
       </c>
       <c r="V128" s="73">
-        <v>-1461</v>
+        <v>100</v>
       </c>
       <c r="W128" s="73"/>
       <c r="X128" s="73"/>
@@ -9825,7 +10184,7 @@
     </row>
     <row r="129" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B129" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C129" s="73"/>
       <c r="D129" s="73"/>
@@ -9844,22 +10203,22 @@
         <v>0</v>
       </c>
       <c r="Q129" s="73">
-        <v>989</v>
+        <v>-989</v>
       </c>
       <c r="R129" s="73">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="S129" s="73">
         <v>0</v>
       </c>
       <c r="T129" s="73">
-        <v>934</v>
+        <v>-795</v>
       </c>
       <c r="U129" s="73">
-        <v>1366</v>
+        <v>-1172</v>
       </c>
       <c r="V129" s="73">
-        <v>100</v>
+        <v>-433</v>
       </c>
       <c r="W129" s="73"/>
       <c r="X129" s="73"/>
@@ -9885,7 +10244,7 @@
     </row>
     <row r="130" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B130" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C130" s="73"/>
       <c r="D130" s="73"/>
@@ -9904,22 +10263,22 @@
         <v>0</v>
       </c>
       <c r="Q130" s="73">
-        <v>-989</v>
+        <v>0</v>
       </c>
       <c r="R130" s="73">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="S130" s="73">
         <v>0</v>
       </c>
       <c r="T130" s="73">
-        <v>-795</v>
+        <v>13920</v>
       </c>
       <c r="U130" s="73">
-        <v>-1172</v>
+        <v>0</v>
       </c>
       <c r="V130" s="73">
-        <v>-433</v>
+        <v>0</v>
       </c>
       <c r="W130" s="73"/>
       <c r="X130" s="73"/>
@@ -9973,13 +10332,13 @@
         <v>0</v>
       </c>
       <c r="T131" s="73">
-        <v>13920</v>
+        <v>-4000</v>
       </c>
       <c r="U131" s="73">
-        <v>0</v>
+        <v>-4430</v>
       </c>
       <c r="V131" s="73">
-        <v>0</v>
+        <v>-3168</v>
       </c>
       <c r="W131" s="73"/>
       <c r="X131" s="73"/>
@@ -10005,7 +10364,7 @@
     </row>
     <row r="132" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B132" s="25" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C132" s="73"/>
       <c r="D132" s="73"/>
@@ -10024,22 +10383,22 @@
         <v>0</v>
       </c>
       <c r="Q132" s="73">
-        <v>0</v>
+        <v>3819</v>
       </c>
       <c r="R132" s="73">
-        <v>0</v>
+        <v>3713</v>
       </c>
       <c r="S132" s="73">
         <v>0</v>
       </c>
       <c r="T132" s="73">
-        <v>-4000</v>
+        <v>5965</v>
       </c>
       <c r="U132" s="73">
-        <v>-4430</v>
+        <v>9959</v>
       </c>
       <c r="V132" s="73">
-        <v>-3168</v>
+        <v>8142</v>
       </c>
       <c r="W132" s="73"/>
       <c r="X132" s="73"/>
@@ -10065,7 +10424,7 @@
     </row>
     <row r="133" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B133" s="25" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C133" s="73"/>
       <c r="D133" s="73"/>
@@ -10081,25 +10440,25 @@
       <c r="N133" s="73"/>
       <c r="O133" s="73"/>
       <c r="P133" s="73">
-        <v>0</v>
+        <v>-2484</v>
       </c>
       <c r="Q133" s="73">
-        <v>3819</v>
+        <v>-3998</v>
       </c>
       <c r="R133" s="73">
-        <v>3713</v>
+        <v>-3999</v>
       </c>
       <c r="S133" s="73">
-        <v>0</v>
+        <v>-3042</v>
       </c>
       <c r="T133" s="73">
-        <v>5965</v>
+        <v>-2724</v>
       </c>
       <c r="U133" s="73">
-        <v>9959</v>
+        <v>-2551</v>
       </c>
       <c r="V133" s="73">
-        <v>8142</v>
+        <v>-4803</v>
       </c>
       <c r="W133" s="73"/>
       <c r="X133" s="73"/>
@@ -10141,25 +10500,25 @@
       <c r="N134" s="73"/>
       <c r="O134" s="73"/>
       <c r="P134" s="73">
-        <v>-2484</v>
+        <v>0</v>
       </c>
       <c r="Q134" s="73">
-        <v>-3998</v>
+        <v>0</v>
       </c>
       <c r="R134" s="73">
-        <v>-3999</v>
+        <v>0</v>
       </c>
       <c r="S134" s="73">
-        <v>-3042</v>
+        <v>-775</v>
       </c>
       <c r="T134" s="73">
-        <v>-2724</v>
+        <v>-209</v>
       </c>
       <c r="U134" s="73">
-        <v>-2551</v>
+        <v>0</v>
       </c>
       <c r="V134" s="73">
-        <v>-4803</v>
+        <v>0</v>
       </c>
       <c r="W134" s="73"/>
       <c r="X134" s="73"/>
@@ -10201,25 +10560,25 @@
       <c r="N135" s="73"/>
       <c r="O135" s="73"/>
       <c r="P135" s="73">
-        <v>0</v>
+        <v>-6885</v>
       </c>
       <c r="Q135" s="73">
-        <v>0</v>
+        <v>-7161</v>
       </c>
       <c r="R135" s="73">
-        <v>0</v>
+        <v>-7364</v>
       </c>
       <c r="S135" s="73">
-        <v>-775</v>
+        <v>-7580</v>
       </c>
       <c r="T135" s="73">
-        <v>-209</v>
+        <v>-7812</v>
       </c>
       <c r="U135" s="73">
-        <v>0</v>
+        <v>-7964</v>
       </c>
       <c r="V135" s="73">
-        <v>0</v>
+        <v>-8197</v>
       </c>
       <c r="W135" s="73"/>
       <c r="X135" s="73"/>
@@ -10261,25 +10620,25 @@
       <c r="N136" s="73"/>
       <c r="O136" s="73"/>
       <c r="P136" s="73">
-        <v>-6885</v>
+        <v>0</v>
       </c>
       <c r="Q136" s="73">
-        <v>-7161</v>
+        <v>0</v>
       </c>
       <c r="R136" s="73">
-        <v>-7364</v>
+        <v>0</v>
       </c>
       <c r="S136" s="73">
-        <v>-7580</v>
+        <v>0</v>
       </c>
       <c r="T136" s="73">
-        <v>-7812</v>
+        <v>-1495</v>
       </c>
       <c r="U136" s="73">
-        <v>-7964</v>
+        <v>-883</v>
       </c>
       <c r="V136" s="73">
-        <v>-8197</v>
+        <v>0</v>
       </c>
       <c r="W136" s="73"/>
       <c r="X136" s="73"/>
@@ -10321,25 +10680,25 @@
       <c r="N137" s="73"/>
       <c r="O137" s="73"/>
       <c r="P137" s="73">
-        <v>0</v>
+        <v>-81</v>
       </c>
       <c r="Q137" s="73">
-        <v>0</v>
+        <v>-357</v>
       </c>
       <c r="R137" s="73">
-        <v>0</v>
+        <v>-776</v>
       </c>
       <c r="S137" s="73">
-        <v>0</v>
+        <v>-580</v>
       </c>
       <c r="T137" s="73">
-        <v>-1495</v>
+        <v>-854</v>
       </c>
       <c r="U137" s="73">
-        <v>-883</v>
+        <v>-437</v>
       </c>
       <c r="V137" s="73">
-        <v>0</v>
+        <v>-489</v>
       </c>
       <c r="W137" s="73"/>
       <c r="X137" s="73"/>
@@ -10365,7 +10724,7 @@
     </row>
     <row r="138" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B138" s="25" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="C138" s="73"/>
       <c r="D138" s="73"/>
@@ -10381,25 +10740,25 @@
       <c r="N138" s="73"/>
       <c r="O138" s="73"/>
       <c r="P138" s="73">
-        <v>-81</v>
+        <v>-456</v>
       </c>
       <c r="Q138" s="73">
-        <v>-357</v>
+        <v>0</v>
       </c>
       <c r="R138" s="73">
-        <v>-776</v>
+        <v>0</v>
       </c>
       <c r="S138" s="73">
-        <v>-580</v>
+        <v>0</v>
       </c>
       <c r="T138" s="73">
-        <v>-854</v>
+        <v>0</v>
       </c>
       <c r="U138" s="73">
-        <v>-437</v>
+        <v>0</v>
       </c>
       <c r="V138" s="73">
-        <v>-489</v>
+        <v>828</v>
       </c>
       <c r="W138" s="73"/>
       <c r="X138" s="73"/>
@@ -10424,8 +10783,8 @@
       <c r="AQ138" s="3"/>
     </row>
     <row r="139" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B139" s="25" t="s">
-        <v>97</v>
+      <c r="B139" s="26" t="s">
+        <v>128</v>
       </c>
       <c r="C139" s="73"/>
       <c r="D139" s="73"/>
@@ -10440,26 +10799,33 @@
       <c r="M139" s="73"/>
       <c r="N139" s="73"/>
       <c r="O139" s="73"/>
-      <c r="P139" s="73">
-        <v>-456</v>
-      </c>
-      <c r="Q139" s="73">
-        <v>0</v>
-      </c>
-      <c r="R139" s="73">
-        <v>0</v>
-      </c>
-      <c r="S139" s="73">
-        <v>0</v>
-      </c>
-      <c r="T139" s="73">
-        <v>0</v>
-      </c>
-      <c r="U139" s="73">
-        <v>0</v>
-      </c>
-      <c r="V139" s="73">
-        <v>828</v>
+      <c r="P139" s="74">
+        <f t="shared" ref="P139:U139" si="83">SUM(P127:P138)</f>
+        <v>-9651</v>
+      </c>
+      <c r="Q139" s="74">
+        <f t="shared" si="83"/>
+        <v>-8061</v>
+      </c>
+      <c r="R139" s="74">
+        <f t="shared" si="83"/>
+        <v>-8496</v>
+      </c>
+      <c r="S139" s="74">
+        <f t="shared" si="83"/>
+        <v>-11977</v>
+      </c>
+      <c r="T139" s="74">
+        <f t="shared" si="83"/>
+        <v>3806</v>
+      </c>
+      <c r="U139" s="74">
+        <f t="shared" si="83"/>
+        <v>-5582</v>
+      </c>
+      <c r="V139" s="74">
+        <f>SUM(V127:V138)</f>
+        <v>-9481</v>
       </c>
       <c r="W139" s="73"/>
       <c r="X139" s="73"/>
@@ -10484,9 +10850,6 @@
       <c r="AQ139" s="3"/>
     </row>
     <row r="140" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B140" s="26" t="s">
-        <v>129</v>
-      </c>
       <c r="C140" s="73"/>
       <c r="D140" s="73"/>
       <c r="E140" s="73"/>
@@ -10500,34 +10863,13 @@
       <c r="M140" s="73"/>
       <c r="N140" s="73"/>
       <c r="O140" s="73"/>
-      <c r="P140" s="74">
-        <f t="shared" ref="P140:U140" si="60">SUM(P128:P139)</f>
-        <v>-9651</v>
-      </c>
-      <c r="Q140" s="74">
-        <f t="shared" si="60"/>
-        <v>-8061</v>
-      </c>
-      <c r="R140" s="74">
-        <f t="shared" si="60"/>
-        <v>-8496</v>
-      </c>
-      <c r="S140" s="74">
-        <f t="shared" si="60"/>
-        <v>-11977</v>
-      </c>
-      <c r="T140" s="74">
-        <f t="shared" si="60"/>
-        <v>3806</v>
-      </c>
-      <c r="U140" s="74">
-        <f t="shared" si="60"/>
-        <v>-5582</v>
-      </c>
-      <c r="V140" s="74">
-        <f>SUM(V128:V139)</f>
-        <v>-9481</v>
-      </c>
+      <c r="P140" s="73"/>
+      <c r="Q140" s="73"/>
+      <c r="R140" s="73"/>
+      <c r="S140" s="73"/>
+      <c r="T140" s="73"/>
+      <c r="U140" s="73"/>
+      <c r="V140" s="73"/>
       <c r="W140" s="73"/>
       <c r="X140" s="73"/>
       <c r="Y140" s="73"/>
@@ -10551,6 +10893,9 @@
       <c r="AQ140" s="3"/>
     </row>
     <row r="141" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B141" s="25" t="s">
+        <v>140</v>
+      </c>
       <c r="C141" s="73"/>
       <c r="D141" s="73"/>
       <c r="E141" s="73"/>
@@ -10564,13 +10909,27 @@
       <c r="M141" s="73"/>
       <c r="N141" s="73"/>
       <c r="O141" s="73"/>
-      <c r="P141" s="73"/>
-      <c r="Q141" s="73"/>
-      <c r="R141" s="73"/>
-      <c r="S141" s="73"/>
-      <c r="T141" s="73"/>
-      <c r="U141" s="73"/>
-      <c r="V141" s="73"/>
+      <c r="P141" s="73">
+        <v>-685</v>
+      </c>
+      <c r="Q141" s="73">
+        <v>27</v>
+      </c>
+      <c r="R141" s="73">
+        <v>258</v>
+      </c>
+      <c r="S141" s="73">
+        <v>-417</v>
+      </c>
+      <c r="T141" s="73">
+        <v>-213</v>
+      </c>
+      <c r="U141" s="73">
+        <v>-95</v>
+      </c>
+      <c r="V141" s="73">
+        <v>-536</v>
+      </c>
       <c r="W141" s="73"/>
       <c r="X141" s="73"/>
       <c r="Y141" s="73"/>
@@ -10594,7 +10953,7 @@
       <c r="AQ141" s="3"/>
     </row>
     <row r="142" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B142" s="25" t="s">
+      <c r="B142" s="26" t="s">
         <v>141</v>
       </c>
       <c r="C142" s="73"/>
@@ -10610,26 +10969,33 @@
       <c r="M142" s="73"/>
       <c r="N142" s="73"/>
       <c r="O142" s="73"/>
-      <c r="P142" s="73">
-        <v>-685</v>
-      </c>
-      <c r="Q142" s="73">
-        <v>27</v>
-      </c>
-      <c r="R142" s="73">
-        <v>258</v>
-      </c>
-      <c r="S142" s="73">
-        <v>-417</v>
-      </c>
-      <c r="T142" s="73">
-        <v>-213</v>
-      </c>
-      <c r="U142" s="73">
-        <v>-95</v>
-      </c>
-      <c r="V142" s="73">
-        <v>-536</v>
+      <c r="P142" s="74">
+        <f t="shared" ref="P142:T142" si="84">P141+P139+P126+P118</f>
+        <v>-1856</v>
+      </c>
+      <c r="Q142" s="74">
+        <f t="shared" si="84"/>
+        <v>245</v>
+      </c>
+      <c r="R142" s="74">
+        <f t="shared" si="84"/>
+        <v>420</v>
+      </c>
+      <c r="S142" s="74">
+        <f t="shared" si="84"/>
+        <v>-2785</v>
+      </c>
+      <c r="T142" s="74">
+        <f t="shared" si="84"/>
+        <v>-1283</v>
+      </c>
+      <c r="U142" s="74">
+        <f>U141+U139+U126+U118</f>
+        <v>-71</v>
+      </c>
+      <c r="V142" s="74">
+        <f>V141+V139+V126+V118</f>
+        <v>1108</v>
       </c>
       <c r="W142" s="73"/>
       <c r="X142" s="73"/>
@@ -10654,7 +11020,7 @@
       <c r="AQ142" s="3"/>
     </row>
     <row r="143" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B143" s="26" t="s">
+      <c r="B143" s="25" t="s">
         <v>142</v>
       </c>
       <c r="C143" s="73"/>
@@ -10670,33 +11036,32 @@
       <c r="M143" s="73"/>
       <c r="N143" s="73"/>
       <c r="O143" s="73"/>
-      <c r="P143" s="74">
-        <f t="shared" ref="P143:T143" si="61">P142+P140+P127+P119</f>
-        <v>-1856</v>
-      </c>
-      <c r="Q143" s="74">
-        <f t="shared" si="61"/>
-        <v>245</v>
-      </c>
-      <c r="R143" s="74">
-        <f t="shared" si="61"/>
-        <v>420</v>
-      </c>
-      <c r="S143" s="74">
-        <f t="shared" si="61"/>
-        <v>-2785</v>
-      </c>
-      <c r="T143" s="74">
-        <f t="shared" si="61"/>
-        <v>-1283</v>
-      </c>
-      <c r="U143" s="74">
-        <f>U142+U140+U127+U119</f>
-        <v>-71</v>
-      </c>
-      <c r="V143" s="74">
-        <f>V142+V140+V127+V119</f>
-        <v>1108</v>
+      <c r="P143" s="73">
+        <f>P144-P142</f>
+        <v>8476</v>
+      </c>
+      <c r="Q143" s="73">
+        <f>Q144-Q142</f>
+        <v>6620</v>
+      </c>
+      <c r="R143" s="73">
+        <f>R144-R142</f>
+        <v>6865</v>
+      </c>
+      <c r="S143" s="73">
+        <f>S144-S142</f>
+        <v>7285</v>
+      </c>
+      <c r="T143" s="73">
+        <f>T144-T142</f>
+        <v>4500</v>
+      </c>
+      <c r="U143" s="73">
+        <v>3217</v>
+      </c>
+      <c r="V143" s="73">
+        <f>U144</f>
+        <v>3146</v>
       </c>
       <c r="W143" s="73"/>
       <c r="X143" s="73"/>
@@ -10738,31 +11103,32 @@
       <c r="N144" s="73"/>
       <c r="O144" s="73"/>
       <c r="P144" s="73">
-        <f>P145-P143</f>
-        <v>8476</v>
+        <f>Q143</f>
+        <v>6620</v>
       </c>
       <c r="Q144" s="73">
-        <f>Q145-Q143</f>
-        <v>6620</v>
+        <f>R143</f>
+        <v>6865</v>
       </c>
       <c r="R144" s="73">
-        <f>R145-R143</f>
-        <v>6865</v>
+        <f>S143</f>
+        <v>7285</v>
       </c>
       <c r="S144" s="73">
-        <f>S145-S143</f>
-        <v>7285</v>
+        <f>T143</f>
+        <v>4500</v>
       </c>
       <c r="T144" s="73">
-        <f>T145-T143</f>
-        <v>4500</v>
+        <f>U143</f>
+        <v>3217</v>
       </c>
       <c r="U144" s="73">
-        <v>3217</v>
+        <f>U143+U142</f>
+        <v>3146</v>
       </c>
       <c r="V144" s="73">
-        <f>U145</f>
-        <v>3146</v>
+        <f>+V143+V142</f>
+        <v>4254</v>
       </c>
       <c r="W144" s="73"/>
       <c r="X144" s="73"/>
@@ -10787,9 +11153,7 @@
       <c r="AQ144" s="3"/>
     </row>
     <row r="145" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B145" s="25" t="s">
-        <v>144</v>
-      </c>
+      <c r="B145" s="25"/>
       <c r="C145" s="73"/>
       <c r="D145" s="73"/>
       <c r="E145" s="73"/>
@@ -10803,34 +11167,13 @@
       <c r="M145" s="73"/>
       <c r="N145" s="73"/>
       <c r="O145" s="73"/>
-      <c r="P145" s="73">
-        <f>Q144</f>
-        <v>6620</v>
-      </c>
-      <c r="Q145" s="73">
-        <f>R144</f>
-        <v>6865</v>
-      </c>
-      <c r="R145" s="73">
-        <f>S144</f>
-        <v>7285</v>
-      </c>
-      <c r="S145" s="73">
-        <f>T144</f>
-        <v>4500</v>
-      </c>
-      <c r="T145" s="73">
-        <f>U144</f>
-        <v>3217</v>
-      </c>
-      <c r="U145" s="73">
-        <f>U144+U143</f>
-        <v>3146</v>
-      </c>
-      <c r="V145" s="73">
-        <f>+V144+V143</f>
-        <v>4254</v>
-      </c>
+      <c r="P145" s="73"/>
+      <c r="Q145" s="73"/>
+      <c r="R145" s="73"/>
+      <c r="S145" s="73"/>
+      <c r="T145" s="73"/>
+      <c r="U145" s="73"/>
+      <c r="V145" s="73"/>
       <c r="W145" s="73"/>
       <c r="X145" s="73"/>
       <c r="Y145" s="73"/>
@@ -11515,33 +11858,33 @@
     </row>
     <row r="161" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B161" s="25"/>
-      <c r="C161" s="73"/>
-      <c r="D161" s="73"/>
-      <c r="E161" s="73"/>
-      <c r="F161" s="73"/>
-      <c r="G161" s="73"/>
-      <c r="H161" s="73"/>
-      <c r="I161" s="73"/>
-      <c r="J161" s="73"/>
-      <c r="K161" s="73"/>
-      <c r="L161" s="73"/>
-      <c r="M161" s="73"/>
-      <c r="N161" s="73"/>
-      <c r="O161" s="73"/>
-      <c r="P161" s="73"/>
-      <c r="Q161" s="73"/>
-      <c r="R161" s="73"/>
-      <c r="S161" s="73"/>
-      <c r="T161" s="73"/>
-      <c r="U161" s="73"/>
-      <c r="V161" s="73"/>
-      <c r="W161" s="73"/>
-      <c r="X161" s="73"/>
-      <c r="Y161" s="73"/>
-      <c r="Z161" s="73"/>
-      <c r="AA161" s="73"/>
-      <c r="AB161" s="73"/>
-      <c r="AC161" s="73"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+      <c r="L161" s="3"/>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="3"/>
+      <c r="R161" s="3"/>
+      <c r="S161" s="3"/>
+      <c r="T161" s="3"/>
+      <c r="U161" s="3"/>
+      <c r="V161" s="3"/>
+      <c r="W161" s="3"/>
+      <c r="X161" s="3"/>
+      <c r="Y161" s="3"/>
+      <c r="Z161" s="3"/>
+      <c r="AA161" s="3"/>
+      <c r="AB161" s="3"/>
+      <c r="AC161" s="3"/>
       <c r="AD161" s="3"/>
       <c r="AE161" s="3"/>
       <c r="AF161" s="3"/>
@@ -12834,7 +13177,6 @@
       <c r="AQ190" s="3"/>
     </row>
     <row r="191" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B191" s="25"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -13780,49 +14122,6 @@
       <c r="AP212" s="3"/>
       <c r="AQ212" s="3"/>
     </row>
-    <row r="213" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
-      <c r="K213" s="3"/>
-      <c r="L213" s="3"/>
-      <c r="M213" s="3"/>
-      <c r="N213" s="3"/>
-      <c r="O213" s="3"/>
-      <c r="P213" s="3"/>
-      <c r="Q213" s="3"/>
-      <c r="R213" s="3"/>
-      <c r="S213" s="3"/>
-      <c r="T213" s="3"/>
-      <c r="U213" s="3"/>
-      <c r="V213" s="3"/>
-      <c r="W213" s="3"/>
-      <c r="X213" s="3"/>
-      <c r="Y213" s="3"/>
-      <c r="Z213" s="3"/>
-      <c r="AA213" s="3"/>
-      <c r="AB213" s="3"/>
-      <c r="AC213" s="3"/>
-      <c r="AD213" s="3"/>
-      <c r="AE213" s="3"/>
-      <c r="AF213" s="3"/>
-      <c r="AG213" s="3"/>
-      <c r="AH213" s="3"/>
-      <c r="AI213" s="3"/>
-      <c r="AJ213" s="3"/>
-      <c r="AK213" s="3"/>
-      <c r="AL213" s="3"/>
-      <c r="AM213" s="3"/>
-      <c r="AN213" s="3"/>
-      <c r="AO213" s="3"/>
-      <c r="AP213" s="3"/>
-      <c r="AQ213" s="3"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{447FE18D-CAEE-434C-B3CC-4791ECCACE8F}"/>
@@ -13852,7 +14151,7 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="30">
         <v>18</v>
@@ -13882,62 +14181,62 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" t="s">
         <v>149</v>
       </c>
-      <c r="L2" t="s">
-        <v>150</v>
-      </c>
       <c r="N2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="8">
-        <f>Model!P34/Model!P99</f>
+        <f>Model!P34/Model!P98</f>
         <v>-0.73666076915913958</v>
       </c>
       <c r="D4" s="8">
-        <f>Model!Q34/Model!Q99</f>
+        <f>Model!Q34/Model!Q98</f>
         <v>-0.74851547036149602</v>
       </c>
       <c r="E4" s="8">
-        <f>Model!R34/Model!R99</f>
+        <f>Model!R34/Model!R98</f>
         <v>-0.75778383971404384</v>
       </c>
       <c r="F4" s="8">
-        <f>Model!S34/Model!S99</f>
+        <f>Model!S34/Model!S98</f>
         <v>-1.109770955165692</v>
       </c>
       <c r="G4" s="8">
-        <f>Model!T34/Model!T99</f>
+        <f>Model!T34/Model!T98</f>
         <v>-1.4336872128030422</v>
       </c>
       <c r="H4" s="8">
-        <f>Model!U34/Model!U99</f>
+        <f>Model!U34/Model!U98</f>
         <v>-0.82712259157315271</v>
       </c>
       <c r="I4" s="8">
-        <f>Model!V34/Model!V99</f>
+        <f>Model!V34/Model!V98</f>
         <v>-0.71499493414387028</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="N4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -13948,50 +14247,50 @@
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
       <c r="N5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="8">
-        <f>(Model!P26*(1-Model!P46))/(Model!P99+Model!P75+Model!P85+Model!P74-Model!P50)</f>
+        <f>(Model!P26*(1-Model!P45))/(Model!P98+Model!P74+Model!P84+Model!P73-Model!P49)</f>
         <v>0.60790443464376287</v>
       </c>
       <c r="D6" s="8">
-        <f>(Model!Q26*(1-Model!Q46))/(Model!Q99+Model!Q75+Model!Q85+Model!Q74-Model!Q50)</f>
+        <f>(Model!Q26*(1-Model!Q45))/(Model!Q98+Model!Q74+Model!Q84+Model!Q73-Model!Q49)</f>
         <v>0.55433198697180619</v>
       </c>
       <c r="E6" s="8">
-        <f>(Model!R26*(1-Model!R46))/(Model!R99+Model!R75+Model!R85+Model!R74-Model!R50)</f>
+        <f>(Model!R26*(1-Model!R45))/(Model!R98+Model!R74+Model!R84+Model!R73-Model!R49)</f>
         <v>0.670519780513403</v>
       </c>
       <c r="F6" s="8">
-        <f>(Model!S26*(1-Model!S46))/(Model!S99+Model!S75+Model!S85+Model!S74-Model!S50)</f>
+        <f>(Model!S26*(1-Model!S45))/(Model!S98+Model!S74+Model!S84+Model!S73-Model!S49)</f>
         <v>0.67155060760146901</v>
       </c>
       <c r="G6" s="8">
-        <f>(Model!T26*(1-Model!T46))/(Model!T99+Model!T75+Model!T85+Model!T74-Model!T50)</f>
+        <f>(Model!T26*(1-Model!T45))/(Model!T98+Model!T74+Model!T84+Model!T73-Model!T49)</f>
         <v>0.29412157855202636</v>
       </c>
       <c r="H6" s="8">
-        <f>(Model!U26*(1-Model!U46))/(Model!U99+Model!U75+Model!U85+Model!U74-Model!U50)</f>
+        <f>(Model!U26*(1-Model!U45))/(Model!U98+Model!U74+Model!U84+Model!U73-Model!U49)</f>
         <v>0.25335272454811836</v>
       </c>
       <c r="I6" s="8">
-        <f>(Model!V26*(1-Model!V46))/(Model!V99+Model!V75+Model!V85+Model!V74-Model!V50)</f>
+        <f>(Model!V26*(1-Model!V45))/(Model!V98+Model!V74+Model!V84+Model!V73-Model!V49)</f>
         <v>0.31913314655565894</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
       <c r="N6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -14002,12 +14301,12 @@
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="N7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -14018,12 +14317,12 @@
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="N8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -14034,12 +14333,12 @@
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="N9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -14050,7 +14349,7 @@
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="N10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -14058,12 +14357,12 @@
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -14074,12 +14373,12 @@
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="N14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -14090,12 +14389,12 @@
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
       <c r="N15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -14106,12 +14405,12 @@
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
       <c r="N16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -14122,12 +14421,12 @@
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -14138,7 +14437,7 @@
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="N18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -14146,12 +14445,12 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
@@ -14162,12 +14461,12 @@
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
@@ -14178,12 +14477,12 @@
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
       <c r="N22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
@@ -14194,12 +14493,12 @@
       <c r="K23" s="32"/>
       <c r="L23" s="32"/>
       <c r="N23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
@@ -14210,12 +14509,12 @@
       <c r="K24" s="32"/>
       <c r="L24" s="32"/>
       <c r="N24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -14226,7 +14525,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
       <c r="N25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -14234,17 +14533,17 @@
         <v>16</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
@@ -14266,7 +14565,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
@@ -14277,12 +14576,12 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
       <c r="N31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
@@ -14293,12 +14592,12 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
       <c r="N32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
@@ -14309,19 +14608,19 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
       <c r="N33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
@@ -14332,12 +14631,12 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
       <c r="N35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
@@ -14348,12 +14647,12 @@
       <c r="K36" s="32"/>
       <c r="L36" s="32"/>
       <c r="N36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="32"/>
@@ -14364,12 +14663,12 @@
       <c r="K37" s="32"/>
       <c r="L37" s="32"/>
       <c r="N37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
@@ -14380,7 +14679,7 @@
       <c r="K38" s="32"/>
       <c r="L38" s="32"/>
       <c r="N38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -14406,7 +14705,7 @@
     <row r="2" spans="1:24" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -14436,13 +14735,13 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" t="s">
         <v>199</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="G4" t="s">
-        <v>200</v>
       </c>
       <c r="J4" s="70">
         <f>Main!K3</f>
@@ -14451,13 +14750,13 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E5" s="68">
         <v>45504</v>
       </c>
       <c r="G5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J5" s="70">
         <f ca="1">V61</f>
@@ -14466,13 +14765,13 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E6" s="69">
         <v>45657</v>
       </c>
       <c r="G6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J6" s="72">
         <f ca="1">J5/J4-1</f>
@@ -14484,7 +14783,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
@@ -14513,25 +14812,25 @@
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
       <c r="G10" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
       <c r="L10" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
       <c r="O10" s="41"/>
       <c r="Q10" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R10" s="41"/>
       <c r="S10" s="41"/>
@@ -14540,34 +14839,34 @@
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="J11" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="O11" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="Q11" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="S11" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="T11" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -14578,19 +14877,19 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E13" s="37">
         <v>2</v>
@@ -14598,24 +14897,24 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E14" s="37">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E15" s="37">
         <v>2</v>
@@ -14623,51 +14922,51 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E18" s="42">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J18" s="42"/>
       <c r="L18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O18" s="42">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T18" s="42"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E19" s="42">
         <f>CHOOSE(E15,J19,O19,T19)</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J19" s="42"/>
       <c r="L19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O19" s="42">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T19" s="42"/>
     </row>
@@ -14676,7 +14975,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
@@ -14748,7 +15047,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G24" s="31">
         <f>Model!P21</f>
@@ -14817,7 +15116,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B25" s="45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C25" s="24"/>
       <c r="G25" s="46"/>
@@ -14884,7 +15183,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B26" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C26" s="24"/>
       <c r="H26" s="8"/>
@@ -14905,7 +15204,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B27" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C27" s="24"/>
       <c r="H27" s="8"/>
@@ -14946,7 +15245,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B28" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C28" s="24"/>
       <c r="H28" s="8"/>
@@ -14967,7 +15266,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G30" s="31">
         <f>Model!P26</f>
@@ -15036,7 +15335,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G31" s="47">
         <f>G30/G24</f>
@@ -15105,7 +15404,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M32" s="71"/>
       <c r="N32" s="71"/>
@@ -15120,7 +15419,7 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M33" s="71">
         <v>0.38</v>
@@ -15155,7 +15454,7 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M34" s="71"/>
       <c r="N34" s="71"/>
@@ -15170,7 +15469,7 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G36" s="31">
         <f>Model!P30</f>
@@ -15239,7 +15538,7 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G37" s="47">
         <f t="shared" ref="G37:L37" si="6">G36/G30</f>
@@ -15301,7 +15600,7 @@
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C39" s="50"/>
       <c r="D39" s="50"/>
@@ -15374,30 +15673,30 @@
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G41" s="31">
-        <f>Model!P106</f>
+        <f>Model!P105</f>
         <v>989</v>
       </c>
       <c r="H41" s="31">
-        <f>Model!Q106</f>
+        <f>Model!Q105</f>
         <v>964</v>
       </c>
       <c r="I41" s="31">
-        <f>Model!R106</f>
+        <f>Model!R105</f>
         <v>981</v>
       </c>
       <c r="J41" s="31">
-        <f>Model!S106</f>
+        <f>Model!S105</f>
         <v>998</v>
       </c>
       <c r="K41" s="31">
-        <f>Model!T106</f>
+        <f>Model!T105</f>
         <v>1077</v>
       </c>
       <c r="L41" s="31">
-        <f>Model!U106</f>
+        <f>Model!U105</f>
         <v>1398</v>
       </c>
       <c r="M41" s="31">
@@ -15443,7 +15742,7 @@
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C42" s="46"/>
       <c r="D42" s="46"/>
@@ -15506,30 +15805,30 @@
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G44" s="31">
-        <f>-Model!P120</f>
+        <f>-Model!P119</f>
         <v>1436</v>
       </c>
       <c r="H44" s="31">
-        <f>-Model!Q120</f>
+        <f>-Model!Q119</f>
         <v>852</v>
       </c>
       <c r="I44" s="31">
-        <f>-Model!R120</f>
+        <f>-Model!R119</f>
         <v>602</v>
       </c>
       <c r="J44" s="31">
-        <f>-Model!S120</f>
+        <f>-Model!S119</f>
         <v>748</v>
       </c>
       <c r="K44" s="31">
-        <f>-Model!T120</f>
+        <f>-Model!T119</f>
         <v>1077</v>
       </c>
       <c r="L44" s="31">
-        <f>-Model!U120</f>
+        <f>-Model!U119</f>
         <v>1321</v>
       </c>
       <c r="M44" s="31">
@@ -15575,7 +15874,7 @@
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G45" s="53">
         <f t="shared" ref="G45:L45" si="11">G44/G24</f>
@@ -15634,30 +15933,30 @@
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G47" s="3">
-        <f>Model!P118</f>
+        <f>Model!P117</f>
         <v>306</v>
       </c>
       <c r="H47" s="3">
-        <f>Model!Q118</f>
+        <f>Model!Q117</f>
         <v>1168</v>
       </c>
       <c r="I47" s="3">
-        <f>Model!R118</f>
+        <f>Model!R117</f>
         <v>396</v>
       </c>
       <c r="J47" s="3">
-        <f>Model!S118</f>
+        <f>Model!S117</f>
         <v>1298</v>
       </c>
       <c r="K47" s="3">
-        <f>Model!T118</f>
+        <f>Model!T117</f>
         <v>414</v>
       </c>
       <c r="L47" s="3">
-        <f>Model!U118</f>
+        <f>Model!U117</f>
         <v>-842</v>
       </c>
       <c r="M47" s="3">
@@ -15703,7 +16002,7 @@
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G48" s="53">
         <f t="shared" ref="G48:L48" si="13">G47/G24</f>
@@ -15762,7 +16061,7 @@
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C50" s="56"/>
       <c r="D50" s="56"/>
@@ -15835,7 +16134,7 @@
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="59"/>
@@ -15890,7 +16189,7 @@
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M52" s="32">
         <f>YEARFRAC(E5,E6)</f>
@@ -15935,7 +16234,7 @@
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N53" s="31"/>
       <c r="O53" s="31"/>
@@ -15948,7 +16247,7 @@
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N54" s="31"/>
       <c r="O54" s="31"/>
@@ -15961,7 +16260,7 @@
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
@@ -15989,7 +16288,7 @@
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -16017,7 +16316,7 @@
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N57" s="31"/>
       <c r="O57" s="31"/>
@@ -16030,7 +16329,7 @@
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
@@ -16058,7 +16357,7 @@
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N59" s="31"/>
       <c r="O59" s="31"/>
@@ -16071,7 +16370,7 @@
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -16099,7 +16398,7 @@
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V61" s="32">
         <f ca="1">V59/V60</f>
@@ -16111,7 +16410,7 @@
         <v>16</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C65" s="39"/>
       <c r="D65" s="39"/>
@@ -16136,20 +16435,20 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B67" s="63"/>
-      <c r="C67" s="77" t="s">
-        <v>216</v>
-      </c>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="77"/>
-      <c r="I67" s="77"/>
-      <c r="J67" s="78"/>
+      <c r="C67" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" s="80"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="80"/>
+      <c r="I67" s="80"/>
+      <c r="J67" s="81"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B68" s="79" t="s">
-        <v>215</v>
+      <c r="B68" s="82" t="s">
+        <v>214</v>
       </c>
       <c r="C68" s="64"/>
       <c r="D68" s="65"/>
@@ -16161,7 +16460,7 @@
       <c r="J68" s="65"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B69" s="79"/>
+      <c r="B69" s="82"/>
       <c r="C69" s="66"/>
       <c r="D69" s="67"/>
       <c r="E69" s="67"/>
@@ -16172,7 +16471,7 @@
       <c r="J69" s="67"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B70" s="79"/>
+      <c r="B70" s="82"/>
       <c r="C70" s="66"/>
       <c r="D70" s="67"/>
       <c r="E70" s="67"/>
@@ -16183,7 +16482,7 @@
       <c r="J70" s="67"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B71" s="79"/>
+      <c r="B71" s="82"/>
       <c r="C71" s="66"/>
       <c r="D71" s="67"/>
       <c r="E71" s="67"/>
@@ -16194,7 +16493,7 @@
       <c r="J71" s="67"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B72" s="79"/>
+      <c r="B72" s="82"/>
       <c r="C72" s="66"/>
       <c r="D72" s="67"/>
       <c r="E72" s="67"/>
@@ -16205,7 +16504,7 @@
       <c r="J72" s="67"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B73" s="79"/>
+      <c r="B73" s="82"/>
       <c r="C73" s="66"/>
       <c r="D73" s="67"/>
       <c r="E73" s="67"/>
@@ -16216,7 +16515,7 @@
       <c r="J73" s="67"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B74" s="79"/>
+      <c r="B74" s="82"/>
       <c r="C74" s="66"/>
       <c r="D74" s="67"/>
       <c r="E74" s="67"/>
@@ -16227,7 +16526,7 @@
       <c r="J74" s="67"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B75" s="80"/>
+      <c r="B75" s="83"/>
       <c r="C75" s="66"/>
       <c r="D75" s="67"/>
       <c r="E75" s="67"/>

--- a/PM.xlsx
+++ b/PM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D4B2EB-2362-4C70-86D2-27A5EE9147A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5956AC-6674-45D1-92E9-1D205C936B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{237199C3-ED65-4E36-BE9B-24893DBB0CE2}"/>
   </bookViews>
@@ -1404,6 +1404,13 @@
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1416,13 +1423,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1761,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB38893-A6D1-4F9C-9C30-8A2037A3C6D2}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <v>168.82</v>
+        <v>170.9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <v>1554.857221</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="K5" s="73">
         <f>K4*K3</f>
-        <v>262490.99604921998</v>
+        <v>265725.09906889999</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1858,7 +1858,7 @@
         <v>4216</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
         <v>45695</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="K8" s="73">
         <f>K5-K6+K7</f>
-        <v>303969.99604921998</v>
+        <v>307204.09906889999</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1974,10 +1974,10 @@
   <dimension ref="A1:AQ212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,7 +2087,9 @@
       <c r="K3" s="3">
         <v>615.20000000000005</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3">
+        <v>654.5</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -2132,13 +2134,13 @@
       <c r="B4" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="84">
+      <c r="C4" s="80">
         <v>0.22700000000000001</v>
       </c>
-      <c r="D4" s="84">
+      <c r="D4" s="80">
         <v>0.23400000000000001</v>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="80">
         <v>0.23699999999999999</v>
       </c>
       <c r="F4" s="75">
@@ -2161,7 +2163,9 @@
       <c r="K4" s="75">
         <v>0.23</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="75">
+        <v>0.23400000000000001</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -2195,13 +2199,13 @@
       <c r="B5" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="80">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="80">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="80">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="F5" s="75">
@@ -2224,7 +2228,9 @@
       <c r="K5" s="75">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="75">
+        <v>5.7000000000000002E-2</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -2261,13 +2267,13 @@
       <c r="B6" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="80">
         <v>0.27200000000000002</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="80">
         <v>0.27900000000000003</v>
       </c>
-      <c r="E6" s="84">
+      <c r="E6" s="80">
         <v>0.28299999999999997</v>
       </c>
       <c r="F6" s="75">
@@ -2290,20 +2296,22 @@
       <c r="K6" s="75">
         <v>0.28599999999999998</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="75">
+        <v>0.29199999999999998</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="85" t="s">
+      <c r="P6" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="Q6" s="85" t="s">
+      <c r="Q6" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="R6" s="85" t="s">
+      <c r="R6" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="S6" s="85" t="s">
+      <c r="S6" s="81" t="s">
         <v>254</v>
       </c>
       <c r="T6" s="75">
@@ -2412,7 +2420,9 @@
       <c r="K9" s="3">
         <v>144.75299999999999</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>155.24799999999999</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -2486,7 +2496,9 @@
       <c r="K10" s="3">
         <v>37.088999999999999</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3">
+        <v>38.81</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -2569,7 +2581,7 @@
       </c>
       <c r="L11" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>194.05799999999999</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="3"/>
@@ -2651,7 +2663,9 @@
       <c r="K12" s="3">
         <v>223.4</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>214.7</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -2719,7 +2733,9 @@
       <c r="K13" s="3">
         <v>60.2</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3">
+        <v>59.6</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -2787,7 +2803,9 @@
       <c r="K14" s="3">
         <v>33.6</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3">
+        <v>33.4</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -2855,7 +2873,9 @@
       <c r="K15" s="3">
         <v>0.6</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3">
+        <v>0.7</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -2935,7 +2955,7 @@
       </c>
       <c r="L16" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>308.39999999999998</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" ref="M16:N16" si="8">M14+M15</f>
@@ -4690,23 +4710,23 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="86">
+      <c r="G39" s="82">
         <f t="shared" ref="G39:G41" si="52">G18/C18-1</f>
         <v>3.5228795711277128E-2</v>
       </c>
-      <c r="H39" s="86">
+      <c r="H39" s="82">
         <f t="shared" ref="H39:H41" si="53">H18/D18-1</f>
         <v>1.1744386873920654E-2</v>
       </c>
-      <c r="I39" s="86">
+      <c r="I39" s="82">
         <f t="shared" ref="I39:I41" si="54">I18/E18-1</f>
         <v>5.1783264746227742E-2</v>
       </c>
-      <c r="J39" s="86">
+      <c r="J39" s="82">
         <f t="shared" ref="J39:J41" si="55">J18/F18-1</f>
         <v>6.0120240480961984E-2</v>
       </c>
-      <c r="K39" s="86">
+      <c r="K39" s="82">
         <f t="shared" ref="K39:K41" si="56">K18/G18-1</f>
         <v>-1.8494544109493027E-4</v>
       </c>
@@ -4769,23 +4789,23 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="86">
+      <c r="G40" s="82">
         <f t="shared" si="52"/>
         <v>0.2494464944649446</v>
       </c>
-      <c r="H40" s="86">
+      <c r="H40" s="82">
         <f t="shared" si="53"/>
         <v>0.13834247017091261</v>
       </c>
-      <c r="I40" s="86">
+      <c r="I40" s="82">
         <f t="shared" si="54"/>
         <v>0.14440321583178717</v>
       </c>
-      <c r="J40" s="86">
+      <c r="J40" s="82">
         <f t="shared" si="55"/>
         <v>6.3341931785611871E-2</v>
       </c>
-      <c r="K40" s="86">
+      <c r="K40" s="82">
         <f t="shared" si="56"/>
         <v>0.15032486709982273</v>
       </c>
@@ -4848,23 +4868,23 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="86">
+      <c r="G41" s="82">
         <f t="shared" si="52"/>
         <v>-1</v>
       </c>
-      <c r="H41" s="86">
+      <c r="H41" s="82">
         <f t="shared" si="53"/>
         <v>5.2631578947368363E-2</v>
       </c>
-      <c r="I41" s="86">
+      <c r="I41" s="82">
         <f t="shared" si="54"/>
         <v>1.3333333333333419E-2</v>
       </c>
-      <c r="J41" s="86">
+      <c r="J41" s="82">
         <f t="shared" si="55"/>
         <v>1.5652173913043477</v>
       </c>
-      <c r="K41" s="86" t="e">
+      <c r="K41" s="82" t="e">
         <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
@@ -14140,7 +14160,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14745,7 +14765,7 @@
       </c>
       <c r="J4" s="70">
         <f>Main!K3</f>
-        <v>168.82</v>
+        <v>170.9</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -14775,7 +14795,7 @@
       </c>
       <c r="J6" s="72">
         <f ca="1">J5/J4-1</f>
-        <v>-0.11143381344374104</v>
+        <v>-0.12224842823623394</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -16435,19 +16455,19 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B67" s="63"/>
-      <c r="C67" s="80" t="s">
+      <c r="C67" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="D67" s="80"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="80"/>
-      <c r="H67" s="80"/>
-      <c r="I67" s="80"/>
-      <c r="J67" s="81"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="84"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B68" s="82" t="s">
+      <c r="B68" s="85" t="s">
         <v>214</v>
       </c>
       <c r="C68" s="64"/>
@@ -16460,7 +16480,7 @@
       <c r="J68" s="65"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B69" s="82"/>
+      <c r="B69" s="85"/>
       <c r="C69" s="66"/>
       <c r="D69" s="67"/>
       <c r="E69" s="67"/>
@@ -16471,7 +16491,7 @@
       <c r="J69" s="67"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B70" s="82"/>
+      <c r="B70" s="85"/>
       <c r="C70" s="66"/>
       <c r="D70" s="67"/>
       <c r="E70" s="67"/>
@@ -16482,7 +16502,7 @@
       <c r="J70" s="67"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B71" s="82"/>
+      <c r="B71" s="85"/>
       <c r="C71" s="66"/>
       <c r="D71" s="67"/>
       <c r="E71" s="67"/>
@@ -16493,7 +16513,7 @@
       <c r="J71" s="67"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B72" s="82"/>
+      <c r="B72" s="85"/>
       <c r="C72" s="66"/>
       <c r="D72" s="67"/>
       <c r="E72" s="67"/>
@@ -16504,7 +16524,7 @@
       <c r="J72" s="67"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B73" s="82"/>
+      <c r="B73" s="85"/>
       <c r="C73" s="66"/>
       <c r="D73" s="67"/>
       <c r="E73" s="67"/>
@@ -16515,7 +16535,7 @@
       <c r="J73" s="67"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B74" s="82"/>
+      <c r="B74" s="85"/>
       <c r="C74" s="66"/>
       <c r="D74" s="67"/>
       <c r="E74" s="67"/>
@@ -16526,7 +16546,7 @@
       <c r="J74" s="67"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B75" s="83"/>
+      <c r="B75" s="86"/>
       <c r="C75" s="66"/>
       <c r="D75" s="67"/>
       <c r="E75" s="67"/>

--- a/PM.xlsx
+++ b/PM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA3A237-C5B5-4902-969F-C1FD2D21A689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FDAC8E-0CCC-4832-ABCB-26433167A8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{237199C3-ED65-4E36-BE9B-24893DBB0CE2}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{237199C3-ED65-4E36-BE9B-24893DBB0CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1405,6 +1405,10 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1414,10 +1418,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1759,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB38893-A6D1-4F9C-9C30-8A2037A3C6D2}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1789,14 +1789,14 @@
       <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>256</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="5">
-        <v>170.9</v>
+        <v>165.35</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1807,7 +1807,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6">
-        <v>1554.857221</v>
+        <v>1556.5893369999999</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>257</v>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="K5" s="6">
         <f>K4*K3</f>
-        <v>265725.09906889999</v>
+        <v>257382.04687294998</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1855,7 +1855,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6">
-        <v>4216</v>
+        <v>4138</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>257</v>
@@ -1879,8 +1879,8 @@
         <v>5</v>
       </c>
       <c r="K7" s="6">
-        <f>137+3392+42166</f>
-        <v>45695</v>
+        <f>42431+2540</f>
+        <v>44971</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>257</v>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="K8" s="6">
         <f>K5-K6+K7</f>
-        <v>307204.09906889999</v>
+        <v>298215.04687294998</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1963,7 +1963,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{E5A29510-1B7A-4CFE-9AAF-A8E01DEE39D3}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{E5A29510-1B7A-4CFE-9AAF-A8E01DEE39D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1973,11 +1973,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8C3366-37BF-42AE-A4D4-8E7E11818534}">
   <dimension ref="A1:AQ212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3079,7 +3079,9 @@
       <c r="K18" s="6">
         <v>5406</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6">
+        <v>5979</v>
+      </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -3147,7 +3149,9 @@
       <c r="K19" s="6">
         <v>3895</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6">
+        <v>4161</v>
+      </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -3215,7 +3219,9 @@
       <c r="K20" s="6">
         <v>0</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -3282,7 +3288,9 @@
       <c r="K21" s="15">
         <v>9301</v>
       </c>
-      <c r="L21" s="15"/>
+      <c r="L21" s="15">
+        <v>10140</v>
+      </c>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
@@ -3365,7 +3373,9 @@
       <c r="K22" s="6">
         <v>3040</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6">
+        <v>3279</v>
+      </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -3437,7 +3447,7 @@
         <v>5598</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" ref="H23:K23" si="12">H21-H22</f>
+        <f t="shared" ref="H23:L23" si="12">H21-H22</f>
         <v>6123</v>
       </c>
       <c r="I23" s="6">
@@ -3452,7 +3462,10 @@
         <f t="shared" si="12"/>
         <v>6261</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="6">
+        <f t="shared" si="12"/>
+        <v>6861</v>
+      </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
@@ -3539,7 +3552,9 @@
       <c r="K24" s="6">
         <v>2717</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="6">
+        <v>3108</v>
+      </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
@@ -3621,7 +3636,9 @@
       <c r="K25" s="6">
         <v>0</v>
       </c>
-      <c r="L25" s="6"/>
+      <c r="L25" s="6">
+        <v>-41</v>
+      </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -3677,7 +3694,7 @@
         <v>2731</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" ref="D26:K26" si="19">D23-D24+D25</f>
+        <f t="shared" ref="D26:L26" si="19">D23-D24+D25</f>
         <v>2566</v>
       </c>
       <c r="E26" s="6">
@@ -3708,7 +3725,10 @@
         <f t="shared" si="19"/>
         <v>3544</v>
       </c>
-      <c r="L26" s="6"/>
+      <c r="L26" s="6">
+        <f t="shared" si="19"/>
+        <v>3712</v>
+      </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
@@ -3795,7 +3815,9 @@
       <c r="K27" s="6">
         <v>241</v>
       </c>
-      <c r="L27" s="6"/>
+      <c r="L27" s="6">
+        <v>277</v>
+      </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
@@ -3875,7 +3897,9 @@
       <c r="K28" s="6">
         <v>12</v>
       </c>
-      <c r="L28" s="6"/>
+      <c r="L28" s="6">
+        <v>11</v>
+      </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
@@ -3947,7 +3971,7 @@
         <v>2731</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" ref="H29:K29" si="27">H26-H27-H28</f>
+        <f t="shared" ref="H29:L29" si="27">H26-H27-H28</f>
         <v>3101</v>
       </c>
       <c r="I29" s="6">
@@ -3962,7 +3986,10 @@
         <f t="shared" si="27"/>
         <v>3291</v>
       </c>
-      <c r="L29" s="6"/>
+      <c r="L29" s="6">
+        <f t="shared" si="27"/>
+        <v>3424</v>
+      </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
@@ -4049,7 +4076,9 @@
       <c r="K30" s="6">
         <v>659</v>
       </c>
-      <c r="L30" s="6"/>
+      <c r="L30" s="6">
+        <v>652</v>
+      </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
@@ -4129,7 +4158,9 @@
       <c r="K31" s="6">
         <v>-205</v>
       </c>
-      <c r="L31" s="6"/>
+      <c r="L31" s="6">
+        <v>-376</v>
+      </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -4202,7 +4233,7 @@
         <v>2246</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" ref="H32:K32" si="35">H29-H30-H31</f>
+        <f t="shared" ref="H32:L32" si="35">H29-H30-H31</f>
         <v>2528</v>
       </c>
       <c r="I32" s="6">
@@ -4217,7 +4248,10 @@
         <f t="shared" si="35"/>
         <v>2837</v>
       </c>
-      <c r="L32" s="6"/>
+      <c r="L32" s="6">
+        <f t="shared" si="35"/>
+        <v>3148</v>
+      </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
@@ -4304,7 +4338,9 @@
       <c r="K33" s="6">
         <v>147</v>
       </c>
-      <c r="L33" s="6"/>
+      <c r="L33" s="6">
+        <v>109</v>
+      </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
@@ -4376,7 +4412,7 @@
         <v>2148</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" ref="H34:K34" si="43">H32-H33</f>
+        <f t="shared" ref="H34:L34" si="43">H32-H33</f>
         <v>2406</v>
       </c>
       <c r="I34" s="6">
@@ -4391,7 +4427,10 @@
         <f t="shared" si="43"/>
         <v>2690</v>
       </c>
-      <c r="L34" s="6"/>
+      <c r="L34" s="6">
+        <f t="shared" si="43"/>
+        <v>3039</v>
+      </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
@@ -4522,7 +4561,10 @@
         <f>+K34/K37</f>
         <v>1.7287917737789202</v>
       </c>
-      <c r="L36" s="5"/>
+      <c r="L36" s="16">
+        <f>+L34/L37</f>
+        <v>1.9530848329048842</v>
+      </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -4614,7 +4656,9 @@
       <c r="K37" s="5">
         <v>1556</v>
       </c>
-      <c r="L37" s="5"/>
+      <c r="L37" s="5">
+        <v>1556</v>
+      </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
@@ -4729,10 +4773,13 @@
         <v>6.0120240480961984E-2</v>
       </c>
       <c r="K39" s="17">
-        <f t="shared" ref="K39:K41" si="56">K18/G18-1</f>
+        <f t="shared" ref="K39:L41" si="56">K18/G18-1</f>
         <v>-1.8494544109493027E-4</v>
       </c>
-      <c r="L39" s="5"/>
+      <c r="L39" s="17">
+        <f t="shared" si="56"/>
+        <v>2.0655513827244842E-2</v>
+      </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
@@ -4811,7 +4858,10 @@
         <f t="shared" si="56"/>
         <v>0.15032486709982273</v>
       </c>
-      <c r="L40" s="5"/>
+      <c r="L40" s="17">
+        <f t="shared" si="56"/>
+        <v>0.17875354107648733</v>
+      </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
@@ -4890,7 +4940,10 @@
         <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L41" s="5"/>
+      <c r="L41" s="17">
+        <f t="shared" si="56"/>
+        <v>-1</v>
+      </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
@@ -4967,7 +5020,10 @@
         <f>K21/G21-1</f>
         <v>5.7773228704651514E-2</v>
       </c>
-      <c r="L42" s="19"/>
+      <c r="L42" s="19">
+        <f>L21/H21-1</f>
+        <v>7.0975918884664146E-2</v>
+      </c>
       <c r="M42" s="19"/>
       <c r="N42" s="19"/>
       <c r="O42" s="19"/>
@@ -5055,10 +5111,13 @@
         <v>0.64733154749639399</v>
       </c>
       <c r="K43" s="17">
-        <f t="shared" ref="K43" si="60">K23/K21</f>
+        <f t="shared" ref="K43:L43" si="60">K23/K21</f>
         <v>0.67315342436297176</v>
       </c>
-      <c r="L43" s="17"/>
+      <c r="L43" s="17">
+        <f t="shared" si="60"/>
+        <v>0.67662721893491129</v>
+      </c>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
       <c r="O43" s="17"/>
@@ -5149,10 +5208,13 @@
         <v>0.3357716876159077</v>
       </c>
       <c r="K44" s="17">
-        <f t="shared" ref="K44" si="63">K26/K21</f>
+        <f t="shared" ref="K44:L44" si="63">K26/K21</f>
         <v>0.38103429738737771</v>
       </c>
-      <c r="L44" s="17"/>
+      <c r="L44" s="17">
+        <f t="shared" si="63"/>
+        <v>0.3660749506903353</v>
+      </c>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
       <c r="O44" s="17"/>
@@ -5243,10 +5305,13 @@
         <v>0.29893726431265</v>
       </c>
       <c r="K45" s="17">
-        <f t="shared" ref="K45" si="66">K30/K29</f>
+        <f t="shared" ref="K45:L45" si="66">K30/K29</f>
         <v>0.2002430872075357</v>
       </c>
-      <c r="L45" s="17"/>
+      <c r="L45" s="17">
+        <f t="shared" si="66"/>
+        <v>0.19042056074766356</v>
+      </c>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17"/>
@@ -14773,7 +14838,7 @@
       </c>
       <c r="J4" s="47">
         <f>Main!K3</f>
-        <v>170.9</v>
+        <v>165.35</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -14788,7 +14853,7 @@
       </c>
       <c r="J5" s="47">
         <f ca="1">V61</f>
-        <v>150.00774361442762</v>
+        <v>150.25583036279622</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -14803,7 +14868,7 @@
       </c>
       <c r="J6" s="50">
         <f ca="1">J5/J4-1</f>
-        <v>-0.12224842823623394</v>
+        <v>-9.1286178634434667E-2</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -16352,7 +16417,7 @@
       <c r="Q57" s="42"/>
       <c r="V57" s="42">
         <f>Main!K6</f>
-        <v>4216</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.2">
@@ -16380,7 +16445,7 @@
       <c r="U58" s="76"/>
       <c r="V58" s="76">
         <f>Main!K7</f>
-        <v>45695</v>
+        <v>44971</v>
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.2">
@@ -16393,7 +16458,7 @@
       <c r="Q59" s="42"/>
       <c r="V59" s="42">
         <f ca="1">V56+V57-V58</f>
-        <v>233240.62336480943</v>
+        <v>233886.62336480943</v>
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.2">
@@ -16421,7 +16486,7 @@
       <c r="U60" s="76"/>
       <c r="V60" s="76">
         <f>Main!K4</f>
-        <v>1554.857221</v>
+        <v>1556.5893369999999</v>
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.2">
@@ -16430,7 +16495,7 @@
       </c>
       <c r="V61" s="41">
         <f ca="1">V59/V60</f>
-        <v>150.00774361442762</v>
+        <v>150.25583036279622</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
@@ -16463,106 +16528,106 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B67" s="78"/>
-      <c r="C67" s="79" t="s">
+      <c r="C67" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
-      <c r="J67" s="80"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="84"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B68" s="81" t="s">
+      <c r="B68" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="C68" s="82"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="83"/>
-      <c r="H68" s="83"/>
-      <c r="I68" s="83"/>
-      <c r="J68" s="83"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="80"/>
+      <c r="G68" s="80"/>
+      <c r="H68" s="80"/>
+      <c r="I68" s="80"/>
+      <c r="J68" s="80"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="81"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="85"/>
-      <c r="I69" s="85"/>
-      <c r="J69" s="85"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="82"/>
+      <c r="H69" s="82"/>
+      <c r="I69" s="82"/>
+      <c r="J69" s="82"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="81"/>
-      <c r="C70" s="84"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="85"/>
-      <c r="I70" s="85"/>
-      <c r="J70" s="85"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="82"/>
+      <c r="I70" s="82"/>
+      <c r="J70" s="82"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="81"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="85"/>
-      <c r="I71" s="85"/>
-      <c r="J71" s="85"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
+      <c r="H71" s="82"/>
+      <c r="I71" s="82"/>
+      <c r="J71" s="82"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="81"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="85"/>
-      <c r="H72" s="85"/>
-      <c r="I72" s="85"/>
-      <c r="J72" s="85"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="82"/>
+      <c r="H72" s="82"/>
+      <c r="I72" s="82"/>
+      <c r="J72" s="82"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="81"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="85"/>
-      <c r="H73" s="85"/>
-      <c r="I73" s="85"/>
-      <c r="J73" s="85"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="81"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="82"/>
+      <c r="I73" s="82"/>
+      <c r="J73" s="82"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="81"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="85"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="85"/>
-      <c r="J74" s="85"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="81"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="82"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="82"/>
+      <c r="H74" s="82"/>
+      <c r="I74" s="82"/>
+      <c r="J74" s="82"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B75" s="86"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="85"/>
-      <c r="J75" s="85"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="82"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="82"/>
+      <c r="H75" s="82"/>
+      <c r="I75" s="82"/>
+      <c r="J75" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/PM.xlsx
+++ b/PM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FDAC8E-0CCC-4832-ABCB-26433167A8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35CB11C-B43B-428B-915F-8AD4D02CA09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{237199C3-ED65-4E36-BE9B-24893DBB0CE2}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{237199C3-ED65-4E36-BE9B-24893DBB0CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1334,7 +1334,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1421,6 +1420,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1759,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB38893-A6D1-4F9C-9C30-8A2037A3C6D2}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1862,10 +1862,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="32">
         <v>0.36</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1874,7 +1874,7 @@
       <c r="E7" s="2">
         <v>84</v>
       </c>
-      <c r="F7" s="34"/>
+      <c r="F7" s="33"/>
       <c r="J7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1887,13 +1887,13 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="33"/>
       <c r="J8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1903,33 +1903,33 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="34"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="34"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>0.01</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
@@ -1973,11 +1973,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8C3366-37BF-42AE-A4D4-8E7E11818534}">
   <dimension ref="A1:AQ212"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5001,27 +5001,27 @@
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
       <c r="G42" s="19">
-        <f>G21/C21-1</f>
+        <f t="shared" ref="G42:L42" si="59">G21/C21-1</f>
         <v>9.6520763187429859E-2</v>
       </c>
       <c r="H42" s="19">
-        <f>H21/D21-1</f>
+        <f t="shared" si="59"/>
         <v>5.5871528939444692E-2</v>
       </c>
       <c r="I42" s="19">
-        <f>I21/E21-1</f>
+        <f t="shared" si="59"/>
         <v>8.4235860409145547E-2</v>
       </c>
       <c r="J42" s="19">
-        <f>J21/F21-1</f>
+        <f t="shared" si="59"/>
         <v>7.2841826019675038E-2</v>
       </c>
       <c r="K42" s="19">
-        <f>K21/G21-1</f>
+        <f t="shared" si="59"/>
         <v>5.7773228704651514E-2</v>
       </c>
       <c r="L42" s="19">
-        <f>L21/H21-1</f>
+        <f t="shared" si="59"/>
         <v>7.0975918884664146E-2</v>
       </c>
       <c r="M42" s="19"/>
@@ -5079,74 +5079,74 @@
         <v>41</v>
       </c>
       <c r="C43" s="17">
-        <f t="shared" ref="C43:J43" si="59">C23/C21</f>
+        <f t="shared" ref="C43:J43" si="60">C23/C21</f>
         <v>0.62114976929791743</v>
       </c>
       <c r="D43" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.64001338240214123</v>
       </c>
       <c r="E43" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.65375779455201843</v>
       </c>
       <c r="F43" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.61733171216978</v>
       </c>
       <c r="G43" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.63664278403275332</v>
       </c>
       <c r="H43" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.64670468948035487</v>
       </c>
       <c r="I43" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.660377358490566</v>
       </c>
       <c r="J43" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.64733154749639399</v>
       </c>
       <c r="K43" s="17">
-        <f t="shared" ref="K43:L43" si="60">K23/K21</f>
+        <f t="shared" ref="K43:L43" si="61">K23/K21</f>
         <v>0.67315342436297176</v>
       </c>
       <c r="L43" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.67662721893491129</v>
       </c>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
       <c r="O43" s="17"/>
       <c r="P43" s="17">
-        <f t="shared" ref="P43:V43" si="61">P23/P21</f>
+        <f t="shared" ref="P43:V43" si="62">P23/P21</f>
         <v>0.63686075949367094</v>
       </c>
       <c r="Q43" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.64727394732427446</v>
       </c>
       <c r="R43" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.666515647870635</v>
       </c>
       <c r="S43" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.68062410444196786</v>
       </c>
       <c r="T43" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.64101756816321387</v>
       </c>
       <c r="U43" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.63345084437368515</v>
       </c>
       <c r="V43" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.64810708062727707</v>
       </c>
       <c r="W43" s="5"/>
@@ -5176,74 +5176,74 @@
         <v>42</v>
       </c>
       <c r="C44" s="17">
-        <f t="shared" ref="C44:J44" si="62">C26/C21</f>
+        <f t="shared" ref="C44:J44" si="63">C26/C21</f>
         <v>0.34056615538097018</v>
       </c>
       <c r="D44" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.28616036578565851</v>
       </c>
       <c r="E44" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.36866863581665027</v>
       </c>
       <c r="F44" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.31933237537305181</v>
       </c>
       <c r="G44" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.34629819174343229</v>
       </c>
       <c r="H44" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.3637515842839037</v>
       </c>
       <c r="I44" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.36868126324286149</v>
       </c>
       <c r="J44" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.3357716876159077</v>
       </c>
       <c r="K44" s="17">
-        <f t="shared" ref="K44:L44" si="63">K26/K21</f>
+        <f t="shared" ref="K44:L44" si="64">K26/K21</f>
         <v>0.38103429738737771</v>
       </c>
       <c r="L44" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.3660749506903353</v>
       </c>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
       <c r="O44" s="17"/>
       <c r="P44" s="17">
-        <f t="shared" ref="P44:V44" si="64">P26/P21</f>
+        <f t="shared" ref="P44:V44" si="65">P26/P21</f>
         <v>0.38403375527426159</v>
       </c>
       <c r="Q44" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.35332997819157858</v>
       </c>
       <c r="R44" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.40663553356102322</v>
       </c>
       <c r="S44" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.4131507721700366</v>
       </c>
       <c r="T44" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.38555506580190163</v>
       </c>
       <c r="U44" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.32853812475123673</v>
       </c>
       <c r="V44" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.35382015945931677</v>
       </c>
       <c r="W44" s="5"/>
@@ -5273,74 +5273,74 @@
         <v>43</v>
       </c>
       <c r="C45" s="17">
-        <f t="shared" ref="C45:J45" si="65">C30/C29</f>
+        <f t="shared" ref="C45:J45" si="66">C30/C29</f>
         <v>0.17265026220250101</v>
       </c>
       <c r="D45" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.2474591250552364</v>
       </c>
       <c r="E45" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.33247339567881329</v>
       </c>
       <c r="F45" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.12274645186037592</v>
       </c>
       <c r="G45" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.24752837788355914</v>
       </c>
       <c r="H45" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.23669783940664302</v>
       </c>
       <c r="I45" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.21304347826086956</v>
       </c>
       <c r="J45" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.29893726431265</v>
       </c>
       <c r="K45" s="17">
-        <f t="shared" ref="K45:L45" si="66">K30/K29</f>
+        <f t="shared" ref="K45:L45" si="67">K30/K29</f>
         <v>0.2002430872075357</v>
       </c>
       <c r="L45" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.19042056074766356</v>
       </c>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17"/>
       <c r="P45" s="17">
-        <f t="shared" ref="P45:V45" si="67">P30/P29</f>
+        <f t="shared" ref="P45:V45" si="68">P30/P29</f>
         <v>0.2291256676974979</v>
       </c>
       <c r="Q45" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.23227309562398704</v>
       </c>
       <c r="R45" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.2170181685383</v>
       </c>
       <c r="S45" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.2183616742969261</v>
       </c>
       <c r="T45" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.19288292934502321</v>
       </c>
       <c r="U45" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.22382775119617224</v>
       </c>
       <c r="V45" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.24731535371751784</v>
       </c>
       <c r="W45" s="5"/>
@@ -5698,23 +5698,23 @@
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6">
-        <f t="shared" ref="P52:T52" si="68">SUM(P53:P55)</f>
+        <f t="shared" ref="P52:T52" si="69">SUM(P53:P55)</f>
         <v>8804</v>
       </c>
       <c r="Q52" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>9235</v>
       </c>
       <c r="R52" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>9591</v>
       </c>
       <c r="S52" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>8720</v>
       </c>
       <c r="T52" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>9886</v>
       </c>
       <c r="U52" s="6">
@@ -6005,23 +6005,23 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
       <c r="P57" s="15">
-        <f t="shared" ref="P57:T57" si="69">SUM(P49:P52,P56)</f>
+        <f t="shared" ref="P57:T57" si="70">SUM(P49:P52,P56)</f>
         <v>19442</v>
       </c>
       <c r="Q57" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>20514</v>
       </c>
       <c r="R57" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>21492</v>
       </c>
       <c r="S57" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>17717</v>
       </c>
       <c r="T57" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>19619</v>
       </c>
       <c r="U57" s="15">
@@ -6072,23 +6072,23 @@
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6">
-        <f t="shared" ref="P58:T58" si="70">SUM(P59:P63)</f>
+        <f t="shared" ref="P58:T58" si="71">SUM(P59:P63)</f>
         <v>7201</v>
       </c>
       <c r="Q58" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>6631</v>
       </c>
       <c r="R58" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>6365</v>
       </c>
       <c r="S58" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>6168</v>
       </c>
       <c r="T58" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>6710</v>
       </c>
       <c r="U58" s="6">
@@ -6739,23 +6739,23 @@
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
       <c r="P69" s="15">
-        <f t="shared" ref="P69:T69" si="71">SUM(P58,P64:P68)</f>
+        <f t="shared" ref="P69:T69" si="72">SUM(P58,P64:P68)</f>
         <v>20359</v>
       </c>
       <c r="Q69" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>22361</v>
       </c>
       <c r="R69" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>23323</v>
       </c>
       <c r="S69" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>23573</v>
       </c>
       <c r="T69" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>42062</v>
       </c>
       <c r="U69" s="15">
@@ -6849,31 +6849,31 @@
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
       <c r="P71" s="15">
-        <f t="shared" ref="P71:V71" si="72">P69+P57</f>
+        <f t="shared" ref="P71:V71" si="73">P69+P57</f>
         <v>39801</v>
       </c>
       <c r="Q71" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>42875</v>
       </c>
       <c r="R71" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>44815</v>
       </c>
       <c r="S71" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>41290</v>
       </c>
       <c r="T71" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>61681</v>
       </c>
       <c r="U71" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>65304</v>
       </c>
       <c r="V71" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>61784</v>
       </c>
       <c r="W71" s="6"/>
@@ -7139,23 +7139,23 @@
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
       <c r="P76" s="6">
-        <f t="shared" ref="P76:T76" si="73">SUM(P77:P81)</f>
+        <f t="shared" ref="P76:T76" si="74">SUM(P77:P81)</f>
         <v>9763</v>
       </c>
       <c r="Q76" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>11349</v>
       </c>
       <c r="R76" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>12376</v>
       </c>
       <c r="S76" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>11876</v>
       </c>
       <c r="T76" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>13972</v>
       </c>
       <c r="U76" s="6">
@@ -7566,7 +7566,7 @@
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
       <c r="P83" s="15">
-        <f t="shared" ref="P83:T83" si="74">SUM(P73:P76,P82)</f>
+        <f t="shared" ref="P83:T83" si="75">SUM(P73:P76,P82)</f>
         <v>17191</v>
       </c>
       <c r="Q83" s="15">
@@ -7574,15 +7574,15 @@
         <v>18833</v>
       </c>
       <c r="R83" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>19615</v>
       </c>
       <c r="S83" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>19255</v>
       </c>
       <c r="T83" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>27336</v>
       </c>
       <c r="U83" s="15">
@@ -7873,23 +7873,23 @@
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
       <c r="P88" s="15">
-        <f t="shared" ref="P88:T88" si="75">SUM(P84:P87)</f>
+        <f t="shared" ref="P88:T88" si="76">SUM(P84:P87)</f>
         <v>33349</v>
       </c>
       <c r="Q88" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>33641</v>
       </c>
       <c r="R88" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>35831</v>
       </c>
       <c r="S88" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>30243</v>
       </c>
       <c r="T88" s="15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>40656</v>
       </c>
       <c r="U88" s="15">
@@ -7984,23 +7984,23 @@
       <c r="N90" s="6"/>
       <c r="O90" s="6"/>
       <c r="P90" s="15">
-        <f t="shared" ref="P90:T90" si="76">P83+P88</f>
+        <f t="shared" ref="P90:T90" si="77">P83+P88</f>
         <v>50540</v>
       </c>
       <c r="Q90" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>52474</v>
       </c>
       <c r="R90" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>55446</v>
       </c>
       <c r="S90" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>49498</v>
       </c>
       <c r="T90" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>67992</v>
       </c>
       <c r="U90" s="15">
@@ -8455,23 +8455,23 @@
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
       <c r="P98" s="15">
-        <f t="shared" ref="P98:T98" si="77">SUM(P92:P97)</f>
+        <f t="shared" ref="P98:T98" si="78">SUM(P92:P97)</f>
         <v>-10739</v>
       </c>
       <c r="Q98" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>-9599</v>
       </c>
       <c r="R98" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>-10631</v>
       </c>
       <c r="S98" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>-8208</v>
       </c>
       <c r="T98" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>-6311</v>
       </c>
       <c r="U98" s="15">
@@ -8566,23 +8566,23 @@
       <c r="N100" s="6"/>
       <c r="O100" s="6"/>
       <c r="P100" s="15">
-        <f t="shared" ref="P100:T100" si="78">P90+P98</f>
+        <f t="shared" ref="P100:T100" si="79">P90+P98</f>
         <v>39801</v>
       </c>
       <c r="Q100" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>42875</v>
       </c>
       <c r="R100" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>44815</v>
       </c>
       <c r="S100" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>41290</v>
       </c>
       <c r="T100" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>61681</v>
       </c>
       <c r="U100" s="15">
@@ -8770,31 +8770,31 @@
       <c r="N104" s="6"/>
       <c r="O104" s="6"/>
       <c r="P104" s="6">
-        <f t="shared" ref="P104:V104" si="79">P32</f>
+        <f t="shared" ref="P104:V104" si="80">P32</f>
         <v>8286</v>
       </c>
       <c r="Q104" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>7728</v>
       </c>
       <c r="R104" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>8592</v>
       </c>
       <c r="S104" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>9710</v>
       </c>
       <c r="T104" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>9527</v>
       </c>
       <c r="U104" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>8268</v>
       </c>
       <c r="V104" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>7503</v>
       </c>
       <c r="W104" s="6"/>
@@ -9544,23 +9544,23 @@
       <c r="N117" s="6"/>
       <c r="O117" s="6"/>
       <c r="P117" s="6">
-        <f t="shared" ref="P117:T117" si="80">SUM(P110:P116)</f>
+        <f t="shared" ref="P117:T117" si="81">SUM(P110:P116)</f>
         <v>306</v>
       </c>
       <c r="Q117" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1168</v>
       </c>
       <c r="R117" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>396</v>
       </c>
       <c r="S117" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1298</v>
       </c>
       <c r="T117" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>414</v>
       </c>
       <c r="U117" s="6">
@@ -9611,23 +9611,23 @@
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="15">
-        <f t="shared" ref="P118:T118" si="81">SUM(P104:P108,P117)</f>
+        <f t="shared" ref="P118:T118" si="82">SUM(P104:P108,P117)</f>
         <v>9478</v>
       </c>
       <c r="Q118" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>10090</v>
       </c>
       <c r="R118" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>9812</v>
       </c>
       <c r="S118" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>11967</v>
       </c>
       <c r="T118" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>10803</v>
       </c>
       <c r="U118" s="15">
@@ -10100,23 +10100,23 @@
       <c r="N126" s="6"/>
       <c r="O126" s="6"/>
       <c r="P126" s="15">
-        <f t="shared" ref="P126:T126" si="82">SUM(P119:P125)</f>
+        <f t="shared" ref="P126:T126" si="83">SUM(P119:P125)</f>
         <v>-998</v>
       </c>
       <c r="Q126" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-1811</v>
       </c>
       <c r="R126" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-1154</v>
       </c>
       <c r="S126" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-2358</v>
       </c>
       <c r="T126" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-15679</v>
       </c>
       <c r="U126" s="15">
@@ -10887,27 +10887,27 @@
       <c r="N139" s="6"/>
       <c r="O139" s="6"/>
       <c r="P139" s="15">
-        <f t="shared" ref="P139:U139" si="83">SUM(P127:P138)</f>
+        <f t="shared" ref="P139:U139" si="84">SUM(P127:P138)</f>
         <v>-9651</v>
       </c>
       <c r="Q139" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>-8061</v>
       </c>
       <c r="R139" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>-8496</v>
       </c>
       <c r="S139" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>-11977</v>
       </c>
       <c r="T139" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>3806</v>
       </c>
       <c r="U139" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>-5582</v>
       </c>
       <c r="V139" s="15">
@@ -11057,23 +11057,23 @@
       <c r="N142" s="6"/>
       <c r="O142" s="6"/>
       <c r="P142" s="15">
-        <f t="shared" ref="P142:T142" si="84">P141+P139+P126+P118</f>
+        <f t="shared" ref="P142:T142" si="85">P141+P139+P126+P118</f>
         <v>-1856</v>
       </c>
       <c r="Q142" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>245</v>
       </c>
       <c r="R142" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>420</v>
       </c>
       <c r="S142" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-2785</v>
       </c>
       <c r="T142" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-1283</v>
       </c>
       <c r="U142" s="15">
@@ -14241,30 +14241,30 @@
       <c r="B2" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="39">
         <v>18</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="39">
         <f>C2+1</f>
         <v>19</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="39">
         <f t="shared" ref="E2:H2" si="0">D2+1</f>
         <v>20</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="39">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="39">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="39">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="39">
         <f>H2+1</f>
         <v>24</v>
       </c>
@@ -14316,8 +14316,8 @@
         <v>-0.71499493414387028</v>
       </c>
       <c r="J4" s="17"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
       <c r="N4" s="2" t="s">
         <v>240</v>
       </c>
@@ -14332,8 +14332,8 @@
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
       <c r="N5" s="2" t="s">
         <v>153</v>
       </c>
@@ -14370,8 +14370,8 @@
         <f>(Model!V26*(1-Model!V45))/(Model!V98+Model!V74+Model!V84+Model!V73-Model!V49)</f>
         <v>0.31913314655565894</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
       <c r="N6" s="2" t="s">
         <v>155</v>
       </c>
@@ -14386,8 +14386,8 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
       <c r="N7" s="2" t="s">
         <v>157</v>
       </c>
@@ -14396,14 +14396,14 @@
       <c r="B8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
       <c r="N8" s="2" t="s">
         <v>159</v>
       </c>
@@ -14418,8 +14418,8 @@
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
       <c r="N9" s="2" t="s">
         <v>161</v>
       </c>
@@ -14428,14 +14428,14 @@
       <c r="B10" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
       <c r="N10" s="2" t="s">
         <v>162</v>
       </c>
@@ -14458,8 +14458,8 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
       <c r="N14" s="2" t="s">
         <v>165</v>
       </c>
@@ -14474,8 +14474,8 @@
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
       <c r="N15" s="2" t="s">
         <v>167</v>
       </c>
@@ -14490,8 +14490,8 @@
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
       <c r="N16" s="2" t="s">
         <v>242</v>
       </c>
@@ -14506,8 +14506,8 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
       <c r="N17" s="2" t="s">
         <v>169</v>
       </c>
@@ -14522,8 +14522,8 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
       <c r="N18" s="2" t="s">
         <v>171</v>
       </c>
@@ -14540,14 +14540,14 @@
       <c r="B21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
       <c r="N21" s="2" t="s">
         <v>174</v>
       </c>
@@ -14556,14 +14556,14 @@
       <c r="B22" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
       <c r="N22" s="2" t="s">
         <v>176</v>
       </c>
@@ -14572,14 +14572,14 @@
       <c r="B23" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
       <c r="N23" s="2" t="s">
         <v>178</v>
       </c>
@@ -14588,14 +14588,14 @@
       <c r="B24" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
       <c r="N24" s="2" t="s">
         <v>180</v>
       </c>
@@ -14604,14 +14604,14 @@
       <c r="B25" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
       <c r="N25" s="2" t="s">
         <v>181</v>
       </c>
@@ -14633,36 +14633,36 @@
       <c r="B29" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
       <c r="N31" s="2" t="s">
         <v>185</v>
       </c>
@@ -14671,14 +14671,14 @@
       <c r="B32" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
       <c r="N32" s="2" t="s">
         <v>187</v>
       </c>
@@ -14687,14 +14687,14 @@
       <c r="B33" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
       <c r="N33" s="2" t="s">
         <v>188</v>
       </c>
@@ -14703,21 +14703,21 @@
       <c r="B34" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
       <c r="N35" s="2" t="s">
         <v>190</v>
       </c>
@@ -14726,14 +14726,14 @@
       <c r="B36" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
       <c r="N36" s="2" t="s">
         <v>191</v>
       </c>
@@ -14742,14 +14742,14 @@
       <c r="B37" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
       <c r="N37" s="2" t="s">
         <v>192</v>
       </c>
@@ -14758,14 +14758,14 @@
       <c r="B38" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
       <c r="N38" s="2" t="s">
         <v>194</v>
       </c>
@@ -14796,47 +14796,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="E3" s="45"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="45" t="s">
         <v>238</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="46">
         <f>Main!K3</f>
         <v>165.35</v>
       </c>
@@ -14845,13 +14845,13 @@
       <c r="B5" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="47">
         <v>45504</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="46">
         <f ca="1">V61</f>
         <v>150.25583036279622</v>
       </c>
@@ -14860,77 +14860,77 @@
       <c r="B6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="48">
         <v>45657</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="49">
         <f ca="1">J5/J4-1</f>
         <v>-9.1286178634434667E-2</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
+      <c r="A9" s="50"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="G10" s="53" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="G10" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="L10" s="53" t="s">
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="L10" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="Q10" s="53" t="s">
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="Q10" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="12" t="s">
         <v>209</v>
       </c>
@@ -14966,7 +14966,7 @@
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="54">
         <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -14984,7 +14984,7 @@
       <c r="B13" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="54">
         <v>2</v>
       </c>
     </row>
@@ -14992,7 +14992,7 @@
       <c r="B14" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="54">
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -15009,7 +15009,7 @@
       <c r="B15" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="54">
         <v>2</v>
       </c>
     </row>
@@ -15022,118 +15022,118 @@
       <c r="B18" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="55">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="J18" s="56"/>
+      <c r="J18" s="55"/>
       <c r="L18" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="O18" s="56">
+      <c r="O18" s="55">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="T18" s="56"/>
+      <c r="T18" s="55"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="55">
         <f>CHOOSE(E15,J19,O19,T19)</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J19" s="56"/>
+      <c r="J19" s="55"/>
       <c r="L19" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="O19" s="56">
+      <c r="O19" s="55">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="T19" s="56"/>
+      <c r="T19" s="55"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="57">
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="56">
         <v>18</v>
       </c>
-      <c r="H23" s="57">
+      <c r="H23" s="56">
         <f>G23+1</f>
         <v>19</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I23" s="56">
         <f t="shared" ref="I23:V23" si="0">H23+1</f>
         <v>20</v>
       </c>
-      <c r="J23" s="57">
+      <c r="J23" s="56">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K23" s="57">
+      <c r="K23" s="56">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="L23" s="57">
+      <c r="L23" s="56">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M23" s="58">
+      <c r="M23" s="57">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="N23" s="58">
+      <c r="N23" s="57">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="O23" s="58">
+      <c r="O23" s="57">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="P23" s="58">
+      <c r="P23" s="57">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="Q23" s="58">
+      <c r="Q23" s="57">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="R23" s="58">
+      <c r="R23" s="57">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="S23" s="58">
+      <c r="S23" s="57">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="T23" s="58">
+      <c r="T23" s="57">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="U23" s="58">
+      <c r="U23" s="57">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="V23" s="58">
+      <c r="V23" s="57">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -15142,140 +15142,140 @@
       <c r="B24" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="41">
         <f>Model!P21</f>
         <v>29625</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="41">
         <f>Model!Q21</f>
         <v>29805</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="41">
         <f>Model!R21</f>
         <v>28694</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="41">
         <f>Model!S21</f>
         <v>31405</v>
       </c>
-      <c r="K24" s="42">
+      <c r="K24" s="41">
         <f>Model!T21</f>
         <v>31762</v>
       </c>
-      <c r="L24" s="42">
+      <c r="L24" s="41">
         <f>Model!U21</f>
         <v>35174</v>
       </c>
-      <c r="M24" s="42">
+      <c r="M24" s="41">
         <f ca="1">L24*(1+M25)</f>
         <v>36580.959999999999</v>
       </c>
-      <c r="N24" s="42">
+      <c r="N24" s="41">
         <f t="shared" ref="N24:V24" ca="1" si="1">M24*(1+N25)</f>
         <v>38044.198400000001</v>
       </c>
-      <c r="O24" s="42">
+      <c r="O24" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>39565.966336000005</v>
       </c>
-      <c r="P24" s="42">
+      <c r="P24" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>41148.604989440006</v>
       </c>
-      <c r="Q24" s="42">
+      <c r="Q24" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>42794.549189017605</v>
       </c>
-      <c r="R24" s="42">
+      <c r="R24" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>44506.331156578308</v>
       </c>
-      <c r="S24" s="42">
+      <c r="S24" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>46286.584402841443</v>
       </c>
-      <c r="T24" s="42">
+      <c r="T24" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>48138.047778955101</v>
       </c>
-      <c r="U24" s="42">
+      <c r="U24" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>50063.569690113305</v>
       </c>
-      <c r="V24" s="42">
+      <c r="V24" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>52066.112477717841</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="58" t="s">
         <v>218</v>
       </c>
       <c r="C25" s="20"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="61">
+      <c r="G25" s="59"/>
+      <c r="H25" s="60">
         <f>H24/G24-1</f>
         <v>6.0759493670885512E-3</v>
       </c>
-      <c r="I25" s="61">
+      <c r="I25" s="60">
         <f t="shared" ref="I25:L25" si="2">I24/H24-1</f>
         <v>-3.7275624895151793E-2</v>
       </c>
-      <c r="J25" s="61">
+      <c r="J25" s="60">
         <f t="shared" si="2"/>
         <v>9.4479682163518541E-2</v>
       </c>
-      <c r="K25" s="61">
+      <c r="K25" s="60">
         <f t="shared" si="2"/>
         <v>1.1367616621557053E-2</v>
       </c>
-      <c r="L25" s="61">
+      <c r="L25" s="60">
         <f t="shared" si="2"/>
         <v>0.10742396574523005</v>
       </c>
-      <c r="M25" s="61" cm="1">
+      <c r="M25" s="60" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">OFFSET(M25,$E$12,,)</f>
         <v>0.04</v>
       </c>
-      <c r="N25" s="61" cm="1">
+      <c r="N25" s="60" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">OFFSET(N25,$E$12,,)</f>
         <v>0.04</v>
       </c>
-      <c r="O25" s="61" cm="1">
+      <c r="O25" s="60" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">OFFSET(O25,$E$12,,)</f>
         <v>0.04</v>
       </c>
-      <c r="P25" s="61" cm="1">
+      <c r="P25" s="60" cm="1">
         <f t="array" aca="1" ref="P25" ca="1">OFFSET(P25,$E$12,,)</f>
         <v>0.04</v>
       </c>
-      <c r="Q25" s="61" cm="1">
+      <c r="Q25" s="60" cm="1">
         <f t="array" aca="1" ref="Q25" ca="1">OFFSET(Q25,$E$12,,)</f>
         <v>0.04</v>
       </c>
-      <c r="R25" s="61" cm="1">
+      <c r="R25" s="60" cm="1">
         <f t="array" aca="1" ref="R25" ca="1">OFFSET(R25,$E$12,,)</f>
         <v>0.04</v>
       </c>
-      <c r="S25" s="61" cm="1">
+      <c r="S25" s="60" cm="1">
         <f t="array" aca="1" ref="S25" ca="1">OFFSET(S25,$E$12,,)</f>
         <v>0.04</v>
       </c>
-      <c r="T25" s="61" cm="1">
+      <c r="T25" s="60" cm="1">
         <f t="array" aca="1" ref="T25" ca="1">OFFSET(T25,$E$12,,)</f>
         <v>0.04</v>
       </c>
-      <c r="U25" s="61" cm="1">
+      <c r="U25" s="60" cm="1">
         <f t="array" aca="1" ref="U25" ca="1">OFFSET(U25,$E$12,,)</f>
         <v>0.04</v>
       </c>
-      <c r="V25" s="61" cm="1">
+      <c r="V25" s="60" cm="1">
         <f t="array" aca="1" ref="V25" ca="1">OFFSET(V25,$E$12,,)</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="58" t="s">
         <v>206</v>
       </c>
       <c r="C26" s="20"/>
@@ -15284,19 +15284,19 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="58" t="s">
         <v>219</v>
       </c>
       <c r="C27" s="20"/>
@@ -15305,39 +15305,39 @@
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
-      <c r="M27" s="63">
+      <c r="M27" s="62">
         <v>0.04</v>
       </c>
-      <c r="N27" s="63">
+      <c r="N27" s="62">
         <v>0.04</v>
       </c>
-      <c r="O27" s="63">
+      <c r="O27" s="62">
         <v>0.04</v>
       </c>
-      <c r="P27" s="63">
+      <c r="P27" s="62">
         <v>0.04</v>
       </c>
-      <c r="Q27" s="63">
+      <c r="Q27" s="62">
         <v>0.04</v>
       </c>
-      <c r="R27" s="63">
+      <c r="R27" s="62">
         <v>0.04</v>
       </c>
-      <c r="S27" s="63">
+      <c r="S27" s="62">
         <v>0.04</v>
       </c>
-      <c r="T27" s="63">
+      <c r="T27" s="62">
         <v>0.04</v>
       </c>
-      <c r="U27" s="63">
+      <c r="U27" s="62">
         <v>0.04</v>
       </c>
-      <c r="V27" s="63">
+      <c r="V27" s="62">
         <v>0.04</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="58" t="s">
         <v>220</v>
       </c>
       <c r="C28" s="20"/>
@@ -15346,285 +15346,285 @@
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
-      <c r="T28" s="62"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="62"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="41">
         <f>Model!P26</f>
         <v>11377</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="41">
         <f>Model!Q26</f>
         <v>10531</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="41">
         <f>Model!R26</f>
         <v>11668</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="41">
         <f>Model!S26</f>
         <v>12975</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="41">
         <f>Model!T26</f>
         <v>12246</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L30" s="41">
         <f>Model!U26</f>
         <v>11556</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="41">
         <f ca="1">M31*M24</f>
         <v>13900.764799999999</v>
       </c>
-      <c r="N30" s="42">
+      <c r="N30" s="41">
         <f t="shared" ref="N30:V30" ca="1" si="3">N31*N24</f>
         <v>14456.795392</v>
       </c>
-      <c r="O30" s="42">
+      <c r="O30" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>15035.067207680002</v>
       </c>
-      <c r="P30" s="42">
+      <c r="P30" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>15636.469895987202</v>
       </c>
-      <c r="Q30" s="42">
+      <c r="Q30" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>16261.92869182669</v>
       </c>
-      <c r="R30" s="42">
+      <c r="R30" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>16912.405839499756</v>
       </c>
-      <c r="S30" s="42">
+      <c r="S30" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>17588.902073079749</v>
       </c>
-      <c r="T30" s="42">
+      <c r="T30" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>18292.45815600294</v>
       </c>
-      <c r="U30" s="42">
+      <c r="U30" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>19024.156482243056</v>
       </c>
-      <c r="V30" s="42">
+      <c r="V30" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>19785.122741532781</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="G31" s="61">
+      <c r="G31" s="60">
         <f>G30/G24</f>
         <v>0.38403375527426159</v>
       </c>
-      <c r="H31" s="61">
+      <c r="H31" s="60">
         <f t="shared" ref="H31:L31" si="4">H30/H24</f>
         <v>0.35332997819157858</v>
       </c>
-      <c r="I31" s="61">
+      <c r="I31" s="60">
         <f t="shared" si="4"/>
         <v>0.40663553356102322</v>
       </c>
-      <c r="J31" s="61">
+      <c r="J31" s="60">
         <f t="shared" si="4"/>
         <v>0.4131507721700366</v>
       </c>
-      <c r="K31" s="61">
+      <c r="K31" s="60">
         <f t="shared" si="4"/>
         <v>0.38555506580190163</v>
       </c>
-      <c r="L31" s="61">
+      <c r="L31" s="60">
         <f t="shared" si="4"/>
         <v>0.32853812475123673</v>
       </c>
-      <c r="M31" s="61" cm="1">
+      <c r="M31" s="60" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">OFFSET(M31,$E$13,,)</f>
         <v>0.38</v>
       </c>
-      <c r="N31" s="61" cm="1">
+      <c r="N31" s="60" cm="1">
         <f t="array" aca="1" ref="N31" ca="1">OFFSET(N31,$E$13,,)</f>
         <v>0.38</v>
       </c>
-      <c r="O31" s="61" cm="1">
+      <c r="O31" s="60" cm="1">
         <f t="array" aca="1" ref="O31" ca="1">OFFSET(O31,$E$13,,)</f>
         <v>0.38</v>
       </c>
-      <c r="P31" s="61" cm="1">
+      <c r="P31" s="60" cm="1">
         <f t="array" aca="1" ref="P31" ca="1">OFFSET(P31,$E$13,,)</f>
         <v>0.38</v>
       </c>
-      <c r="Q31" s="61" cm="1">
+      <c r="Q31" s="60" cm="1">
         <f t="array" aca="1" ref="Q31" ca="1">OFFSET(Q31,$E$13,,)</f>
         <v>0.38</v>
       </c>
-      <c r="R31" s="61" cm="1">
+      <c r="R31" s="60" cm="1">
         <f t="array" aca="1" ref="R31" ca="1">OFFSET(R31,$E$13,,)</f>
         <v>0.38</v>
       </c>
-      <c r="S31" s="61" cm="1">
+      <c r="S31" s="60" cm="1">
         <f t="array" aca="1" ref="S31" ca="1">OFFSET(S31,$E$13,,)</f>
         <v>0.38</v>
       </c>
-      <c r="T31" s="61" cm="1">
+      <c r="T31" s="60" cm="1">
         <f t="array" aca="1" ref="T31" ca="1">OFFSET(T31,$E$13,,)</f>
         <v>0.38</v>
       </c>
-      <c r="U31" s="61" cm="1">
+      <c r="U31" s="60" cm="1">
         <f t="array" aca="1" ref="U31" ca="1">OFFSET(U31,$E$13,,)</f>
         <v>0.38</v>
       </c>
-      <c r="V31" s="61" cm="1">
+      <c r="V31" s="60" cm="1">
         <f t="array" aca="1" ref="V31" ca="1">OFFSET(V31,$E$13,,)</f>
         <v>0.38</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="63"/>
-      <c r="V32" s="63"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="M33" s="63">
+      <c r="M33" s="62">
         <v>0.38</v>
       </c>
-      <c r="N33" s="63">
+      <c r="N33" s="62">
         <v>0.38</v>
       </c>
-      <c r="O33" s="63">
+      <c r="O33" s="62">
         <v>0.38</v>
       </c>
-      <c r="P33" s="63">
+      <c r="P33" s="62">
         <v>0.38</v>
       </c>
-      <c r="Q33" s="63">
+      <c r="Q33" s="62">
         <v>0.38</v>
       </c>
-      <c r="R33" s="63">
+      <c r="R33" s="62">
         <v>0.38</v>
       </c>
-      <c r="S33" s="63">
+      <c r="S33" s="62">
         <v>0.38</v>
       </c>
-      <c r="T33" s="63">
+      <c r="T33" s="62">
         <v>0.38</v>
       </c>
-      <c r="U33" s="63">
+      <c r="U33" s="62">
         <v>0.38</v>
       </c>
-      <c r="V33" s="63">
+      <c r="V33" s="62">
         <v>0.38</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="63"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="G36" s="42">
+      <c r="G36" s="41">
         <f>Model!P30</f>
         <v>2445</v>
       </c>
-      <c r="H36" s="42">
+      <c r="H36" s="41">
         <f>Model!Q30</f>
         <v>2293</v>
       </c>
-      <c r="I36" s="42">
+      <c r="I36" s="41">
         <f>Model!R30</f>
         <v>2377</v>
       </c>
-      <c r="J36" s="42">
+      <c r="J36" s="41">
         <f>Model!S30</f>
         <v>2671</v>
       </c>
-      <c r="K36" s="42">
+      <c r="K36" s="41">
         <f>Model!T30</f>
         <v>2244</v>
       </c>
-      <c r="L36" s="42">
+      <c r="L36" s="41">
         <f>Model!U30</f>
         <v>2339</v>
       </c>
-      <c r="M36" s="42">
+      <c r="M36" s="41">
         <f ca="1">M37*M30</f>
         <v>2780.1529599999999</v>
       </c>
-      <c r="N36" s="42">
+      <c r="N36" s="41">
         <f t="shared" ref="N36:V36" ca="1" si="5">N37*N30</f>
         <v>2891.3590784000003</v>
       </c>
-      <c r="O36" s="42">
+      <c r="O36" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>3007.0134415360008</v>
       </c>
-      <c r="P36" s="42">
+      <c r="P36" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>3127.2939791974404</v>
       </c>
-      <c r="Q36" s="42">
+      <c r="Q36" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>3252.3857383653381</v>
       </c>
-      <c r="R36" s="42">
+      <c r="R36" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>3382.4811678999513</v>
       </c>
-      <c r="S36" s="42">
+      <c r="S36" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>3517.7804146159501</v>
       </c>
-      <c r="T36" s="42">
+      <c r="T36" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>3658.491631200588</v>
       </c>
-      <c r="U36" s="42">
+      <c r="U36" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>3804.8312964486113</v>
       </c>
-      <c r="V36" s="42">
+      <c r="V36" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>3957.0245483065564</v>
       </c>
@@ -15633,58 +15633,58 @@
       <c r="B37" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="G37" s="61">
+      <c r="G37" s="60">
         <f t="shared" ref="G37:L37" si="6">G36/G30</f>
         <v>0.21490726905159532</v>
       </c>
-      <c r="H37" s="61">
+      <c r="H37" s="60">
         <f t="shared" si="6"/>
         <v>0.21773810654258854</v>
       </c>
-      <c r="I37" s="61">
+      <c r="I37" s="60">
         <f t="shared" si="6"/>
         <v>0.20371957490572506</v>
       </c>
-      <c r="J37" s="61">
+      <c r="J37" s="60">
         <f t="shared" si="6"/>
         <v>0.20585741811175337</v>
       </c>
-      <c r="K37" s="61">
+      <c r="K37" s="60">
         <f t="shared" si="6"/>
         <v>0.18324350808427242</v>
       </c>
-      <c r="L37" s="61">
+      <c r="L37" s="60">
         <f t="shared" si="6"/>
         <v>0.20240567670474213</v>
       </c>
-      <c r="M37" s="61">
+      <c r="M37" s="60">
         <v>0.2</v>
       </c>
-      <c r="N37" s="61">
+      <c r="N37" s="60">
         <v>0.2</v>
       </c>
-      <c r="O37" s="61">
+      <c r="O37" s="60">
         <v>0.2</v>
       </c>
-      <c r="P37" s="61">
+      <c r="P37" s="60">
         <v>0.2</v>
       </c>
-      <c r="Q37" s="61">
+      <c r="Q37" s="60">
         <v>0.2</v>
       </c>
-      <c r="R37" s="61">
+      <c r="R37" s="60">
         <v>0.2</v>
       </c>
-      <c r="S37" s="61">
+      <c r="S37" s="60">
         <v>0.2</v>
       </c>
-      <c r="T37" s="61">
+      <c r="T37" s="60">
         <v>0.2</v>
       </c>
-      <c r="U37" s="61">
+      <c r="U37" s="60">
         <v>0.2</v>
       </c>
-      <c r="V37" s="61">
+      <c r="V37" s="60">
         <v>0.2</v>
       </c>
     </row>
@@ -15692,74 +15692,74 @@
       <c r="B38" s="20"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="66">
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="65">
         <f t="shared" ref="G39:V39" si="7">G30-G36</f>
         <v>8932</v>
       </c>
-      <c r="H39" s="66">
+      <c r="H39" s="65">
         <f t="shared" si="7"/>
         <v>8238</v>
       </c>
-      <c r="I39" s="66">
+      <c r="I39" s="65">
         <f t="shared" si="7"/>
         <v>9291</v>
       </c>
-      <c r="J39" s="66">
+      <c r="J39" s="65">
         <f t="shared" si="7"/>
         <v>10304</v>
       </c>
-      <c r="K39" s="66">
+      <c r="K39" s="65">
         <f t="shared" si="7"/>
         <v>10002</v>
       </c>
-      <c r="L39" s="66">
+      <c r="L39" s="65">
         <f t="shared" si="7"/>
         <v>9217</v>
       </c>
-      <c r="M39" s="66">
+      <c r="M39" s="65">
         <f t="shared" ca="1" si="7"/>
         <v>11120.61184</v>
       </c>
-      <c r="N39" s="66">
+      <c r="N39" s="65">
         <f t="shared" ca="1" si="7"/>
         <v>11565.436313599999</v>
       </c>
-      <c r="O39" s="66">
+      <c r="O39" s="65">
         <f t="shared" ca="1" si="7"/>
         <v>12028.053766144001</v>
       </c>
-      <c r="P39" s="66">
+      <c r="P39" s="65">
         <f t="shared" ca="1" si="7"/>
         <v>12509.175916789762</v>
       </c>
-      <c r="Q39" s="66">
+      <c r="Q39" s="65">
         <f t="shared" ca="1" si="7"/>
         <v>13009.542953461352</v>
       </c>
-      <c r="R39" s="66">
+      <c r="R39" s="65">
         <f t="shared" ca="1" si="7"/>
         <v>13529.924671599805</v>
       </c>
-      <c r="S39" s="66">
+      <c r="S39" s="65">
         <f t="shared" ca="1" si="7"/>
         <v>14071.121658463799</v>
       </c>
-      <c r="T39" s="66">
+      <c r="T39" s="65">
         <f t="shared" ca="1" si="7"/>
         <v>14633.966524802352</v>
       </c>
-      <c r="U39" s="66">
+      <c r="U39" s="65">
         <f t="shared" ca="1" si="7"/>
         <v>15219.325185794445</v>
       </c>
-      <c r="V39" s="67">
+      <c r="V39" s="66">
         <f t="shared" ca="1" si="7"/>
         <v>15828.098193226226</v>
       </c>
@@ -15768,131 +15768,131 @@
       <c r="B41" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G41" s="42">
+      <c r="G41" s="41">
         <f>Model!P105</f>
         <v>989</v>
       </c>
-      <c r="H41" s="42">
+      <c r="H41" s="41">
         <f>Model!Q105</f>
         <v>964</v>
       </c>
-      <c r="I41" s="42">
+      <c r="I41" s="41">
         <f>Model!R105</f>
         <v>981</v>
       </c>
-      <c r="J41" s="42">
+      <c r="J41" s="41">
         <f>Model!S105</f>
         <v>998</v>
       </c>
-      <c r="K41" s="42">
+      <c r="K41" s="41">
         <f>Model!T105</f>
         <v>1077</v>
       </c>
-      <c r="L41" s="42">
+      <c r="L41" s="41">
         <f>Model!U105</f>
         <v>1398</v>
       </c>
-      <c r="M41" s="42">
+      <c r="M41" s="41">
         <f ca="1">M42*M24</f>
         <v>1243.7526400000002</v>
       </c>
-      <c r="N41" s="42">
+      <c r="N41" s="41">
         <f t="shared" ref="N41:V41" ca="1" si="8">N42*N24</f>
         <v>1293.5027456</v>
       </c>
-      <c r="O41" s="42">
+      <c r="O41" s="41">
         <f t="shared" ca="1" si="8"/>
         <v>1345.2428554240003</v>
       </c>
-      <c r="P41" s="42">
+      <c r="P41" s="41">
         <f t="shared" ca="1" si="8"/>
         <v>1399.0525696409602</v>
       </c>
-      <c r="Q41" s="42">
+      <c r="Q41" s="41">
         <f t="shared" ca="1" si="8"/>
         <v>1455.0146724265987</v>
       </c>
-      <c r="R41" s="42">
+      <c r="R41" s="41">
         <f t="shared" ca="1" si="8"/>
         <v>1513.2152593236626</v>
       </c>
-      <c r="S41" s="42">
+      <c r="S41" s="41">
         <f t="shared" ca="1" si="8"/>
         <v>1573.7438696966092</v>
       </c>
-      <c r="T41" s="42">
+      <c r="T41" s="41">
         <f t="shared" ca="1" si="8"/>
         <v>1636.6936244844735</v>
       </c>
-      <c r="U41" s="42">
+      <c r="U41" s="41">
         <f t="shared" ca="1" si="8"/>
         <v>1702.1613694638525</v>
       </c>
-      <c r="V41" s="42">
+      <c r="V41" s="41">
         <f t="shared" ca="1" si="8"/>
         <v>1770.2478242424068</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="68">
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="67">
         <f t="shared" ref="G42:L42" si="9">G41/G24</f>
         <v>3.3383966244725741E-2</v>
       </c>
-      <c r="H42" s="68">
+      <c r="H42" s="67">
         <f t="shared" si="9"/>
         <v>3.234356651568529E-2</v>
       </c>
-      <c r="I42" s="68">
+      <c r="I42" s="67">
         <f t="shared" si="9"/>
         <v>3.4188332055481982E-2</v>
       </c>
-      <c r="J42" s="68">
+      <c r="J42" s="67">
         <f t="shared" si="9"/>
         <v>3.1778379238974683E-2</v>
       </c>
-      <c r="K42" s="68">
+      <c r="K42" s="67">
         <f t="shared" si="9"/>
         <v>3.3908444052641519E-2</v>
       </c>
-      <c r="L42" s="68">
+      <c r="L42" s="67">
         <f t="shared" si="9"/>
         <v>3.9745266389947118E-2</v>
       </c>
-      <c r="M42" s="69">
+      <c r="M42" s="68">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="N42" s="69">
+      <c r="N42" s="68">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="O42" s="69">
+      <c r="O42" s="68">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="P42" s="69">
+      <c r="P42" s="68">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q42" s="69">
+      <c r="Q42" s="68">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="R42" s="69">
+      <c r="R42" s="68">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="S42" s="69">
+      <c r="S42" s="68">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="T42" s="69">
+      <c r="T42" s="68">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="U42" s="69">
+      <c r="U42" s="68">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="V42" s="69">
+      <c r="V42" s="68">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
@@ -15900,127 +15900,127 @@
       <c r="B44" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G44" s="42">
+      <c r="G44" s="41">
         <f>-Model!P119</f>
         <v>1436</v>
       </c>
-      <c r="H44" s="42">
+      <c r="H44" s="41">
         <f>-Model!Q119</f>
         <v>852</v>
       </c>
-      <c r="I44" s="42">
+      <c r="I44" s="41">
         <f>-Model!R119</f>
         <v>602</v>
       </c>
-      <c r="J44" s="42">
+      <c r="J44" s="41">
         <f>-Model!S119</f>
         <v>748</v>
       </c>
-      <c r="K44" s="42">
+      <c r="K44" s="41">
         <f>-Model!T119</f>
         <v>1077</v>
       </c>
-      <c r="L44" s="42">
+      <c r="L44" s="41">
         <f>-Model!U119</f>
         <v>1321</v>
       </c>
-      <c r="M44" s="42">
+      <c r="M44" s="41">
         <f ca="1">M45*M24</f>
         <v>1390.0764799999999</v>
       </c>
-      <c r="N44" s="42">
+      <c r="N44" s="41">
         <f t="shared" ref="N44:V44" ca="1" si="10">N45*N24</f>
         <v>1445.6795391999999</v>
       </c>
-      <c r="O44" s="42">
+      <c r="O44" s="41">
         <f t="shared" ca="1" si="10"/>
         <v>1503.5067207680002</v>
       </c>
-      <c r="P44" s="42">
+      <c r="P44" s="41">
         <f t="shared" ca="1" si="10"/>
         <v>1563.6469895987202</v>
       </c>
-      <c r="Q44" s="42">
+      <c r="Q44" s="41">
         <f t="shared" ca="1" si="10"/>
         <v>1626.192869182669</v>
       </c>
-      <c r="R44" s="42">
+      <c r="R44" s="41">
         <f t="shared" ca="1" si="10"/>
         <v>1691.2405839499756</v>
       </c>
-      <c r="S44" s="42">
+      <c r="S44" s="41">
         <f t="shared" ca="1" si="10"/>
         <v>1758.8902073079748</v>
       </c>
-      <c r="T44" s="42">
+      <c r="T44" s="41">
         <f t="shared" ca="1" si="10"/>
         <v>1829.2458156002938</v>
       </c>
-      <c r="U44" s="42">
+      <c r="U44" s="41">
         <f t="shared" ca="1" si="10"/>
         <v>1902.4156482243056</v>
       </c>
-      <c r="V44" s="42">
+      <c r="V44" s="41">
         <f t="shared" ca="1" si="10"/>
         <v>1978.512274153278</v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="G45" s="68">
+      <c r="G45" s="67">
         <f t="shared" ref="G45:L45" si="11">G44/G24</f>
         <v>4.8472573839662449E-2</v>
       </c>
-      <c r="H45" s="68">
+      <c r="H45" s="67">
         <f t="shared" si="11"/>
         <v>2.8585807750377452E-2</v>
       </c>
-      <c r="I45" s="68">
+      <c r="I45" s="67">
         <f t="shared" si="11"/>
         <v>2.0979995817941032E-2</v>
       </c>
-      <c r="J45" s="68">
+      <c r="J45" s="67">
         <f t="shared" si="11"/>
         <v>2.3817863397548163E-2</v>
       </c>
-      <c r="K45" s="68">
+      <c r="K45" s="67">
         <f t="shared" si="11"/>
         <v>3.3908444052641519E-2</v>
       </c>
-      <c r="L45" s="68">
+      <c r="L45" s="67">
         <f t="shared" si="11"/>
         <v>3.7556149428555181E-2</v>
       </c>
-      <c r="M45" s="69">
+      <c r="M45" s="68">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="N45" s="69">
+      <c r="N45" s="68">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="O45" s="69">
+      <c r="O45" s="68">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="P45" s="69">
+      <c r="P45" s="68">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="Q45" s="69">
+      <c r="Q45" s="68">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="R45" s="69">
+      <c r="R45" s="68">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="S45" s="69">
+      <c r="S45" s="68">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="T45" s="69">
+      <c r="T45" s="68">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="U45" s="69">
+      <c r="U45" s="68">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="V45" s="69">
+      <c r="V45" s="68">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
@@ -16094,188 +16094,188 @@
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="G48" s="68">
+      <c r="G48" s="67">
         <f t="shared" ref="G48:L48" si="13">G47/G24</f>
         <v>1.0329113924050634E-2</v>
       </c>
-      <c r="H48" s="68">
+      <c r="H48" s="67">
         <f t="shared" si="13"/>
         <v>3.9188055695353129E-2</v>
       </c>
-      <c r="I48" s="68">
+      <c r="I48" s="67">
         <f t="shared" si="13"/>
         <v>1.3800794591203735E-2</v>
       </c>
-      <c r="J48" s="68">
+      <c r="J48" s="67">
         <f t="shared" si="13"/>
         <v>4.1330998248686517E-2</v>
       </c>
-      <c r="K48" s="68">
+      <c r="K48" s="67">
         <f t="shared" si="13"/>
         <v>1.303444367483156E-2</v>
       </c>
-      <c r="L48" s="68">
+      <c r="L48" s="67">
         <f t="shared" si="13"/>
         <v>-2.3938136123272873E-2</v>
       </c>
-      <c r="M48" s="69">
+      <c r="M48" s="68">
         <v>-0.01</v>
       </c>
-      <c r="N48" s="69">
+      <c r="N48" s="68">
         <v>-0.01</v>
       </c>
-      <c r="O48" s="69">
+      <c r="O48" s="68">
         <v>-0.01</v>
       </c>
-      <c r="P48" s="69">
+      <c r="P48" s="68">
         <v>-0.01</v>
       </c>
-      <c r="Q48" s="69">
+      <c r="Q48" s="68">
         <v>-0.01</v>
       </c>
-      <c r="R48" s="69">
+      <c r="R48" s="68">
         <v>-0.01</v>
       </c>
-      <c r="S48" s="69">
+      <c r="S48" s="68">
         <v>-0.01</v>
       </c>
-      <c r="T48" s="69">
+      <c r="T48" s="68">
         <v>-0.01</v>
       </c>
-      <c r="U48" s="69">
+      <c r="U48" s="68">
         <v>-0.01</v>
       </c>
-      <c r="V48" s="69">
+      <c r="V48" s="68">
         <v>-0.01</v>
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B50" s="70" t="s">
+      <c r="B50" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71">
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70">
         <f t="shared" ref="G50:V50" si="14">G39+G41-G44+G47</f>
         <v>8791</v>
       </c>
-      <c r="H50" s="71">
+      <c r="H50" s="70">
         <f t="shared" si="14"/>
         <v>9518</v>
       </c>
-      <c r="I50" s="71">
+      <c r="I50" s="70">
         <f t="shared" si="14"/>
         <v>10066</v>
       </c>
-      <c r="J50" s="71">
+      <c r="J50" s="70">
         <f t="shared" si="14"/>
         <v>11852</v>
       </c>
-      <c r="K50" s="71">
+      <c r="K50" s="70">
         <f t="shared" si="14"/>
         <v>10416</v>
       </c>
-      <c r="L50" s="71">
+      <c r="L50" s="70">
         <f t="shared" si="14"/>
         <v>8452</v>
       </c>
-      <c r="M50" s="71">
+      <c r="M50" s="70">
         <f ca="1">M39+M41-M44+M47</f>
         <v>10608.4784</v>
       </c>
-      <c r="N50" s="71">
+      <c r="N50" s="70">
         <f t="shared" ca="1" si="14"/>
         <v>11032.817536</v>
       </c>
-      <c r="O50" s="71">
+      <c r="O50" s="70">
         <f t="shared" ca="1" si="14"/>
         <v>11474.13023744</v>
       </c>
-      <c r="P50" s="71">
+      <c r="P50" s="70">
         <f t="shared" ca="1" si="14"/>
         <v>11933.095446937601</v>
       </c>
-      <c r="Q50" s="71">
+      <c r="Q50" s="70">
         <f t="shared" ca="1" si="14"/>
         <v>12410.419264815107</v>
       </c>
-      <c r="R50" s="71">
+      <c r="R50" s="70">
         <f t="shared" ca="1" si="14"/>
         <v>12906.836035407709</v>
       </c>
-      <c r="S50" s="71">
+      <c r="S50" s="70">
         <f t="shared" ca="1" si="14"/>
         <v>13423.109476824018</v>
       </c>
-      <c r="T50" s="71">
+      <c r="T50" s="70">
         <f t="shared" ca="1" si="14"/>
         <v>13960.03385589698</v>
       </c>
-      <c r="U50" s="71">
+      <c r="U50" s="70">
         <f t="shared" ca="1" si="14"/>
         <v>14518.435210132859</v>
       </c>
-      <c r="V50" s="72">
+      <c r="V50" s="71">
         <f t="shared" ca="1" si="14"/>
         <v>15099.172618538178</v>
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B51" s="73" t="s">
+      <c r="B51" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="74">
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="73">
         <f t="shared" ref="M51:V51" ca="1" si="15">M50/(1+$D$16)^M52</f>
         <v>10608.4784</v>
       </c>
-      <c r="N51" s="74">
+      <c r="N51" s="73">
         <f t="shared" ca="1" si="15"/>
         <v>11032.817536</v>
       </c>
-      <c r="O51" s="74">
+      <c r="O51" s="73">
         <f t="shared" ca="1" si="15"/>
         <v>11474.13023744</v>
       </c>
-      <c r="P51" s="74">
+      <c r="P51" s="73">
         <f t="shared" ca="1" si="15"/>
         <v>11933.095446937601</v>
       </c>
-      <c r="Q51" s="74">
+      <c r="Q51" s="73">
         <f t="shared" ca="1" si="15"/>
         <v>12410.419264815107</v>
       </c>
-      <c r="R51" s="74">
+      <c r="R51" s="73">
         <f t="shared" ca="1" si="15"/>
         <v>12906.836035407709</v>
       </c>
-      <c r="S51" s="74">
+      <c r="S51" s="73">
         <f t="shared" ca="1" si="15"/>
         <v>13423.109476824018</v>
       </c>
-      <c r="T51" s="74">
+      <c r="T51" s="73">
         <f t="shared" ca="1" si="15"/>
         <v>13960.03385589698</v>
       </c>
-      <c r="U51" s="74">
+      <c r="U51" s="73">
         <f t="shared" ca="1" si="15"/>
         <v>14518.435210132859</v>
       </c>
-      <c r="V51" s="75">
+      <c r="V51" s="74">
         <f t="shared" ca="1" si="15"/>
         <v>15099.172618538178</v>
       </c>
@@ -16284,43 +16284,43 @@
       <c r="B52" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="M52" s="41">
+      <c r="M52" s="40">
         <f>YEARFRAC(E5,E6)</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="N52" s="41">
+      <c r="N52" s="40">
         <f>M52+1</f>
         <v>1.4166666666666667</v>
       </c>
-      <c r="O52" s="41">
+      <c r="O52" s="40">
         <f>N52+1</f>
         <v>2.416666666666667</v>
       </c>
-      <c r="P52" s="41">
+      <c r="P52" s="40">
         <f t="shared" ref="P52:V52" si="16">O52+1</f>
         <v>3.416666666666667</v>
       </c>
-      <c r="Q52" s="41">
+      <c r="Q52" s="40">
         <f t="shared" si="16"/>
         <v>4.416666666666667</v>
       </c>
-      <c r="R52" s="41">
+      <c r="R52" s="40">
         <f t="shared" si="16"/>
         <v>5.416666666666667</v>
       </c>
-      <c r="S52" s="41">
+      <c r="S52" s="40">
         <f t="shared" si="16"/>
         <v>6.416666666666667</v>
       </c>
-      <c r="T52" s="41">
+      <c r="T52" s="40">
         <f t="shared" si="16"/>
         <v>7.416666666666667</v>
       </c>
-      <c r="U52" s="41">
+      <c r="U52" s="40">
         <f t="shared" si="16"/>
         <v>8.4166666666666679</v>
       </c>
-      <c r="V52" s="41">
+      <c r="V52" s="40">
         <f t="shared" si="16"/>
         <v>9.4166666666666679</v>
       </c>
@@ -16329,11 +16329,11 @@
       <c r="B53" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N53" s="42"/>
-      <c r="O53" s="42"/>
-      <c r="P53" s="42"/>
-      <c r="Q53" s="42"/>
-      <c r="V53" s="42">
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="V53" s="41">
         <f ca="1">SUM(M51:V51)</f>
         <v>127366.52808199244</v>
       </c>
@@ -16342,39 +16342,39 @@
       <c r="B54" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="N54" s="42"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="42"/>
-      <c r="Q54" s="42"/>
-      <c r="V54" s="42">
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="V54" s="41">
         <f ca="1">(V50*(1+E19))/(E18-E19)</f>
         <v>278648.36741484085</v>
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="76"/>
-      <c r="O55" s="76"/>
-      <c r="P55" s="76"/>
-      <c r="Q55" s="76"/>
-      <c r="R55" s="76"/>
-      <c r="S55" s="76"/>
-      <c r="T55" s="76"/>
-      <c r="U55" s="76"/>
-      <c r="V55" s="76">
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="75"/>
+      <c r="O55" s="75"/>
+      <c r="P55" s="75"/>
+      <c r="Q55" s="75"/>
+      <c r="R55" s="75"/>
+      <c r="S55" s="75"/>
+      <c r="T55" s="75"/>
+      <c r="U55" s="75"/>
+      <c r="V55" s="75">
         <f ca="1">V54/(1+E18)^V52</f>
         <v>147353.09528281703</v>
       </c>
@@ -16394,15 +16394,15 @@
       <c r="K56" s="26"/>
       <c r="L56" s="26"/>
       <c r="M56" s="26"/>
-      <c r="N56" s="77"/>
-      <c r="O56" s="77"/>
-      <c r="P56" s="77"/>
-      <c r="Q56" s="77"/>
-      <c r="R56" s="77"/>
-      <c r="S56" s="77"/>
-      <c r="T56" s="77"/>
-      <c r="U56" s="77"/>
-      <c r="V56" s="77">
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="76"/>
+      <c r="Q56" s="76"/>
+      <c r="R56" s="76"/>
+      <c r="S56" s="76"/>
+      <c r="T56" s="76"/>
+      <c r="U56" s="76"/>
+      <c r="V56" s="76">
         <f ca="1">V53+V55</f>
         <v>274719.62336480943</v>
       </c>
@@ -16411,39 +16411,39 @@
       <c r="B57" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="N57" s="42"/>
-      <c r="O57" s="42"/>
-      <c r="P57" s="42"/>
-      <c r="Q57" s="42"/>
-      <c r="V57" s="42">
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="41"/>
+      <c r="V57" s="41">
         <f>Main!K6</f>
         <v>4138</v>
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="76"/>
-      <c r="O58" s="76"/>
-      <c r="P58" s="76"/>
-      <c r="Q58" s="76"/>
-      <c r="R58" s="76"/>
-      <c r="S58" s="76"/>
-      <c r="T58" s="76"/>
-      <c r="U58" s="76"/>
-      <c r="V58" s="76">
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="75"/>
+      <c r="O58" s="75"/>
+      <c r="P58" s="75"/>
+      <c r="Q58" s="75"/>
+      <c r="R58" s="75"/>
+      <c r="S58" s="75"/>
+      <c r="T58" s="75"/>
+      <c r="U58" s="75"/>
+      <c r="V58" s="75">
         <f>Main!K7</f>
         <v>44971</v>
       </c>
@@ -16452,39 +16452,39 @@
       <c r="B59" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="42"/>
-      <c r="Q59" s="42"/>
-      <c r="V59" s="42">
+      <c r="N59" s="41"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="41"/>
+      <c r="Q59" s="41"/>
+      <c r="V59" s="41">
         <f ca="1">V56+V57-V58</f>
         <v>233886.62336480943</v>
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="76"/>
-      <c r="O60" s="76"/>
-      <c r="P60" s="76"/>
-      <c r="Q60" s="76"/>
-      <c r="R60" s="76"/>
-      <c r="S60" s="76"/>
-      <c r="T60" s="76"/>
-      <c r="U60" s="76"/>
-      <c r="V60" s="76">
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="75"/>
+      <c r="O60" s="75"/>
+      <c r="P60" s="75"/>
+      <c r="Q60" s="75"/>
+      <c r="R60" s="75"/>
+      <c r="S60" s="75"/>
+      <c r="T60" s="75"/>
+      <c r="U60" s="75"/>
+      <c r="V60" s="75">
         <f>Main!K4</f>
         <v>1556.5893369999999</v>
       </c>
@@ -16493,141 +16493,141 @@
       <c r="B61" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="V61" s="41">
+      <c r="V61" s="40">
         <f ca="1">V59/V60</f>
         <v>150.25583036279622</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A65" s="51" t="s">
+      <c r="A65" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="52" t="s">
+      <c r="B65" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="C65" s="52"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="52"/>
-      <c r="S65" s="52"/>
-      <c r="T65" s="52"/>
-      <c r="U65" s="52"/>
-      <c r="V65" s="52"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="51"/>
+      <c r="O65" s="51"/>
+      <c r="P65" s="51"/>
+      <c r="Q65" s="51"/>
+      <c r="R65" s="51"/>
+      <c r="S65" s="51"/>
+      <c r="T65" s="51"/>
+      <c r="U65" s="51"/>
+      <c r="V65" s="51"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B67" s="78"/>
-      <c r="C67" s="83" t="s">
+      <c r="B67" s="77"/>
+      <c r="C67" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
-      <c r="J67" s="84"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="82"/>
+      <c r="I67" s="82"/>
+      <c r="J67" s="83"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B68" s="85" t="s">
+      <c r="B68" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="C68" s="79"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="80"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="80"/>
-      <c r="I68" s="80"/>
-      <c r="J68" s="80"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="79"/>
+      <c r="I68" s="79"/>
+      <c r="J68" s="79"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="85"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="82"/>
-      <c r="H69" s="82"/>
-      <c r="I69" s="82"/>
-      <c r="J69" s="82"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
+      <c r="H69" s="81"/>
+      <c r="I69" s="81"/>
+      <c r="J69" s="81"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="85"/>
-      <c r="C70" s="81"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="82"/>
-      <c r="H70" s="82"/>
-      <c r="I70" s="82"/>
-      <c r="J70" s="82"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="81"/>
+      <c r="I70" s="81"/>
+      <c r="J70" s="81"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="85"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="82"/>
-      <c r="H71" s="82"/>
-      <c r="I71" s="82"/>
-      <c r="J71" s="82"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="81"/>
+      <c r="I71" s="81"/>
+      <c r="J71" s="81"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="85"/>
-      <c r="C72" s="81"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="82"/>
-      <c r="H72" s="82"/>
-      <c r="I72" s="82"/>
-      <c r="J72" s="82"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="81"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="81"/>
+      <c r="I72" s="81"/>
+      <c r="J72" s="81"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="85"/>
-      <c r="C73" s="81"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="82"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="82"/>
-      <c r="I73" s="82"/>
-      <c r="J73" s="82"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="81"/>
+      <c r="E73" s="81"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="81"/>
+      <c r="I73" s="81"/>
+      <c r="J73" s="81"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="85"/>
-      <c r="C74" s="81"/>
-      <c r="D74" s="82"/>
-      <c r="E74" s="82"/>
-      <c r="F74" s="82"/>
-      <c r="G74" s="82"/>
-      <c r="H74" s="82"/>
-      <c r="I74" s="82"/>
-      <c r="J74" s="82"/>
+      <c r="B74" s="84"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="81"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="81"/>
+      <c r="H74" s="81"/>
+      <c r="I74" s="81"/>
+      <c r="J74" s="81"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="86"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="82"/>
-      <c r="E75" s="82"/>
-      <c r="F75" s="82"/>
-      <c r="G75" s="82"/>
-      <c r="H75" s="82"/>
-      <c r="I75" s="82"/>
-      <c r="J75" s="82"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="81"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="81"/>
+      <c r="G75" s="81"/>
+      <c r="H75" s="81"/>
+      <c r="I75" s="81"/>
+      <c r="J75" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/PM.xlsx
+++ b/PM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75264364-7EB0-43F8-866B-BD1A113C4A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679DF1DE-F5F1-4FD6-930D-963B6EB6C783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{237199C3-ED65-4E36-BE9B-24893DBB0CE2}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{237199C3-ED65-4E36-BE9B-24893DBB0CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="268">
   <si>
     <t>Philipp Morris</t>
   </si>
@@ -962,6 +962,9 @@
   </si>
   <si>
     <t>EA, AU, PMI GTR</t>
+  </si>
+  <si>
+    <t>FY25</t>
   </si>
 </sst>
 </file>
@@ -987,6 +990,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1082,12 +1091,6 @@
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1319,152 +1322,154 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1821,7 +1826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB38893-A6D1-4F9C-9C30-8A2037A3C6D2}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -1858,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="5">
-        <v>157.97999999999999</v>
+        <v>182.31</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1869,10 +1874,10 @@
         <v>2</v>
       </c>
       <c r="K4" s="6">
-        <v>1556.638749</v>
-      </c>
-      <c r="L4" s="87" t="s">
-        <v>257</v>
+        <v>1556.6795790000001</v>
+      </c>
+      <c r="L4" s="90" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1896,7 +1901,7 @@
       </c>
       <c r="K5" s="6">
         <f>K4*K3</f>
-        <v>245917.78956701997</v>
+        <v>283798.25404749002</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1917,10 +1922,10 @@
         <v>4</v>
       </c>
       <c r="K6" s="6">
-        <v>4037</v>
-      </c>
-      <c r="L6" s="87" t="s">
-        <v>257</v>
+        <v>4872</v>
+      </c>
+      <c r="L6" s="90" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1941,11 +1946,11 @@
         <v>5</v>
       </c>
       <c r="K7" s="6">
-        <f>1880+6339+41863</f>
-        <v>50082</v>
-      </c>
-      <c r="L7" s="87" t="s">
-        <v>257</v>
+        <f>168+3533+45134</f>
+        <v>48835</v>
+      </c>
+      <c r="L7" s="90" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1961,7 +1966,7 @@
       </c>
       <c r="K8" s="6">
         <f>K5-K6+K7</f>
-        <v>291962.78956701997</v>
+        <v>327761.25404749002</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2035,11 +2040,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8C3366-37BF-42AE-A4D4-8E7E11818534}">
   <dimension ref="A1:AQ217"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomRight" activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2117,6 +2122,9 @@
       <c r="V2" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="W2" s="90" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2160,7 +2168,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5">
-        <f t="shared" ref="P3:R3" si="0">P9*(1/P4)+(P10*(P5/1))</f>
+        <f t="shared" ref="P3" si="0">P9*(1/P4)+(P10*(P5/1))</f>
         <v>2773.3773078052436</v>
       </c>
       <c r="Q3" s="5">
@@ -2181,7 +2189,9 @@
       <c r="V3" s="5">
         <v>2618</v>
       </c>
-      <c r="W3" s="5"/>
+      <c r="W3" s="5">
+        <v>2587</v>
+      </c>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
@@ -2229,7 +2239,7 @@
       <c r="L4" s="8">
         <v>0.23400000000000001</v>
       </c>
-      <c r="M4" s="89">
+      <c r="M4" s="84">
         <v>0.23699999999999999</v>
       </c>
       <c r="N4" s="5"/>
@@ -2242,7 +2252,7 @@
         <f>26.2/100</f>
         <v>0.26200000000000001</v>
       </c>
-      <c r="R4" s="89">
+      <c r="R4" s="84">
         <v>0.249</v>
       </c>
       <c r="S4" s="8">
@@ -2256,6 +2266,9 @@
       </c>
       <c r="V4" s="8">
         <v>0.23499999999999999</v>
+      </c>
+      <c r="W4" s="91">
+        <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
@@ -2326,6 +2339,9 @@
       <c r="V5" s="8">
         <v>5.1999999999999998E-2</v>
       </c>
+      <c r="W5" s="91">
+        <v>5.8000000000000003E-2</v>
+      </c>
       <c r="X5" s="9"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
@@ -2391,6 +2407,9 @@
       </c>
       <c r="V6" s="8">
         <v>0.28699999999999998</v>
+      </c>
+      <c r="W6" s="91">
+        <v>0.253</v>
       </c>
       <c r="X6" s="9"/>
     </row>
@@ -2518,7 +2537,9 @@
       <c r="V9" s="5">
         <v>616.827</v>
       </c>
-      <c r="W9" s="5"/>
+      <c r="W9" s="5">
+        <v>607.4</v>
+      </c>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
@@ -2596,7 +2617,9 @@
       <c r="V10" s="5">
         <v>137.74299999999999</v>
       </c>
-      <c r="W10" s="5"/>
+      <c r="W10" s="5">
+        <v>155.1</v>
+      </c>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
@@ -2693,7 +2716,10 @@
         <f>V9+V10</f>
         <v>754.56999999999994</v>
       </c>
-      <c r="W11" s="5"/>
+      <c r="W11" s="5">
+        <f>W9+W10</f>
+        <v>762.5</v>
+      </c>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
@@ -2808,7 +2834,9 @@
       <c r="V13" s="5">
         <v>644</v>
       </c>
-      <c r="W13" s="5"/>
+      <c r="W13" s="5">
+        <v>879.6</v>
+      </c>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
@@ -2886,7 +2914,9 @@
       <c r="V14" s="5">
         <v>239.6</v>
       </c>
-      <c r="W14" s="5"/>
+      <c r="W14" s="5">
+        <v>227.9</v>
+      </c>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
@@ -2964,7 +2994,9 @@
       <c r="V15" s="5">
         <v>134.6</v>
       </c>
-      <c r="W15" s="5"/>
+      <c r="W15" s="5">
+        <v>129.80000000000001</v>
+      </c>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
@@ -3042,7 +3074,9 @@
       <c r="V16" s="5">
         <v>3.4</v>
       </c>
-      <c r="W16" s="5"/>
+      <c r="W16" s="5">
+        <v>2.6</v>
+      </c>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
@@ -3136,7 +3170,10 @@
         <f>+SUM(V13:V16)</f>
         <v>1021.6</v>
       </c>
-      <c r="W17" s="5"/>
+      <c r="W17" s="5">
+        <f>+SUM(W13:W16)</f>
+        <v>1239.8999999999999</v>
+      </c>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
@@ -3190,7 +3227,7 @@
       <c r="AK18" s="5"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="83" t="s">
         <v>263</v>
       </c>
       <c r="C19" s="6">
@@ -3238,7 +3275,7 @@
         <f>9817+3282</f>
         <v>13099</v>
       </c>
-      <c r="R19" s="90">
+      <c r="R19" s="85">
         <f>10792+3378</f>
         <v>14170</v>
       </c>
@@ -3254,7 +3291,9 @@
       <c r="V19" s="6">
         <v>15357</v>
       </c>
-      <c r="W19" s="6"/>
+      <c r="W19" s="6">
+        <v>17111</v>
+      </c>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
@@ -3275,7 +3314,7 @@
       <c r="AO19" s="6"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="83" t="s">
         <v>264</v>
       </c>
       <c r="C20" s="6">
@@ -3339,7 +3378,9 @@
       <c r="V20" s="6">
         <v>11261</v>
       </c>
-      <c r="W20" s="6"/>
+      <c r="W20" s="6">
+        <v>12051</v>
+      </c>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
@@ -3360,7 +3401,7 @@
       <c r="AO20" s="6"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="83" t="s">
         <v>266</v>
       </c>
       <c r="C21" s="6">
@@ -3421,7 +3462,9 @@
       <c r="V21" s="6">
         <v>6393</v>
       </c>
-      <c r="W21" s="6"/>
+      <c r="W21" s="6">
+        <v>6632</v>
+      </c>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
@@ -3442,7 +3485,7 @@
       <c r="AO21" s="6"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="83" t="s">
         <v>265</v>
       </c>
       <c r="C22" s="6">
@@ -3503,7 +3546,9 @@
       <c r="V22" s="6">
         <v>4534</v>
       </c>
-      <c r="W22" s="6"/>
+      <c r="W22" s="6">
+        <v>4854</v>
+      </c>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
@@ -3586,7 +3631,9 @@
       <c r="V23" s="6">
         <v>23218</v>
       </c>
-      <c r="W23" s="6"/>
+      <c r="W23" s="6">
+        <v>23794</v>
+      </c>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
@@ -3662,7 +3709,10 @@
       <c r="V24" s="6">
         <v>14327</v>
       </c>
-      <c r="W24" s="6"/>
+      <c r="W24" s="6">
+        <f>16854-238</f>
+        <v>16616</v>
+      </c>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
@@ -3734,7 +3784,9 @@
       <c r="V25" s="6">
         <v>333</v>
       </c>
-      <c r="W25" s="6"/>
+      <c r="W25" s="92">
+        <v>238</v>
+      </c>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
@@ -3808,7 +3860,9 @@
         <f>SUM(V23:V25)</f>
         <v>37878</v>
       </c>
-      <c r="W26" s="6"/>
+      <c r="W26" s="15">
+        <v>40648</v>
+      </c>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
@@ -3892,7 +3946,9 @@
       <c r="V27" s="6">
         <v>13329</v>
       </c>
-      <c r="W27" s="6"/>
+      <c r="W27" s="6">
+        <v>13366</v>
+      </c>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
@@ -3985,14 +4041,17 @@
         <v>20360</v>
       </c>
       <c r="U28" s="6">
-        <f t="shared" ref="U28:V28" si="22">U26-U27</f>
+        <f t="shared" ref="U28:W28" si="22">U26-U27</f>
         <v>22281</v>
       </c>
       <c r="V28" s="6">
         <f t="shared" si="22"/>
         <v>24549</v>
       </c>
-      <c r="W28" s="6"/>
+      <c r="W28" s="6">
+        <f t="shared" si="22"/>
+        <v>27282</v>
+      </c>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
@@ -4079,7 +4138,9 @@
       <c r="V29" s="6">
         <v>11147</v>
       </c>
-      <c r="W29" s="6"/>
+      <c r="W29" s="6">
+        <v>12349</v>
+      </c>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
@@ -4162,7 +4223,9 @@
       <c r="V30" s="6">
         <v>0</v>
       </c>
-      <c r="W30" s="6"/>
+      <c r="W30" s="6">
+        <v>-41</v>
+      </c>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
@@ -4255,14 +4318,17 @@
         <v>12246</v>
       </c>
       <c r="U31" s="6">
-        <f t="shared" ref="U31:V31" si="29">U28-U29+U30</f>
+        <f t="shared" ref="U31:W31" si="29">U28-U29+U30</f>
         <v>11556</v>
       </c>
       <c r="V31" s="6">
         <f t="shared" si="29"/>
         <v>13402</v>
       </c>
-      <c r="W31" s="6"/>
+      <c r="W31" s="6">
+        <f t="shared" si="29"/>
+        <v>14892</v>
+      </c>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
@@ -4346,7 +4412,9 @@
       <c r="V32" s="6">
         <v>1143</v>
       </c>
-      <c r="W32" s="6"/>
+      <c r="W32" s="6">
+        <v>966</v>
+      </c>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
@@ -4430,7 +4498,9 @@
       <c r="V33" s="6">
         <v>60</v>
       </c>
-      <c r="W33" s="6"/>
+      <c r="W33" s="6">
+        <v>46</v>
+      </c>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
@@ -4523,14 +4593,17 @@
         <v>11634</v>
       </c>
       <c r="U34" s="6">
-        <f t="shared" ref="U34:V34" si="37">U31-U32-U33</f>
+        <f t="shared" ref="U34:W34" si="37">U31-U32-U33</f>
         <v>10450</v>
       </c>
       <c r="V34" s="6">
         <f t="shared" si="37"/>
         <v>12199</v>
       </c>
-      <c r="W34" s="6"/>
+      <c r="W34" s="6">
+        <f t="shared" si="37"/>
+        <v>13880</v>
+      </c>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
@@ -4614,7 +4687,9 @@
       <c r="V35" s="6">
         <v>3017</v>
       </c>
-      <c r="W35" s="6"/>
+      <c r="W35" s="6">
+        <v>2737</v>
+      </c>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
@@ -4699,7 +4774,9 @@
         <f>-637+2316</f>
         <v>1679</v>
       </c>
-      <c r="W36" s="6"/>
+      <c r="W36" s="6">
+        <v>-705</v>
+      </c>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
@@ -4799,7 +4876,10 @@
         <f>V34-V35-V36</f>
         <v>7503</v>
       </c>
-      <c r="W37" s="6"/>
+      <c r="W37" s="6">
+        <f>W34-W35-W36</f>
+        <v>11848</v>
+      </c>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
@@ -4883,7 +4963,9 @@
       <c r="V38" s="6">
         <v>446</v>
       </c>
-      <c r="W38" s="6"/>
+      <c r="W38" s="6">
+        <v>500</v>
+      </c>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
@@ -4976,14 +5058,17 @@
         <v>9048</v>
       </c>
       <c r="U39" s="6">
-        <f t="shared" ref="U39:V39" si="53">U37-U38</f>
+        <f t="shared" ref="U39:W39" si="53">U37-U38</f>
         <v>7813</v>
       </c>
       <c r="V39" s="6">
         <f t="shared" si="53"/>
         <v>7057</v>
       </c>
-      <c r="W39" s="6"/>
+      <c r="W39" s="6">
+        <f t="shared" si="53"/>
+        <v>11348</v>
+      </c>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
@@ -5120,7 +5205,10 @@
         <f>+V39/V42</f>
         <v>4.5411840411840414</v>
       </c>
-      <c r="W41" s="5"/>
+      <c r="W41" s="5">
+        <f>+W39/W42</f>
+        <v>7.2836970474967906</v>
+      </c>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
@@ -5209,7 +5297,9 @@
       <c r="V42" s="6">
         <v>1554</v>
       </c>
-      <c r="W42" s="5"/>
+      <c r="W42" s="5">
+        <v>1558</v>
+      </c>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
@@ -5317,7 +5407,7 @@
       <c r="O44" s="5"/>
       <c r="P44" s="17"/>
       <c r="Q44" s="17">
-        <f t="shared" ref="Q44:V45" si="61">Q23/P23-1</f>
+        <f t="shared" ref="Q44:W45" si="61">Q23/P23-1</f>
         <v>-5.1353362842257777E-2</v>
       </c>
       <c r="R44" s="17">
@@ -5340,7 +5430,10 @@
         <f t="shared" si="61"/>
         <v>3.9580908032595952E-2</v>
       </c>
-      <c r="W44" s="5"/>
+      <c r="W44" s="17">
+        <f t="shared" si="61"/>
+        <v>2.4808338358170312E-2</v>
+      </c>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
@@ -5428,7 +5521,10 @@
         <f t="shared" si="61"/>
         <v>0.1430509015477901</v>
       </c>
-      <c r="W45" s="5"/>
+      <c r="W45" s="17">
+        <f t="shared" si="61"/>
+        <v>0.15976826970056535</v>
+      </c>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
@@ -5502,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="17">
-        <f t="shared" ref="T46:V47" si="62">T25/S25-1</f>
+        <f t="shared" ref="T46:W47" si="62">T25/S25-1</f>
         <v>1.6831683168316833</v>
       </c>
       <c r="U46" s="17">
@@ -5513,7 +5609,10 @@
         <f t="shared" si="62"/>
         <v>8.8235294117646967E-2</v>
       </c>
-      <c r="W46" s="5"/>
+      <c r="W46" s="17">
+        <f t="shared" si="62"/>
+        <v>-0.28528528528528529</v>
+      </c>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
@@ -5602,7 +5701,10 @@
         <f t="shared" si="62"/>
         <v>7.6874964462386952E-2</v>
       </c>
-      <c r="W47" s="18"/>
+      <c r="W47" s="19">
+        <f t="shared" si="62"/>
+        <v>7.3129521094038807E-2</v>
+      </c>
       <c r="X47" s="18"/>
       <c r="Y47" s="18"/>
       <c r="Z47" s="18"/>
@@ -5705,7 +5807,10 @@
         <f t="shared" si="67"/>
         <v>0.64810708062727707</v>
       </c>
-      <c r="W48" s="5"/>
+      <c r="W48" s="17">
+        <f t="shared" ref="W48" si="68">W28/W26</f>
+        <v>0.67117693367447351</v>
+      </c>
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
@@ -5732,83 +5837,86 @@
         <v>42</v>
       </c>
       <c r="C49" s="17">
-        <f t="shared" ref="C49:J49" si="68">C31/C26</f>
+        <f t="shared" ref="C49:J49" si="69">C31/C26</f>
         <v>0.34056615538097018</v>
       </c>
       <c r="D49" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.28616036578565851</v>
       </c>
       <c r="E49" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.36866863581665027</v>
       </c>
       <c r="F49" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.31933237537305181</v>
       </c>
       <c r="G49" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.34629819174343229</v>
       </c>
       <c r="H49" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.3637515842839037</v>
       </c>
       <c r="I49" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.36868126324286149</v>
       </c>
       <c r="J49" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.3357716876159077</v>
       </c>
       <c r="K49" s="17">
-        <f t="shared" ref="K49:L49" si="69">K31/K26</f>
+        <f t="shared" ref="K49:L49" si="70">K31/K26</f>
         <v>0.38103429738737771</v>
       </c>
       <c r="L49" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.3660749506903353</v>
       </c>
       <c r="M49" s="17">
-        <f t="shared" ref="M49:N49" si="70">M31/M26</f>
+        <f t="shared" ref="M49:N49" si="71">M31/M26</f>
         <v>0.39308437067773166</v>
       </c>
       <c r="N49" s="17" t="e">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O49" s="17"/>
       <c r="P49" s="17">
-        <f t="shared" ref="P49:V49" si="71">P31/P26</f>
+        <f t="shared" ref="P49:V49" si="72">P31/P26</f>
         <v>0.38403375527426159</v>
       </c>
       <c r="Q49" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.35332997819157858</v>
       </c>
       <c r="R49" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.40663553356102322</v>
       </c>
       <c r="S49" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.4131507721700366</v>
       </c>
       <c r="T49" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.38555506580190163</v>
       </c>
       <c r="U49" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.32853812475123673</v>
       </c>
       <c r="V49" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.35382015945931677</v>
       </c>
-      <c r="W49" s="5"/>
+      <c r="W49" s="17">
+        <f t="shared" ref="W49" si="73">W31/W26</f>
+        <v>0.36636488880141704</v>
+      </c>
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
@@ -5835,83 +5943,86 @@
         <v>43</v>
       </c>
       <c r="C50" s="17">
-        <f t="shared" ref="C50:J50" si="72">C35/C34</f>
+        <f t="shared" ref="C50:J50" si="74">C35/C34</f>
         <v>0.17265026220250101</v>
       </c>
       <c r="D50" s="17">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0.2474591250552364</v>
       </c>
       <c r="E50" s="17">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0.33247339567881329</v>
       </c>
       <c r="F50" s="17">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0.12274645186037592</v>
       </c>
       <c r="G50" s="17">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0.24752837788355914</v>
       </c>
       <c r="H50" s="17">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0.23669783940664302</v>
       </c>
       <c r="I50" s="17">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0.21304347826086956</v>
       </c>
       <c r="J50" s="17">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>0.29893726431265</v>
       </c>
       <c r="K50" s="17">
-        <f t="shared" ref="K50:L50" si="73">K35/K34</f>
+        <f t="shared" ref="K50:L50" si="75">K35/K34</f>
         <v>0.2002430872075357</v>
       </c>
       <c r="L50" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>0.19042056074766356</v>
       </c>
       <c r="M50" s="17">
-        <f t="shared" ref="M50:N50" si="74">M35/M34</f>
+        <f t="shared" ref="M50:N50" si="76">M35/M34</f>
         <v>0.18686240358298084</v>
       </c>
       <c r="N50" s="17" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O50" s="17"/>
       <c r="P50" s="17">
-        <f t="shared" ref="P50:V50" si="75">P35/P34</f>
+        <f t="shared" ref="P50:V50" si="77">P35/P34</f>
         <v>0.2291256676974979</v>
       </c>
       <c r="Q50" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.23227309562398704</v>
       </c>
       <c r="R50" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.2170181685383</v>
       </c>
       <c r="S50" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.2183616742969261</v>
       </c>
       <c r="T50" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.19288292934502321</v>
       </c>
       <c r="U50" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.22382775119617224</v>
       </c>
       <c r="V50" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.24731535371751784</v>
       </c>
-      <c r="W50" s="5"/>
+      <c r="W50" s="17">
+        <f t="shared" ref="W50" si="78">W35/W34</f>
+        <v>0.19719020172910662</v>
+      </c>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
@@ -6106,7 +6217,9 @@
       <c r="V54" s="6">
         <v>4216</v>
       </c>
-      <c r="W54" s="6"/>
+      <c r="W54" s="6">
+        <v>4872</v>
+      </c>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
@@ -6166,7 +6279,9 @@
       <c r="V55" s="6">
         <v>3789</v>
       </c>
-      <c r="W55" s="6"/>
+      <c r="W55" s="6">
+        <v>4572</v>
+      </c>
       <c r="X55" s="6"/>
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
@@ -6226,7 +6341,9 @@
       <c r="V56" s="6">
         <v>886</v>
       </c>
-      <c r="W56" s="6"/>
+      <c r="W56" s="6">
+        <v>1238</v>
+      </c>
       <c r="X56" s="6"/>
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
@@ -6266,23 +6383,23 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
       <c r="P57" s="6">
-        <f t="shared" ref="P57:T57" si="76">SUM(P58:P60)</f>
+        <f t="shared" ref="P57:T57" si="79">SUM(P58:P60)</f>
         <v>8804</v>
       </c>
       <c r="Q57" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>9235</v>
       </c>
       <c r="R57" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>9591</v>
       </c>
       <c r="S57" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>8720</v>
       </c>
       <c r="T57" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>9886</v>
       </c>
       <c r="U57" s="6">
@@ -6293,7 +6410,10 @@
         <f>SUM(V58:V60)</f>
         <v>9453</v>
       </c>
-      <c r="W57" s="6"/>
+      <c r="W57" s="6">
+        <f>SUM(W58:W60)</f>
+        <v>11478</v>
+      </c>
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
@@ -6353,7 +6473,9 @@
       <c r="V58" s="6">
         <v>2080</v>
       </c>
-      <c r="W58" s="6"/>
+      <c r="W58" s="6">
+        <v>2425</v>
+      </c>
       <c r="X58" s="6"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
@@ -6413,7 +6535,9 @@
       <c r="V59" s="6">
         <v>2261</v>
       </c>
-      <c r="W59" s="6"/>
+      <c r="W59" s="6">
+        <v>2223</v>
+      </c>
       <c r="X59" s="6"/>
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
@@ -6473,7 +6597,9 @@
       <c r="V60" s="6">
         <v>5112</v>
       </c>
-      <c r="W60" s="6"/>
+      <c r="W60" s="6">
+        <v>6830</v>
+      </c>
       <c r="X60" s="6"/>
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
@@ -6533,7 +6659,9 @@
       <c r="V61" s="6">
         <v>1826</v>
       </c>
-      <c r="W61" s="6"/>
+      <c r="W61" s="6">
+        <v>2203</v>
+      </c>
       <c r="X61" s="6"/>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
@@ -6573,23 +6701,23 @@
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
       <c r="P62" s="15">
-        <f t="shared" ref="P62:T62" si="77">SUM(P54:P57,P61)</f>
+        <f t="shared" ref="P62:T62" si="80">SUM(P54:P57,P61)</f>
         <v>19442</v>
       </c>
       <c r="Q62" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>20514</v>
       </c>
       <c r="R62" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>21492</v>
       </c>
       <c r="S62" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>17717</v>
       </c>
       <c r="T62" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>19619</v>
       </c>
       <c r="U62" s="15">
@@ -6600,7 +6728,10 @@
         <f>SUM(V54:V57,V61)</f>
         <v>20170</v>
       </c>
-      <c r="W62" s="6"/>
+      <c r="W62" s="15">
+        <f>SUM(W54:W57,W61)</f>
+        <v>24363</v>
+      </c>
       <c r="X62" s="6"/>
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
@@ -6640,23 +6771,23 @@
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6">
-        <f t="shared" ref="P63:T63" si="78">SUM(P64:P68)</f>
+        <f t="shared" ref="P63:T63" si="81">SUM(P64:P68)</f>
         <v>7201</v>
       </c>
       <c r="Q63" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>6631</v>
       </c>
       <c r="R63" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>6365</v>
       </c>
       <c r="S63" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>6168</v>
       </c>
       <c r="T63" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>6710</v>
       </c>
       <c r="U63" s="6">
@@ -6667,7 +6798,10 @@
         <f>SUM(V64:V68)</f>
         <v>7310</v>
       </c>
-      <c r="W63" s="6"/>
+      <c r="W63" s="6">
+        <f>SUM(W64:W68)</f>
+        <v>8397</v>
+      </c>
       <c r="X63" s="6"/>
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
@@ -6727,7 +6861,9 @@
       <c r="V64" s="6">
         <v>581</v>
       </c>
-      <c r="W64" s="6"/>
+      <c r="W64" s="6">
+        <v>562</v>
+      </c>
       <c r="X64" s="6"/>
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
@@ -6787,7 +6923,9 @@
       <c r="V65" s="6">
         <v>4391</v>
       </c>
-      <c r="W65" s="6"/>
+      <c r="W65" s="6">
+        <v>5050</v>
+      </c>
       <c r="X65" s="6"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
@@ -6847,7 +6985,9 @@
       <c r="V66" s="6">
         <v>10632</v>
       </c>
-      <c r="W66" s="6"/>
+      <c r="W66" s="6">
+        <v>12533</v>
+      </c>
       <c r="X66" s="6"/>
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
@@ -6907,7 +7047,9 @@
       <c r="V67" s="6">
         <v>1081</v>
       </c>
-      <c r="W67" s="6"/>
+      <c r="W67" s="6">
+        <v>1471</v>
+      </c>
       <c r="X67" s="6"/>
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
@@ -6967,7 +7109,9 @@
       <c r="V68" s="6">
         <v>-9375</v>
       </c>
-      <c r="W68" s="6"/>
+      <c r="W68" s="6">
+        <v>-11219</v>
+      </c>
       <c r="X68" s="6"/>
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
@@ -7027,7 +7171,9 @@
       <c r="V69" s="6">
         <v>16600</v>
       </c>
-      <c r="W69" s="6"/>
+      <c r="W69" s="6">
+        <v>17264</v>
+      </c>
       <c r="X69" s="6"/>
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
@@ -7087,7 +7233,9 @@
       <c r="V70" s="6">
         <v>11327</v>
       </c>
-      <c r="W70" s="6"/>
+      <c r="W70" s="6">
+        <v>10884</v>
+      </c>
       <c r="X70" s="6"/>
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
@@ -7147,7 +7295,9 @@
       <c r="V71" s="6">
         <v>2654</v>
       </c>
-      <c r="W71" s="6"/>
+      <c r="W71" s="6">
+        <v>2891</v>
+      </c>
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
@@ -7207,7 +7357,9 @@
       <c r="V72" s="6">
         <v>940</v>
       </c>
-      <c r="W72" s="6"/>
+      <c r="W72" s="6">
+        <v>1247</v>
+      </c>
       <c r="X72" s="6"/>
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
@@ -7267,7 +7419,9 @@
       <c r="V73" s="6">
         <v>2783</v>
       </c>
-      <c r="W73" s="6"/>
+      <c r="W73" s="6">
+        <v>4139</v>
+      </c>
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
@@ -7307,23 +7461,23 @@
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
       <c r="P74" s="15">
-        <f t="shared" ref="P74:T74" si="79">SUM(P63,P69:P73)</f>
+        <f t="shared" ref="P74:T74" si="82">SUM(P63,P69:P73)</f>
         <v>20359</v>
       </c>
       <c r="Q74" s="15">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>22361</v>
       </c>
       <c r="R74" s="15">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>23323</v>
       </c>
       <c r="S74" s="15">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>23573</v>
       </c>
       <c r="T74" s="15">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>42062</v>
       </c>
       <c r="U74" s="15">
@@ -7334,7 +7488,10 @@
         <f>SUM(V63,V69:V73)</f>
         <v>41614</v>
       </c>
-      <c r="W74" s="6"/>
+      <c r="W74" s="15">
+        <f>SUM(W63,W69:W73)</f>
+        <v>44822</v>
+      </c>
       <c r="X74" s="6"/>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
@@ -7417,34 +7574,37 @@
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
       <c r="P76" s="15">
-        <f t="shared" ref="P76:V76" si="80">P74+P62</f>
+        <f t="shared" ref="P76:W76" si="83">P74+P62</f>
         <v>39801</v>
       </c>
       <c r="Q76" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>42875</v>
       </c>
       <c r="R76" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>44815</v>
       </c>
       <c r="S76" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>41290</v>
       </c>
       <c r="T76" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>61681</v>
       </c>
       <c r="U76" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>65304</v>
       </c>
       <c r="V76" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>61784</v>
       </c>
-      <c r="W76" s="6"/>
+      <c r="W76" s="15">
+        <f t="shared" si="83"/>
+        <v>69185</v>
+      </c>
       <c r="X76" s="6"/>
       <c r="Y76" s="6"/>
       <c r="Z76" s="6"/>
@@ -7547,7 +7707,9 @@
       <c r="V78" s="6">
         <v>137</v>
       </c>
-      <c r="W78" s="6"/>
+      <c r="W78" s="6">
+        <v>168</v>
+      </c>
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
@@ -7607,7 +7769,9 @@
       <c r="V79" s="6">
         <v>3392</v>
       </c>
-      <c r="W79" s="6"/>
+      <c r="W79" s="6">
+        <v>3533</v>
+      </c>
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
@@ -7667,7 +7831,9 @@
       <c r="V80" s="6">
         <v>3952</v>
       </c>
-      <c r="W80" s="6"/>
+      <c r="W80" s="6">
+        <v>4407</v>
+      </c>
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
@@ -7707,23 +7873,23 @@
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
       <c r="P81" s="6">
-        <f t="shared" ref="P81:T81" si="81">SUM(P82:P86)</f>
+        <f t="shared" ref="P81:T81" si="84">SUM(P82:P86)</f>
         <v>9763</v>
       </c>
       <c r="Q81" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>11349</v>
       </c>
       <c r="R81" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>12376</v>
       </c>
       <c r="S81" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>11876</v>
       </c>
       <c r="T81" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>13972</v>
       </c>
       <c r="U81" s="6">
@@ -7734,7 +7900,10 @@
         <f>SUM(V82:V86)</f>
         <v>14176</v>
       </c>
-      <c r="W81" s="6"/>
+      <c r="W81" s="6">
+        <f>SUM(W82:W86)</f>
+        <v>16064</v>
+      </c>
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
@@ -7794,7 +7963,9 @@
       <c r="V82" s="6">
         <v>1015</v>
       </c>
-      <c r="W82" s="6"/>
+      <c r="W82" s="6">
+        <v>1354</v>
+      </c>
       <c r="X82" s="6"/>
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
@@ -7854,7 +8025,9 @@
       <c r="V83" s="6">
         <v>6904</v>
       </c>
-      <c r="W83" s="6"/>
+      <c r="W83" s="6">
+        <v>7555</v>
+      </c>
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
@@ -7914,7 +8087,9 @@
       <c r="V84" s="6">
         <v>1305</v>
       </c>
-      <c r="W84" s="6"/>
+      <c r="W84" s="6">
+        <v>1545</v>
+      </c>
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
@@ -7974,7 +8149,9 @@
       <c r="V85" s="6">
         <v>2120</v>
       </c>
-      <c r="W85" s="6"/>
+      <c r="W85" s="6">
+        <v>2312</v>
+      </c>
       <c r="X85" s="6"/>
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
@@ -8034,7 +8211,9 @@
       <c r="V86" s="6">
         <v>2832</v>
       </c>
-      <c r="W86" s="6"/>
+      <c r="W86" s="6">
+        <v>3298</v>
+      </c>
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
@@ -8094,7 +8273,9 @@
       <c r="V87" s="6">
         <v>1258</v>
       </c>
-      <c r="W87" s="6"/>
+      <c r="W87" s="6">
+        <v>1255</v>
+      </c>
       <c r="X87" s="6"/>
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
@@ -8134,7 +8315,7 @@
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
       <c r="P88" s="15">
-        <f t="shared" ref="P88:T88" si="82">SUM(P78:P81,P87)</f>
+        <f t="shared" ref="P88:T88" si="85">SUM(P78:P81,P87)</f>
         <v>17191</v>
       </c>
       <c r="Q88" s="15">
@@ -8142,15 +8323,15 @@
         <v>18833</v>
       </c>
       <c r="R88" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>19615</v>
       </c>
       <c r="S88" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>19255</v>
       </c>
       <c r="T88" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>27336</v>
       </c>
       <c r="U88" s="15">
@@ -8161,7 +8342,10 @@
         <f>SUM(V78:V81,V87)</f>
         <v>22915</v>
       </c>
-      <c r="W88" s="6"/>
+      <c r="W88" s="15">
+        <f>SUM(W78:W81,W87)</f>
+        <v>25427</v>
+      </c>
       <c r="X88" s="6"/>
       <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
@@ -8221,7 +8405,9 @@
       <c r="V89" s="6">
         <v>42166</v>
       </c>
-      <c r="W89" s="6"/>
+      <c r="W89" s="6">
+        <v>45134</v>
+      </c>
       <c r="X89" s="6"/>
       <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
@@ -8281,7 +8467,9 @@
       <c r="V90" s="6">
         <v>2517</v>
       </c>
-      <c r="W90" s="6"/>
+      <c r="W90" s="6">
+        <v>2065</v>
+      </c>
       <c r="X90" s="6"/>
       <c r="Y90" s="6"/>
       <c r="Z90" s="6"/>
@@ -8341,7 +8529,9 @@
       <c r="V91" s="6">
         <v>2940</v>
       </c>
-      <c r="W91" s="6"/>
+      <c r="W91" s="6">
+        <v>2406</v>
+      </c>
       <c r="X91" s="6"/>
       <c r="Y91" s="6"/>
       <c r="Z91" s="6"/>
@@ -8401,7 +8591,9 @@
       <c r="V92" s="6">
         <v>1116</v>
       </c>
-      <c r="W92" s="6"/>
+      <c r="W92" s="6">
+        <v>2181</v>
+      </c>
       <c r="X92" s="6"/>
       <c r="Y92" s="6"/>
       <c r="Z92" s="6"/>
@@ -8441,23 +8633,23 @@
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
       <c r="P93" s="15">
-        <f t="shared" ref="P93:T93" si="83">SUM(P89:P92)</f>
+        <f t="shared" ref="P93:T93" si="86">SUM(P89:P92)</f>
         <v>33349</v>
       </c>
       <c r="Q93" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>33641</v>
       </c>
       <c r="R93" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>35831</v>
       </c>
       <c r="S93" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>30243</v>
       </c>
       <c r="T93" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>40656</v>
       </c>
       <c r="U93" s="15">
@@ -8468,7 +8660,10 @@
         <f>SUM(V89:V92)</f>
         <v>48739</v>
       </c>
-      <c r="W93" s="6"/>
+      <c r="W93" s="15">
+        <f>SUM(W89:W92)</f>
+        <v>51786</v>
+      </c>
       <c r="X93" s="6"/>
       <c r="Y93" s="6"/>
       <c r="Z93" s="6"/>
@@ -8552,23 +8747,23 @@
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
       <c r="P95" s="15">
-        <f t="shared" ref="P95:T95" si="84">P88+P93</f>
+        <f t="shared" ref="P95:T95" si="87">P88+P93</f>
         <v>50540</v>
       </c>
       <c r="Q95" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>52474</v>
       </c>
       <c r="R95" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>55446</v>
       </c>
       <c r="S95" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>49498</v>
       </c>
       <c r="T95" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>67992</v>
       </c>
       <c r="U95" s="15">
@@ -8579,7 +8774,10 @@
         <f>V88+V93</f>
         <v>71654</v>
       </c>
-      <c r="W95" s="6"/>
+      <c r="W95" s="15">
+        <f>W88+W93</f>
+        <v>77213</v>
+      </c>
       <c r="X95" s="6"/>
       <c r="Y95" s="6"/>
       <c r="Z95" s="6"/>
@@ -8683,7 +8881,9 @@
       <c r="V97" s="6">
         <v>0</v>
       </c>
-      <c r="W97" s="6"/>
+      <c r="W97" s="6">
+        <v>0</v>
+      </c>
       <c r="X97" s="6"/>
       <c r="Y97" s="6"/>
       <c r="Z97" s="6"/>
@@ -8743,7 +8943,9 @@
       <c r="V98" s="6">
         <v>2335</v>
       </c>
-      <c r="W98" s="6"/>
+      <c r="W98" s="6">
+        <v>2453</v>
+      </c>
       <c r="X98" s="6"/>
       <c r="Y98" s="6"/>
       <c r="Z98" s="6"/>
@@ -8803,7 +9005,9 @@
       <c r="V99" s="6">
         <v>32869</v>
       </c>
-      <c r="W99" s="6"/>
+      <c r="W99" s="6">
+        <v>35400</v>
+      </c>
       <c r="X99" s="6"/>
       <c r="Y99" s="6"/>
       <c r="Z99" s="6"/>
@@ -8863,7 +9067,9 @@
       <c r="V100" s="6">
         <v>-11314</v>
       </c>
-      <c r="W100" s="6"/>
+      <c r="W100" s="6">
+        <v>-12296</v>
+      </c>
       <c r="X100" s="6"/>
       <c r="Y100" s="6"/>
       <c r="Z100" s="6"/>
@@ -8923,7 +9129,9 @@
       <c r="V101" s="6">
         <v>-35640</v>
       </c>
-      <c r="W101" s="6"/>
+      <c r="W101" s="6">
+        <v>-35551</v>
+      </c>
       <c r="X101" s="6"/>
       <c r="Y101" s="6"/>
       <c r="Z101" s="6"/>
@@ -8983,7 +9191,9 @@
       <c r="V102" s="6">
         <v>1880</v>
       </c>
-      <c r="W102" s="6"/>
+      <c r="W102" s="6">
+        <v>1966</v>
+      </c>
       <c r="X102" s="6"/>
       <c r="Y102" s="6"/>
       <c r="Z102" s="6"/>
@@ -9023,23 +9233,23 @@
       <c r="N103" s="6"/>
       <c r="O103" s="6"/>
       <c r="P103" s="15">
-        <f t="shared" ref="P103:T103" si="85">SUM(P97:P102)</f>
+        <f t="shared" ref="P103:T103" si="88">SUM(P97:P102)</f>
         <v>-10739</v>
       </c>
       <c r="Q103" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-9599</v>
       </c>
       <c r="R103" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-10631</v>
       </c>
       <c r="S103" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-8208</v>
       </c>
       <c r="T103" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-6311</v>
       </c>
       <c r="U103" s="15">
@@ -9050,7 +9260,10 @@
         <f>SUM(V97:V102)</f>
         <v>-9870</v>
       </c>
-      <c r="W103" s="6"/>
+      <c r="W103" s="15">
+        <f>SUM(W97:W102)</f>
+        <v>-8028</v>
+      </c>
       <c r="X103" s="6"/>
       <c r="Y103" s="6"/>
       <c r="Z103" s="6"/>
@@ -9134,23 +9347,23 @@
       <c r="N105" s="6"/>
       <c r="O105" s="6"/>
       <c r="P105" s="15">
-        <f t="shared" ref="P105:T105" si="86">P95+P103</f>
+        <f t="shared" ref="P105:T105" si="89">P95+P103</f>
         <v>39801</v>
       </c>
       <c r="Q105" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>42875</v>
       </c>
       <c r="R105" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>44815</v>
       </c>
       <c r="S105" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>41290</v>
       </c>
       <c r="T105" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>61681</v>
       </c>
       <c r="U105" s="15">
@@ -9161,7 +9374,10 @@
         <f>V95+V103</f>
         <v>61784</v>
       </c>
-      <c r="W105" s="6"/>
+      <c r="W105" s="15">
+        <f>W95+W103</f>
+        <v>69185</v>
+      </c>
       <c r="X105" s="6"/>
       <c r="Y105" s="6"/>
       <c r="Z105" s="6"/>
@@ -9338,34 +9554,37 @@
       <c r="N109" s="6"/>
       <c r="O109" s="6"/>
       <c r="P109" s="6">
-        <f t="shared" ref="P109:V109" si="87">P37</f>
+        <f t="shared" ref="P109:W109" si="90">P37</f>
         <v>8286</v>
       </c>
       <c r="Q109" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>7728</v>
       </c>
       <c r="R109" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>8592</v>
       </c>
       <c r="S109" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>9710</v>
       </c>
       <c r="T109" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>9527</v>
       </c>
       <c r="U109" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>8268</v>
       </c>
       <c r="V109" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>7503</v>
       </c>
-      <c r="W109" s="6"/>
+      <c r="W109" s="6">
+        <f t="shared" si="90"/>
+        <v>11848</v>
+      </c>
       <c r="X109" s="6"/>
       <c r="Y109" s="6"/>
       <c r="Z109" s="6"/>
@@ -9425,7 +9644,9 @@
       <c r="V110" s="6">
         <v>1787</v>
       </c>
-      <c r="W110" s="6"/>
+      <c r="W110" s="6">
+        <v>1996</v>
+      </c>
       <c r="X110" s="6"/>
       <c r="Y110" s="6"/>
       <c r="Z110" s="6"/>
@@ -9486,7 +9707,10 @@
         <f>27+206+2316</f>
         <v>2549</v>
       </c>
-      <c r="W111" s="6"/>
+      <c r="W111" s="6">
+        <f>41+94</f>
+        <v>135</v>
+      </c>
       <c r="X111" s="6"/>
       <c r="Y111" s="6"/>
       <c r="Z111" s="6"/>
@@ -9546,7 +9770,9 @@
       <c r="V112" s="6">
         <v>-123</v>
       </c>
-      <c r="W112" s="6"/>
+      <c r="W112" s="6">
+        <v>-847</v>
+      </c>
       <c r="X112" s="6"/>
       <c r="Y112" s="6"/>
       <c r="Z112" s="6"/>
@@ -9606,7 +9832,9 @@
       <c r="V113" s="6">
         <v>122</v>
       </c>
-      <c r="W113" s="6"/>
+      <c r="W113" s="6">
+        <v>206</v>
+      </c>
       <c r="X113" s="6"/>
       <c r="Y113" s="6"/>
       <c r="Z113" s="6"/>
@@ -9712,7 +9940,9 @@
       <c r="V115" s="6">
         <v>-738</v>
       </c>
-      <c r="W115" s="6"/>
+      <c r="W115" s="6">
+        <v>-448</v>
+      </c>
       <c r="X115" s="6"/>
       <c r="Y115" s="6"/>
       <c r="Z115" s="6"/>
@@ -9772,7 +10002,9 @@
       <c r="V116" s="6">
         <v>552</v>
       </c>
-      <c r="W116" s="6"/>
+      <c r="W116" s="6">
+        <v>-1201</v>
+      </c>
       <c r="X116" s="6"/>
       <c r="Y116" s="6"/>
       <c r="Z116" s="6"/>
@@ -9832,7 +10064,9 @@
       <c r="V117" s="6">
         <v>297</v>
       </c>
-      <c r="W117" s="6"/>
+      <c r="W117" s="6">
+        <v>258</v>
+      </c>
       <c r="X117" s="6"/>
       <c r="Y117" s="6"/>
       <c r="Z117" s="6"/>
@@ -9892,7 +10126,9 @@
       <c r="V118" s="6">
         <v>628</v>
       </c>
-      <c r="W118" s="6"/>
+      <c r="W118" s="6">
+        <v>-151</v>
+      </c>
       <c r="X118" s="6"/>
       <c r="Y118" s="6"/>
       <c r="Z118" s="6"/>
@@ -9952,7 +10188,9 @@
       <c r="V119" s="6">
         <v>-62</v>
       </c>
-      <c r="W119" s="6"/>
+      <c r="W119" s="6">
+        <v>-266</v>
+      </c>
       <c r="X119" s="6"/>
       <c r="Y119" s="6"/>
       <c r="Z119" s="6"/>
@@ -10012,7 +10250,9 @@
       <c r="V120" s="6">
         <v>-110</v>
       </c>
-      <c r="W120" s="6"/>
+      <c r="W120" s="6">
+        <v>-139</v>
+      </c>
       <c r="X120" s="6"/>
       <c r="Y120" s="6"/>
       <c r="Z120" s="6"/>
@@ -10072,7 +10312,9 @@
       <c r="V121" s="6">
         <v>-188</v>
       </c>
-      <c r="W121" s="6"/>
+      <c r="W121" s="6">
+        <v>842</v>
+      </c>
       <c r="X121" s="6"/>
       <c r="Y121" s="6"/>
       <c r="Z121" s="6"/>
@@ -10112,23 +10354,23 @@
       <c r="N122" s="6"/>
       <c r="O122" s="6"/>
       <c r="P122" s="6">
-        <f t="shared" ref="P122:T122" si="88">SUM(P115:P121)</f>
+        <f t="shared" ref="P122:T122" si="91">SUM(P115:P121)</f>
         <v>306</v>
       </c>
       <c r="Q122" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>1168</v>
       </c>
       <c r="R122" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>396</v>
       </c>
       <c r="S122" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>1298</v>
       </c>
       <c r="T122" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>414</v>
       </c>
       <c r="U122" s="6">
@@ -10139,7 +10381,10 @@
         <f>SUM(V115:V121)</f>
         <v>379</v>
       </c>
-      <c r="W122" s="6"/>
+      <c r="W122" s="6">
+        <f>SUM(W115:W121)</f>
+        <v>-1105</v>
+      </c>
       <c r="X122" s="6"/>
       <c r="Y122" s="6"/>
       <c r="Z122" s="6"/>
@@ -10179,23 +10424,23 @@
       <c r="N123" s="6"/>
       <c r="O123" s="6"/>
       <c r="P123" s="15">
-        <f t="shared" ref="P123:T123" si="89">SUM(P109:P113,P122)</f>
+        <f t="shared" ref="P123:T123" si="92">SUM(P109:P113,P122)</f>
         <v>9478</v>
       </c>
       <c r="Q123" s="15">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>10090</v>
       </c>
       <c r="R123" s="15">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>9812</v>
       </c>
       <c r="S123" s="15">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>11967</v>
       </c>
       <c r="T123" s="15">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>10803</v>
       </c>
       <c r="U123" s="15">
@@ -10206,7 +10451,10 @@
         <f>SUM(V109:V113,V122)</f>
         <v>12217</v>
       </c>
-      <c r="W123" s="6"/>
+      <c r="W123" s="15">
+        <f>SUM(W109:W113,W122)</f>
+        <v>12233</v>
+      </c>
       <c r="X123" s="6"/>
       <c r="Y123" s="6"/>
       <c r="Z123" s="6"/>
@@ -10266,7 +10514,9 @@
       <c r="V124" s="6">
         <v>-1444</v>
       </c>
-      <c r="W124" s="6"/>
+      <c r="W124" s="6">
+        <v>-1569</v>
+      </c>
       <c r="X124" s="6"/>
       <c r="Y124" s="6"/>
       <c r="Z124" s="6"/>
@@ -10326,7 +10576,9 @@
       <c r="V125" s="6">
         <v>0</v>
       </c>
-      <c r="W125" s="6"/>
+      <c r="W125" s="6">
+        <v>0</v>
+      </c>
       <c r="X125" s="6"/>
       <c r="Y125" s="6"/>
       <c r="Z125" s="6"/>
@@ -10386,7 +10638,9 @@
       <c r="V126" s="6">
         <v>43</v>
       </c>
-      <c r="W126" s="6"/>
+      <c r="W126" s="6">
+        <v>30</v>
+      </c>
       <c r="X126" s="6"/>
       <c r="Y126" s="6"/>
       <c r="Z126" s="6"/>
@@ -10446,7 +10700,9 @@
       <c r="V127" s="6">
         <v>0</v>
       </c>
-      <c r="W127" s="6"/>
+      <c r="W127" s="6">
+        <v>0</v>
+      </c>
       <c r="X127" s="6"/>
       <c r="Y127" s="6"/>
       <c r="Z127" s="6"/>
@@ -10506,7 +10762,9 @@
       <c r="V128" s="6">
         <v>-124</v>
       </c>
-      <c r="W128" s="6"/>
+      <c r="W128" s="6">
+        <v>-63</v>
+      </c>
       <c r="X128" s="6"/>
       <c r="Y128" s="6"/>
       <c r="Z128" s="6"/>
@@ -10566,7 +10824,9 @@
       <c r="V129" s="6">
         <v>351</v>
       </c>
-      <c r="W129" s="6"/>
+      <c r="W129" s="6">
+        <v>-2274</v>
+      </c>
       <c r="X129" s="6"/>
       <c r="Y129" s="6"/>
       <c r="Z129" s="6"/>
@@ -10628,7 +10888,10 @@
         <f>-54+136</f>
         <v>82</v>
       </c>
-      <c r="W130" s="6"/>
+      <c r="W130" s="6">
+        <f>-5+116-202</f>
+        <v>-91</v>
+      </c>
       <c r="X130" s="6"/>
       <c r="Y130" s="6"/>
       <c r="Z130" s="6"/>
@@ -10668,23 +10931,23 @@
       <c r="N131" s="6"/>
       <c r="O131" s="6"/>
       <c r="P131" s="15">
-        <f t="shared" ref="P131:T131" si="90">SUM(P124:P130)</f>
+        <f t="shared" ref="P131:T131" si="93">SUM(P124:P130)</f>
         <v>-998</v>
       </c>
       <c r="Q131" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>-1811</v>
       </c>
       <c r="R131" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>-1154</v>
       </c>
       <c r="S131" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>-2358</v>
       </c>
       <c r="T131" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>-15679</v>
       </c>
       <c r="U131" s="15">
@@ -10695,7 +10958,10 @@
         <f>SUM(V124:V130)</f>
         <v>-1092</v>
       </c>
-      <c r="W131" s="6"/>
+      <c r="W131" s="15">
+        <f>SUM(W124:W130)</f>
+        <v>-3967</v>
+      </c>
       <c r="X131" s="6"/>
       <c r="Y131" s="6"/>
       <c r="Z131" s="6"/>
@@ -10755,7 +11021,9 @@
       <c r="V132" s="6">
         <v>-1461</v>
       </c>
-      <c r="W132" s="6"/>
+      <c r="W132" s="6">
+        <v>19</v>
+      </c>
       <c r="X132" s="6"/>
       <c r="Y132" s="6"/>
       <c r="Z132" s="6"/>
@@ -10815,7 +11083,9 @@
       <c r="V133" s="6">
         <v>100</v>
       </c>
-      <c r="W133" s="6"/>
+      <c r="W133" s="6">
+        <v>7055</v>
+      </c>
       <c r="X133" s="6"/>
       <c r="Y133" s="6"/>
       <c r="Z133" s="6"/>
@@ -10875,7 +11145,9 @@
       <c r="V134" s="6">
         <v>-433</v>
       </c>
-      <c r="W134" s="6"/>
+      <c r="W134" s="6">
+        <v>-5368</v>
+      </c>
       <c r="X134" s="6"/>
       <c r="Y134" s="6"/>
       <c r="Z134" s="6"/>
@@ -10935,7 +11207,9 @@
       <c r="V135" s="6">
         <v>0</v>
       </c>
-      <c r="W135" s="6"/>
+      <c r="W135" s="6">
+        <v>0</v>
+      </c>
       <c r="X135" s="6"/>
       <c r="Y135" s="6"/>
       <c r="Z135" s="6"/>
@@ -10995,7 +11269,9 @@
       <c r="V136" s="6">
         <v>-3168</v>
       </c>
-      <c r="W136" s="6"/>
+      <c r="W136" s="6">
+        <v>-693</v>
+      </c>
       <c r="X136" s="6"/>
       <c r="Y136" s="6"/>
       <c r="Z136" s="6"/>
@@ -11055,7 +11331,9 @@
       <c r="V137" s="6">
         <v>8142</v>
       </c>
-      <c r="W137" s="6"/>
+      <c r="W137" s="6">
+        <v>0</v>
+      </c>
       <c r="X137" s="6"/>
       <c r="Y137" s="6"/>
       <c r="Z137" s="6"/>
@@ -11115,7 +11393,9 @@
       <c r="V138" s="6">
         <v>-4803</v>
       </c>
-      <c r="W138" s="6"/>
+      <c r="W138" s="6">
+        <v>0</v>
+      </c>
       <c r="X138" s="6"/>
       <c r="Y138" s="6"/>
       <c r="Z138" s="6"/>
@@ -11175,7 +11455,9 @@
       <c r="V139" s="6">
         <v>0</v>
       </c>
-      <c r="W139" s="6"/>
+      <c r="W139" s="6">
+        <v>0</v>
+      </c>
       <c r="X139" s="6"/>
       <c r="Y139" s="6"/>
       <c r="Z139" s="6"/>
@@ -11235,7 +11517,9 @@
       <c r="V140" s="6">
         <v>-8197</v>
       </c>
-      <c r="W140" s="6"/>
+      <c r="W140" s="6">
+        <v>-8624</v>
+      </c>
       <c r="X140" s="6"/>
       <c r="Y140" s="6"/>
       <c r="Z140" s="6"/>
@@ -11295,7 +11579,9 @@
       <c r="V141" s="6">
         <v>0</v>
       </c>
-      <c r="W141" s="6"/>
+      <c r="W141" s="6">
+        <v>0</v>
+      </c>
       <c r="X141" s="6"/>
       <c r="Y141" s="6"/>
       <c r="Z141" s="6"/>
@@ -11355,7 +11641,9 @@
       <c r="V142" s="6">
         <v>-489</v>
       </c>
-      <c r="W142" s="6"/>
+      <c r="W142" s="6">
+        <v>-521</v>
+      </c>
       <c r="X142" s="6"/>
       <c r="Y142" s="6"/>
       <c r="Z142" s="6"/>
@@ -11415,7 +11703,9 @@
       <c r="V143" s="6">
         <v>828</v>
       </c>
-      <c r="W143" s="6"/>
+      <c r="W143" s="6">
+        <v>0</v>
+      </c>
       <c r="X143" s="6"/>
       <c r="Y143" s="6"/>
       <c r="Z143" s="6"/>
@@ -11455,34 +11745,37 @@
       <c r="N144" s="6"/>
       <c r="O144" s="6"/>
       <c r="P144" s="15">
-        <f t="shared" ref="P144:U144" si="91">SUM(P132:P143)</f>
+        <f t="shared" ref="P144:U144" si="94">SUM(P132:P143)</f>
         <v>-9651</v>
       </c>
       <c r="Q144" s="15">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>-8061</v>
       </c>
       <c r="R144" s="15">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>-8496</v>
       </c>
       <c r="S144" s="15">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>-11977</v>
       </c>
       <c r="T144" s="15">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>3806</v>
       </c>
       <c r="U144" s="15">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>-5582</v>
       </c>
       <c r="V144" s="15">
         <f>SUM(V132:V143)</f>
         <v>-9481</v>
       </c>
-      <c r="W144" s="6"/>
+      <c r="W144" s="15">
+        <f>SUM(W132:W143)</f>
+        <v>-8132</v>
+      </c>
       <c r="X144" s="6"/>
       <c r="Y144" s="6"/>
       <c r="Z144" s="6"/>
@@ -11585,7 +11878,9 @@
       <c r="V146" s="6">
         <v>-536</v>
       </c>
-      <c r="W146" s="6"/>
+      <c r="W146" s="6">
+        <v>504</v>
+      </c>
       <c r="X146" s="6"/>
       <c r="Y146" s="6"/>
       <c r="Z146" s="6"/>
@@ -11625,23 +11920,23 @@
       <c r="N147" s="6"/>
       <c r="O147" s="6"/>
       <c r="P147" s="15">
-        <f t="shared" ref="P147:T147" si="92">P146+P144+P131+P123</f>
+        <f t="shared" ref="P147:T147" si="95">P146+P144+P131+P123</f>
         <v>-1856</v>
       </c>
       <c r="Q147" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>245</v>
       </c>
       <c r="R147" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>420</v>
       </c>
       <c r="S147" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>-2785</v>
       </c>
       <c r="T147" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>-1283</v>
       </c>
       <c r="U147" s="15">
@@ -11652,7 +11947,10 @@
         <f>V146+V144+V131+V123</f>
         <v>1108</v>
       </c>
-      <c r="W147" s="6"/>
+      <c r="W147" s="15">
+        <f>W146+W144+W131+W123</f>
+        <v>638</v>
+      </c>
       <c r="X147" s="6"/>
       <c r="Y147" s="6"/>
       <c r="Z147" s="6"/>
@@ -11718,7 +12016,10 @@
         <f>U149</f>
         <v>3146</v>
       </c>
-      <c r="W148" s="6"/>
+      <c r="W148" s="6">
+        <f>+V149</f>
+        <v>4254</v>
+      </c>
       <c r="X148" s="6"/>
       <c r="Y148" s="6"/>
       <c r="Z148" s="6"/>
@@ -11785,7 +12086,10 @@
         <f>+V148+V147</f>
         <v>4254</v>
       </c>
-      <c r="W149" s="6"/>
+      <c r="W149" s="6">
+        <f>+W146+W148</f>
+        <v>4758</v>
+      </c>
       <c r="X149" s="6"/>
       <c r="Y149" s="6"/>
       <c r="Z149" s="6"/>
@@ -15406,7 +15710,7 @@
       </c>
       <c r="J4" s="46">
         <f>Main!K3</f>
-        <v>157.97999999999999</v>
+        <v>182.31</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -15421,7 +15725,7 @@
       </c>
       <c r="J5" s="46">
         <f ca="1">V61</f>
-        <v>146.90282090929077</v>
+        <v>148.23642994857417</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -15436,7 +15740,7 @@
       </c>
       <c r="J6" s="49">
         <f ca="1">J5/J4-1</f>
-        <v>-7.0117604068294814E-2</v>
+        <v>-0.18689907328959376</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -16985,7 +17289,7 @@
       <c r="Q57" s="41"/>
       <c r="V57" s="41">
         <f>Main!K6</f>
-        <v>4037</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.2">
@@ -17013,7 +17317,7 @@
       <c r="U58" s="75"/>
       <c r="V58" s="75">
         <f>Main!K7</f>
-        <v>50082</v>
+        <v>48835</v>
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.2">
@@ -17026,7 +17330,7 @@
       <c r="Q59" s="41"/>
       <c r="V59" s="41">
         <f ca="1">V56+V57-V58</f>
-        <v>228674.62336480943</v>
+        <v>230756.62336480943</v>
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.2">
@@ -17054,7 +17358,7 @@
       <c r="U60" s="75"/>
       <c r="V60" s="75">
         <f>Main!K4</f>
-        <v>1556.638749</v>
+        <v>1556.6795790000001</v>
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.2">
@@ -17063,7 +17367,7 @@
       </c>
       <c r="V61" s="40">
         <f ca="1">V59/V60</f>
-        <v>146.90282090929077</v>
+        <v>148.23642994857417</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
@@ -17096,19 +17400,19 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B67" s="77"/>
-      <c r="C67" s="83" t="s">
+      <c r="C67" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
-      <c r="J67" s="84"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="H67" s="86"/>
+      <c r="I67" s="86"/>
+      <c r="J67" s="87"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B68" s="85" t="s">
+      <c r="B68" s="88" t="s">
         <v>214</v>
       </c>
       <c r="C68" s="78"/>
@@ -17121,7 +17425,7 @@
       <c r="J68" s="79"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="85"/>
+      <c r="B69" s="88"/>
       <c r="C69" s="80"/>
       <c r="D69" s="81"/>
       <c r="E69" s="81"/>
@@ -17132,7 +17436,7 @@
       <c r="J69" s="81"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="85"/>
+      <c r="B70" s="88"/>
       <c r="C70" s="80"/>
       <c r="D70" s="81"/>
       <c r="E70" s="81"/>
@@ -17143,7 +17447,7 @@
       <c r="J70" s="81"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="85"/>
+      <c r="B71" s="88"/>
       <c r="C71" s="80"/>
       <c r="D71" s="81"/>
       <c r="E71" s="81"/>
@@ -17154,7 +17458,7 @@
       <c r="J71" s="81"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="85"/>
+      <c r="B72" s="88"/>
       <c r="C72" s="80"/>
       <c r="D72" s="81"/>
       <c r="E72" s="81"/>
@@ -17165,7 +17469,7 @@
       <c r="J72" s="81"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="85"/>
+      <c r="B73" s="88"/>
       <c r="C73" s="80"/>
       <c r="D73" s="81"/>
       <c r="E73" s="81"/>
@@ -17176,7 +17480,7 @@
       <c r="J73" s="81"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="85"/>
+      <c r="B74" s="88"/>
       <c r="C74" s="80"/>
       <c r="D74" s="81"/>
       <c r="E74" s="81"/>
@@ -17187,7 +17491,7 @@
       <c r="J74" s="81"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="86"/>
+      <c r="B75" s="89"/>
       <c r="C75" s="80"/>
       <c r="D75" s="81"/>
       <c r="E75" s="81"/>
